--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFE9730-0C2E-49B9-99DD-A481CB9DFEFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC96BA50-A7CE-469F-9E6D-424A4F15FE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="1680" windowWidth="25590" windowHeight="21630" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="10290" yWindow="1500" windowWidth="22995" windowHeight="21630" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="183">
   <si>
     <t>губ</t>
   </si>
@@ -283,6 +284,303 @@
   </si>
   <si>
     <t>Кавказ</t>
+  </si>
+  <si>
+    <t>чж 1912</t>
+  </si>
+  <si>
+    <t>чр 1911</t>
+  </si>
+  <si>
+    <t>чс 1911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архангельская  </t>
+  </si>
+  <si>
+    <t>Итого въ сѣверномъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олонецкая </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Псковская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новгородская </t>
+  </si>
+  <si>
+    <t>Итого въ пріозерн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костромская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимірская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва </t>
+  </si>
+  <si>
+    <t>Итого въ Московскомъ промышленномъ р</t>
+  </si>
+  <si>
+    <t>Орловская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронежская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тамбовская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ центральн земледѣл районѣ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саратовская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижегородская </t>
+  </si>
+  <si>
+    <t>Казанская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ средне-волжскомъ раойнѣ </t>
+  </si>
+  <si>
+    <t>Вятская</t>
+  </si>
+  <si>
+    <t>Пермская</t>
+  </si>
+  <si>
+    <t>Уфимская</t>
+  </si>
+  <si>
+    <t>Итого въ пріуральском р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оренбургская   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ нижне-волжскомъ районъ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полтавская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ Малороссіискомъ районъ  </t>
+  </si>
+  <si>
+    <t>Волынская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подольская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ юго-западномъ районъ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бессарабская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Херсонская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Николаевское градон </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таврическая  </t>
+  </si>
+  <si>
+    <t>Севастопольское градон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Екатеринославская  </t>
+  </si>
+  <si>
+    <t>Обл войска Донского</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ новороссийкомъ районъ  </t>
+  </si>
+  <si>
+    <t>Витебская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смоленская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могилевская </t>
+  </si>
+  <si>
+    <t>Минская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ бѣлорусскомъ районѣ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гродненская </t>
+  </si>
+  <si>
+    <t>Итого въ литовском р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курляндская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лифдяндская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эстляндская </t>
+  </si>
+  <si>
+    <t>Итого въ остзейскихъ г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ 50 губерніяхъ Европейской Россіи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ломжинская </t>
+  </si>
+  <si>
+    <t>Люблинская</t>
+  </si>
+  <si>
+    <t>Петроковская</t>
+  </si>
+  <si>
+    <t>Плоцкая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радомская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сѣдлецкая </t>
+  </si>
+  <si>
+    <t>Итого въ привислинских губ</t>
+  </si>
+  <si>
+    <t>Итого въ Европейской Россіи</t>
+  </si>
+  <si>
+    <t>Бакинская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бакинское градонач  </t>
+  </si>
+  <si>
+    <t>Батумская</t>
+  </si>
+  <si>
+    <t>Дагестанская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Елисаветпольская   </t>
+  </si>
+  <si>
+    <t>Карсская</t>
+  </si>
+  <si>
+    <t>Кубанская</t>
+  </si>
+  <si>
+    <t>Кутаисская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставропольская </t>
+  </si>
+  <si>
+    <t>Терская</t>
+  </si>
+  <si>
+    <t>Тифлисская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черноморская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эриванская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого на Кавказѣ   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амурская </t>
+  </si>
+  <si>
+    <t>Енисейская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забайкальская </t>
+  </si>
+  <si>
+    <t>Иркутская</t>
+  </si>
+  <si>
+    <t>Камчатская</t>
+  </si>
+  <si>
+    <t>Приморская</t>
+  </si>
+  <si>
+    <t>Сахалинская</t>
+  </si>
+  <si>
+    <t>Тобольская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Томская </t>
+  </si>
+  <si>
+    <t>Якутская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ Сибири   </t>
+  </si>
+  <si>
+    <t>Акмолинская</t>
+  </si>
+  <si>
+    <t>Закаспійская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самаркандская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семипалатинская   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семирѣченская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сыръ-Дарьинская   </t>
+  </si>
+  <si>
+    <t>Тургайская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уральская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ферганская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого въ Средней Азіи </t>
+  </si>
+  <si>
+    <t>Итого въ Азіатской Россіи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего въ Имперіи   </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -329,10 +627,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C3C210-BFF6-4E84-B3BD-A28C22B59611}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
@@ -3796,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O72" si="5">C67-G67-K67</f>
+        <f t="shared" ref="O67:O70" si="5">C67-G67-K67</f>
         <v>0</v>
       </c>
       <c r="P67" s="2">
@@ -4349,4 +4648,1840 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
+  <dimension ref="A1:D147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112:D120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3">
+        <v>448167</v>
+      </c>
+      <c r="C2" s="3">
+        <v>19639</v>
+      </c>
+      <c r="D2" s="3">
+        <v>11127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1629209</v>
+      </c>
+      <c r="C3" s="3">
+        <v>76248</v>
+      </c>
+      <c r="D3" s="3">
+        <v>47457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2077376</v>
+      </c>
+      <c r="C4" s="3">
+        <v>95887</v>
+      </c>
+      <c r="D4" s="3">
+        <v>58584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3">
+        <v>434468</v>
+      </c>
+      <c r="C5" s="3">
+        <v>19579</v>
+      </c>
+      <c r="D5" s="3">
+        <v>12781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1372312</v>
+      </c>
+      <c r="C6" s="3">
+        <v>47023</v>
+      </c>
+      <c r="D6" s="3">
+        <v>31496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1620500</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45195</v>
+      </c>
+      <c r="D7" s="3">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1422758</v>
+      </c>
+      <c r="C8" s="3">
+        <v>56077</v>
+      </c>
+      <c r="D8" s="3">
+        <v>33242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1620705</v>
+      </c>
+      <c r="C9" s="3">
+        <v>67553</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6470743</v>
+      </c>
+      <c r="C10" s="3">
+        <v>235427</v>
+      </c>
+      <c r="D10" s="3">
+        <v>154261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2318273</v>
+      </c>
+      <c r="C11" s="3">
+        <v>95971</v>
+      </c>
+      <c r="D11" s="3">
+        <v>60007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1383498</v>
+      </c>
+      <c r="C12" s="3">
+        <v>53805</v>
+      </c>
+      <c r="D12" s="3">
+        <v>33840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1735205</v>
+      </c>
+      <c r="C13" s="3">
+        <v>80007</v>
+      </c>
+      <c r="D13" s="3">
+        <v>48238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2106177</v>
+      </c>
+      <c r="C14" s="3">
+        <v>88813</v>
+      </c>
+      <c r="D14" s="3">
+        <v>55812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1770238</v>
+      </c>
+      <c r="C15" s="3">
+        <v>80965</v>
+      </c>
+      <c r="D15" s="3">
+        <v>51823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1534700</v>
+      </c>
+      <c r="C16" s="3">
+        <v>54097</v>
+      </c>
+      <c r="D16" s="3">
+        <v>41857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1449002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>68535</v>
+      </c>
+      <c r="D17" s="3">
+        <v>39828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12297093</v>
+      </c>
+      <c r="C18" s="3">
+        <v>522193</v>
+      </c>
+      <c r="D18" s="3">
+        <v>331405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1913576</v>
+      </c>
+      <c r="C19" s="3">
+        <v>87237</v>
+      </c>
+      <c r="D19" s="3">
+        <v>51410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2570427</v>
+      </c>
+      <c r="C20" s="3">
+        <v>109015</v>
+      </c>
+      <c r="D20" s="3">
+        <v>58449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2633175</v>
+      </c>
+      <c r="C21" s="3">
+        <v>117559</v>
+      </c>
+      <c r="D21" s="3">
+        <v>71673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2959208</v>
+      </c>
+      <c r="C22" s="3">
+        <v>138034</v>
+      </c>
+      <c r="D22" s="3">
+        <v>84853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3521712</v>
+      </c>
+      <c r="C23" s="3">
+        <v>176888</v>
+      </c>
+      <c r="D23" s="3">
+        <v>105129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3694485</v>
+      </c>
+      <c r="C24" s="3">
+        <v>179021</v>
+      </c>
+      <c r="D24" s="3">
+        <v>104524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="3">
+        <v>17292583</v>
+      </c>
+      <c r="C25" s="3">
+        <v>807754</v>
+      </c>
+      <c r="D25" s="3">
+        <v>476038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1931561</v>
+      </c>
+      <c r="C26" s="3">
+        <v>96391</v>
+      </c>
+      <c r="D26" s="3">
+        <v>58047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3238521</v>
+      </c>
+      <c r="C27" s="3">
+        <v>159482</v>
+      </c>
+      <c r="D27" s="3">
+        <v>107127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1971883</v>
+      </c>
+      <c r="C28" s="3">
+        <v>101641</v>
+      </c>
+      <c r="D28" s="3">
+        <v>63971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2047341</v>
+      </c>
+      <c r="C29" s="3">
+        <v>96669</v>
+      </c>
+      <c r="D29" s="3">
+        <v>64034</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2718030</v>
+      </c>
+      <c r="C30" s="3">
+        <v>122740</v>
+      </c>
+      <c r="D30" s="3">
+        <v>83131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3">
+        <v>11907336</v>
+      </c>
+      <c r="C31" s="3">
+        <v>576923</v>
+      </c>
+      <c r="D31" s="3">
+        <v>376360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3703885</v>
+      </c>
+      <c r="C32" s="3">
+        <v>200573</v>
+      </c>
+      <c r="D32" s="3">
+        <v>136835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3682470</v>
+      </c>
+      <c r="C33" s="3">
+        <v>207880</v>
+      </c>
+      <c r="D33" s="3">
+        <v>157669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3036792</v>
+      </c>
+      <c r="C34" s="3">
+        <v>157318</v>
+      </c>
+      <c r="D34" s="3">
+        <v>96382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10423147</v>
+      </c>
+      <c r="C35" s="3">
+        <v>565771</v>
+      </c>
+      <c r="D35" s="3">
+        <v>390886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2161438</v>
+      </c>
+      <c r="C36" s="3">
+        <v>124180</v>
+      </c>
+      <c r="D36" s="3">
+        <v>82688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3649419</v>
+      </c>
+      <c r="C37" s="3">
+        <v>208799</v>
+      </c>
+      <c r="D37" s="3">
+        <v>138353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1336872</v>
+      </c>
+      <c r="C38" s="3">
+        <v>47137</v>
+      </c>
+      <c r="D38" s="3">
+        <v>30872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="3">
+        <v>7147729</v>
+      </c>
+      <c r="C39" s="3">
+        <v>380116</v>
+      </c>
+      <c r="D39" s="3">
+        <v>251913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3322177</v>
+      </c>
+      <c r="C40" s="3">
+        <v>145628</v>
+      </c>
+      <c r="D40" s="3">
+        <v>76267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3631116</v>
+      </c>
+      <c r="C41" s="3">
+        <v>133962</v>
+      </c>
+      <c r="D41" s="3">
+        <v>66885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2836931</v>
+      </c>
+      <c r="C42" s="3">
+        <v>114274</v>
+      </c>
+      <c r="D42" s="3">
+        <v>60490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="3">
+        <v>9790224</v>
+      </c>
+      <c r="C43" s="3">
+        <v>393861</v>
+      </c>
+      <c r="D43" s="3">
+        <v>203612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4690768</v>
+      </c>
+      <c r="C44" s="3">
+        <v>183146</v>
+      </c>
+      <c r="D44" s="3">
+        <v>104501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3758527</v>
+      </c>
+      <c r="C45" s="3">
+        <v>151409</v>
+      </c>
+      <c r="D45" s="3">
+        <v>82629</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3755457</v>
+      </c>
+      <c r="C46" s="3">
+        <v>139919</v>
+      </c>
+      <c r="D46" s="3">
+        <v>94396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="3">
+        <v>12204752</v>
+      </c>
+      <c r="C47" s="3">
+        <v>474474</v>
+      </c>
+      <c r="D47" s="3">
+        <v>281525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2472542</v>
+      </c>
+      <c r="C48" s="3">
+        <v>98624</v>
+      </c>
+      <c r="D48" s="3">
+        <v>74293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2930667</v>
+      </c>
+      <c r="C49" s="3">
+        <v>130055</v>
+      </c>
+      <c r="D49" s="3">
+        <v>70905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="3">
+        <v>105990</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4076</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="3">
+        <v>555000</v>
+      </c>
+      <c r="C51" s="3">
+        <v>13179</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1886566</v>
+      </c>
+      <c r="C52" s="3">
+        <v>82850</v>
+      </c>
+      <c r="D52" s="3">
+        <v>46151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="3">
+        <v>88473</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2665</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3262496</v>
+      </c>
+      <c r="C54" s="3">
+        <v>158272</v>
+      </c>
+      <c r="D54" s="3">
+        <v>67554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3321058</v>
+      </c>
+      <c r="C55" s="3">
+        <v>176751</v>
+      </c>
+      <c r="D55" s="3">
+        <v>98226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="3">
+        <v>14622792</v>
+      </c>
+      <c r="C56" s="3">
+        <v>666472</v>
+      </c>
+      <c r="D56" s="3">
+        <v>370524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1895904</v>
+      </c>
+      <c r="C57" s="3">
+        <v>63306</v>
+      </c>
+      <c r="D57" s="3">
+        <v>32412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2042174</v>
+      </c>
+      <c r="C58" s="3">
+        <v>91810</v>
+      </c>
+      <c r="D58" s="3">
+        <v>50435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2292309</v>
+      </c>
+      <c r="C59" s="3">
+        <v>85851</v>
+      </c>
+      <c r="D59" s="3">
+        <v>40510</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2878149</v>
+      </c>
+      <c r="C60" s="3">
+        <v>108379</v>
+      </c>
+      <c r="D60" s="3">
+        <v>52542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="3">
+        <v>9108536</v>
+      </c>
+      <c r="C61" s="3">
+        <v>349346</v>
+      </c>
+      <c r="D61" s="3">
+        <v>175899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1855423</v>
+      </c>
+      <c r="C62" s="3">
+        <v>61781</v>
+      </c>
+      <c r="D62" s="3">
+        <v>37016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1938783</v>
+      </c>
+      <c r="C63" s="3">
+        <v>59205</v>
+      </c>
+      <c r="D63" s="3">
+        <v>35198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1756355</v>
+      </c>
+      <c r="C64" s="3">
+        <v>47639</v>
+      </c>
+      <c r="D64" s="3">
+        <v>33681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="3">
+        <v>5550561</v>
+      </c>
+      <c r="C65" s="3">
+        <v>168625</v>
+      </c>
+      <c r="D65" s="3">
+        <v>105895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="3">
+        <v>777473</v>
+      </c>
+      <c r="C66" s="3">
+        <v>19360</v>
+      </c>
+      <c r="D66" s="3">
+        <v>12878</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1444624</v>
+      </c>
+      <c r="C67" s="3">
+        <v>31925</v>
+      </c>
+      <c r="D67" s="3">
+        <v>25531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="3">
+        <v>470734</v>
+      </c>
+      <c r="C68" s="3">
+        <v>11749</v>
+      </c>
+      <c r="D68" s="3">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2692831</v>
+      </c>
+      <c r="C69" s="3">
+        <v>63034</v>
+      </c>
+      <c r="D69" s="3">
+        <v>47385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="3">
+        <v>121585703</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5299886</v>
+      </c>
+      <c r="D70" s="3">
+        <v>32243211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1846549</v>
+      </c>
+      <c r="C71" s="3">
+        <v>58496</v>
+      </c>
+      <c r="D71" s="3">
+        <v>34259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>797093</v>
+      </c>
+      <c r="C72" s="3">
+        <v>21929</v>
+      </c>
+      <c r="D72" s="3">
+        <v>16746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1355347</v>
+      </c>
+      <c r="C73" s="3">
+        <v>46698</v>
+      </c>
+      <c r="D73" s="3">
+        <v>26146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1000820</v>
+      </c>
+      <c r="C74" s="3">
+        <v>33510</v>
+      </c>
+      <c r="D74" s="3">
+        <v>18651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="3">
+        <v>716361</v>
+      </c>
+      <c r="C75" s="3">
+        <v>19843</v>
+      </c>
+      <c r="D75" s="3">
+        <v>12069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1624206</v>
+      </c>
+      <c r="C76" s="3">
+        <v>50468</v>
+      </c>
+      <c r="D76" s="3">
+        <v>28282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2216311</v>
+      </c>
+      <c r="C77" s="3">
+        <v>109889</v>
+      </c>
+      <c r="D77" s="3">
+        <v>50206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="3">
+        <v>768323</v>
+      </c>
+      <c r="C78" s="3">
+        <v>22691</v>
+      </c>
+      <c r="D78" s="3">
+        <v>15820</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1244205</v>
+      </c>
+      <c r="C79" s="3">
+        <v>41126</v>
+      </c>
+      <c r="D79" s="3">
+        <v>24655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>655740</v>
+      </c>
+      <c r="C80" s="3">
+        <v>14462</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1049759</v>
+      </c>
+      <c r="C81" s="3">
+        <v>29860</v>
+      </c>
+      <c r="D81" s="3">
+        <v>17562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="3">
+        <v>13274714</v>
+      </c>
+      <c r="C82" s="3">
+        <v>449192</v>
+      </c>
+      <c r="D82" s="3">
+        <v>254037</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="3">
+        <v>134860417</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5749078</v>
+      </c>
+      <c r="D83" s="3">
+        <v>3478357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="3">
+        <v>791563</v>
+      </c>
+      <c r="C84" s="3">
+        <v>21806</v>
+      </c>
+      <c r="D84" s="3">
+        <v>15170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="3">
+        <v>357190</v>
+      </c>
+      <c r="C85" s="3">
+        <v>9314</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="3">
+        <v>166552</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3821</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="3">
+        <v>684945</v>
+      </c>
+      <c r="C87" s="3">
+        <v>16296</v>
+      </c>
+      <c r="D87" s="3">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1230231</v>
+      </c>
+      <c r="C88" s="3">
+        <v>25454</v>
+      </c>
+      <c r="D88" s="3">
+        <v>16570</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="3">
+        <v>377200</v>
+      </c>
+      <c r="C89" s="3">
+        <v>13351</v>
+      </c>
+      <c r="D89" s="3">
+        <v>6296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2836181</v>
+      </c>
+      <c r="C90" s="3">
+        <v>146966</v>
+      </c>
+      <c r="D90" s="3">
+        <v>83342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1113291</v>
+      </c>
+      <c r="C91" s="3">
+        <v>29939</v>
+      </c>
+      <c r="D91" s="3">
+        <v>15618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1230591</v>
+      </c>
+      <c r="C92" s="3">
+        <v>68546</v>
+      </c>
+      <c r="D92" s="3">
+        <v>35920</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1196497</v>
+      </c>
+      <c r="C93" s="3">
+        <v>48944</v>
+      </c>
+      <c r="D93" s="3">
+        <v>29266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1378972</v>
+      </c>
+      <c r="C94" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D94" s="3">
+        <v>27524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="3">
+        <v>149130</v>
+      </c>
+      <c r="C95" s="3">
+        <v>5019</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="3">
+        <v>905345</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33898</v>
+      </c>
+      <c r="D96" s="3">
+        <v>20624</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" s="3">
+        <v>12417688</v>
+      </c>
+      <c r="C97" s="3">
+        <v>466039</v>
+      </c>
+      <c r="D97" s="3">
+        <v>271638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="3">
+        <v>268743</v>
+      </c>
+      <c r="C98" s="3">
+        <v>12455</v>
+      </c>
+      <c r="D98" s="3">
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="3">
+        <v>966409</v>
+      </c>
+      <c r="C99" s="3">
+        <v>51981</v>
+      </c>
+      <c r="D99" s="3">
+        <v>28173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="3">
+        <v>888643</v>
+      </c>
+      <c r="C100" s="3">
+        <v>36022</v>
+      </c>
+      <c r="D100" s="3">
+        <v>20859</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="3">
+        <v>649135</v>
+      </c>
+      <c r="C101" s="3">
+        <v>34320</v>
+      </c>
+      <c r="D101" s="3">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" s="3">
+        <v>34676</v>
+      </c>
+      <c r="C102" s="3">
+        <v>633</v>
+      </c>
+      <c r="D102" s="3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="3">
+        <v>545397</v>
+      </c>
+      <c r="C103" s="3">
+        <v>16993</v>
+      </c>
+      <c r="D103" s="3">
+        <v>9261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="3">
+        <v>8605</v>
+      </c>
+      <c r="C104" s="3">
+        <v>201</v>
+      </c>
+      <c r="D104" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2038755</v>
+      </c>
+      <c r="C105" s="3">
+        <v>113599</v>
+      </c>
+      <c r="D105" s="3">
+        <v>76686</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3850666</v>
+      </c>
+      <c r="C106" s="3">
+        <v>208159</v>
+      </c>
+      <c r="D106" s="3">
+        <v>122733</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="3">
+        <v>257738</v>
+      </c>
+      <c r="C107" s="3">
+        <v>11248</v>
+      </c>
+      <c r="D107" s="3">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="3">
+        <v>9508767</v>
+      </c>
+      <c r="C108" s="3">
+        <v>485611</v>
+      </c>
+      <c r="D108" s="3">
+        <v>294066</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1469401</v>
+      </c>
+      <c r="C109" s="3">
+        <v>62539</v>
+      </c>
+      <c r="D109" s="3">
+        <v>37060</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="3">
+        <v>451300</v>
+      </c>
+      <c r="C110" s="3">
+        <v>20495</v>
+      </c>
+      <c r="D110" s="3">
+        <v>11268</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1183600</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="3">
+        <v>873760</v>
+      </c>
+      <c r="C112" s="3">
+        <v>21977</v>
+      </c>
+      <c r="D112" s="3">
+        <v>12306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1227753</v>
+      </c>
+      <c r="C113" s="3">
+        <v>43312</v>
+      </c>
+      <c r="D113" s="3">
+        <v>28176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1911464</v>
+      </c>
+      <c r="C114" s="3">
+        <v>66893</v>
+      </c>
+      <c r="D114" s="3">
+        <v>38798</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>176</v>
+      </c>
+      <c r="B115" s="3">
+        <v>749143</v>
+      </c>
+      <c r="C115" s="3">
+        <v>34324</v>
+      </c>
+      <c r="D115" s="3">
+        <v>22009</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" s="3">
+        <v>804215</v>
+      </c>
+      <c r="C116" s="3">
+        <v>19079</v>
+      </c>
+      <c r="D116" s="3">
+        <v>14740</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2062531</v>
+      </c>
+      <c r="C117" s="3">
+        <v>61792</v>
+      </c>
+      <c r="D117" s="3">
+        <v>35478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" s="3">
+        <v>10733197</v>
+      </c>
+      <c r="C118" s="3">
+        <v>330411</v>
+      </c>
+      <c r="D118" s="3">
+        <v>199835</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" s="3">
+        <v>32659652</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1282052</v>
+      </c>
+      <c r="D119" s="3">
+        <v>765539</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="3">
+        <v>167520069</v>
+      </c>
+      <c r="C120" s="3">
+        <v>7031130</v>
+      </c>
+      <c r="D120" s="3">
+        <v>4243896</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC96BA50-A7CE-469F-9E6D-424A4F15FE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6EBD09-C185-43D9-BFC3-70F866D26EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="1500" windowWidth="22995" windowHeight="21630" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>чр 1911</t>
   </si>
   <si>
-    <t>чс 1911</t>
-  </si>
-  <si>
     <t xml:space="preserve">Архангельская  </t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>чу 1911</t>
   </si>
 </sst>
 </file>
@@ -4654,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112:D120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,12 +4676,12 @@
         <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3">
         <v>448167</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
         <v>2077376</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3">
         <v>434468</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3">
         <v>1422758</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3">
         <v>1620705</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3">
         <v>6470743</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="3">
         <v>1735205</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3">
         <v>2106177</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3">
         <v>1770238</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3">
         <v>1534700</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="3">
         <v>12297093</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3">
         <v>2633175</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="3">
         <v>3521712</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3">
         <v>3694485</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3">
         <v>17292583</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="3">
         <v>3238521</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3">
         <v>2047341</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3">
         <v>2718030</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3">
         <v>11907336</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="3">
         <v>3703885</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3">
         <v>3682470</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3">
         <v>3036792</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="3">
         <v>10423147</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="3">
         <v>2161438</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3">
         <v>7147729</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="3">
         <v>3631116</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3">
         <v>9790224</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="3">
         <v>3758527</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="3">
         <v>3755457</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3">
         <v>12204752</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3">
         <v>2472542</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="3">
         <v>2930667</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="3">
         <v>105990</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="3">
         <v>1886566</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="3">
         <v>88473</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3">
         <v>3262496</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="3">
         <v>3321058</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B56" s="3">
         <v>14622792</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="3">
         <v>1895904</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3">
         <v>2042174</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="3">
         <v>2292309</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="3">
         <v>2878149</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61" s="3">
         <v>9108536</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="3">
         <v>1855423</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="3">
         <v>5550561</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3">
         <v>777473</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="3">
         <v>1444624</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="3">
         <v>470734</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="3">
         <v>2692831</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3">
         <v>121585703</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="3">
         <v>716361</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="3">
         <v>1624206</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" s="3">
         <v>2216311</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="3">
         <v>768323</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" s="3">
         <v>1244205</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="3">
         <v>1049759</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="3">
         <v>13274714</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" s="3">
         <v>134860417</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" s="3">
         <v>791563</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B85" s="3">
         <v>357190</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86" s="3">
         <v>166552</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87" s="3">
         <v>684945</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" s="3">
         <v>1230231</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="3">
         <v>377200</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B90" s="3">
         <v>2836181</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="3">
         <v>1113291</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="3">
         <v>1230591</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B93" s="3">
         <v>1196497</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B94" s="3">
         <v>1378972</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B95" s="3">
         <v>149130</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" s="3">
         <v>905345</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B97" s="3">
         <v>12417688</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B98" s="3">
         <v>268743</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" s="3">
         <v>966409</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B100" s="3">
         <v>888643</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="3">
         <v>649135</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="3">
         <v>34676</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="3">
         <v>545397</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="3">
         <v>8605</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="3">
         <v>2038755</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B106" s="3">
         <v>3850666</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B107" s="3">
         <v>257738</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108" s="3">
         <v>9508767</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B109" s="3">
         <v>1469401</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B110" s="3">
         <v>451300</v>
@@ -6207,21 +6207,21 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111" s="3">
         <v>1183600</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112" s="3">
         <v>873760</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B113" s="3">
         <v>1227753</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" s="3">
         <v>1911464</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B115" s="3">
         <v>749143</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B116" s="3">
         <v>804215</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B117" s="3">
         <v>2062531</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B118" s="3">
         <v>10733197</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B119" s="3">
         <v>32659652</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B120" s="3">
         <v>167520069</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6EBD09-C185-43D9-BFC3-70F866D26EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5B403-9C77-4FA0-A261-7DC2F71BD273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="19110" yWindow="1620" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4654,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,7 +5642,7 @@
         <v>5299886</v>
       </c>
       <c r="D70" s="3">
-        <v>32243211</v>
+        <v>3224320</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5B403-9C77-4FA0-A261-7DC2F71BD273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CB530-1ED0-44E4-B17D-2B1B3B1D163C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="1620" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="1620" yWindow="2610" windowWidth="26340" windowHeight="18825" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="195">
   <si>
     <t>губ</t>
   </si>
@@ -581,6 +581,42 @@
   </si>
   <si>
     <t>чу 1911</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
   </si>
 </sst>
 </file>
@@ -627,11 +663,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4652,10 +4691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:Q149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4663,9 +4702,15 @@
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4678,8 +4723,44 @@
       <c r="D1" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -4692,8 +4773,20 @@
       <c r="D2" s="3">
         <v>11127</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4706,8 +4799,20 @@
       <c r="D3" s="3">
         <v>47457</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -4720,8 +4825,20 @@
       <c r="D4" s="3">
         <v>58584</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -4734,8 +4851,20 @@
       <c r="D5" s="3">
         <v>12781</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4748,8 +4877,20 @@
       <c r="D6" s="3">
         <v>31496</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4762,8 +4903,20 @@
       <c r="D7" s="3">
         <v>33600</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -4776,8 +4929,20 @@
       <c r="D8" s="3">
         <v>33242</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -4790,8 +4955,20 @@
       <c r="D9" s="3">
         <v>43145</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -4804,8 +4981,20 @@
       <c r="D10" s="3">
         <v>154261</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -4818,8 +5007,20 @@
       <c r="D11" s="3">
         <v>60007</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -4832,8 +5033,20 @@
       <c r="D12" s="3">
         <v>33840</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4846,8 +5059,20 @@
       <c r="D13" s="3">
         <v>48238</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4860,8 +5085,20 @@
       <c r="D14" s="3">
         <v>55812</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -4874,8 +5111,20 @@
       <c r="D15" s="3">
         <v>51823</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -4888,8 +5137,20 @@
       <c r="D16" s="3">
         <v>41857</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4902,8 +5163,20 @@
       <c r="D17" s="3">
         <v>39828</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -4916,8 +5189,20 @@
       <c r="D18" s="3">
         <v>331405</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -4930,8 +5215,20 @@
       <c r="D19" s="3">
         <v>51410</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -4944,8 +5241,20 @@
       <c r="D20" s="3">
         <v>58449</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -4958,8 +5267,20 @@
       <c r="D21" s="3">
         <v>71673</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4972,8 +5293,20 @@
       <c r="D22" s="3">
         <v>84853</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -4986,8 +5319,20 @@
       <c r="D23" s="3">
         <v>105129</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -5000,8 +5345,20 @@
       <c r="D24" s="3">
         <v>104524</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -5014,8 +5371,20 @@
       <c r="D25" s="3">
         <v>476038</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5028,8 +5397,20 @@
       <c r="D26" s="3">
         <v>58047</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -5042,8 +5423,20 @@
       <c r="D27" s="3">
         <v>107127</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -5056,8 +5449,20 @@
       <c r="D28" s="3">
         <v>63971</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -5070,8 +5475,20 @@
       <c r="D29" s="3">
         <v>64034</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -5084,8 +5501,20 @@
       <c r="D30" s="3">
         <v>83131</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -5098,8 +5527,20 @@
       <c r="D31" s="3">
         <v>376360</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -5112,8 +5553,20 @@
       <c r="D32" s="3">
         <v>136835</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -5126,8 +5579,20 @@
       <c r="D33" s="3">
         <v>157669</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -5140,8 +5605,20 @@
       <c r="D34" s="3">
         <v>96382</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -5154,8 +5631,20 @@
       <c r="D35" s="3">
         <v>390886</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -5168,8 +5657,20 @@
       <c r="D36" s="3">
         <v>82688</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -5182,8 +5683,20 @@
       <c r="D37" s="3">
         <v>138353</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -5196,8 +5709,20 @@
       <c r="D38" s="3">
         <v>30872</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -5210,8 +5735,20 @@
       <c r="D39" s="3">
         <v>251913</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -5224,8 +5761,20 @@
       <c r="D40" s="3">
         <v>76267</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -5238,8 +5787,20 @@
       <c r="D41" s="3">
         <v>66885</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -5252,8 +5813,20 @@
       <c r="D42" s="3">
         <v>60490</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -5266,8 +5839,20 @@
       <c r="D43" s="3">
         <v>203612</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -5280,8 +5865,20 @@
       <c r="D44" s="3">
         <v>104501</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -5294,8 +5891,20 @@
       <c r="D45" s="3">
         <v>82629</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -5308,8 +5917,20 @@
       <c r="D46" s="3">
         <v>94396</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -5322,8 +5943,20 @@
       <c r="D47" s="3">
         <v>281525</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -5336,8 +5969,20 @@
       <c r="D48" s="3">
         <v>74293</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -5350,8 +5995,20 @@
       <c r="D49" s="3">
         <v>70905</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -5364,8 +6021,20 @@
       <c r="D50" s="3">
         <v>2335</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -5378,8 +6047,20 @@
       <c r="D51" s="3">
         <v>9516</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -5392,8 +6073,20 @@
       <c r="D52" s="3">
         <v>46151</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -5406,8 +6099,20 @@
       <c r="D53" s="3">
         <v>1544</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -5420,8 +6125,20 @@
       <c r="D54" s="3">
         <v>67554</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -5434,8 +6151,20 @@
       <c r="D55" s="3">
         <v>98226</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -5448,8 +6177,20 @@
       <c r="D56" s="3">
         <v>370524</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -5462,8 +6203,20 @@
       <c r="D57" s="3">
         <v>32412</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -5476,8 +6229,20 @@
       <c r="D58" s="3">
         <v>50435</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -5490,8 +6255,20 @@
       <c r="D59" s="3">
         <v>40510</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -5504,8 +6281,20 @@
       <c r="D60" s="3">
         <v>52542</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -5518,8 +6307,20 @@
       <c r="D61" s="3">
         <v>175899</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -5532,8 +6333,20 @@
       <c r="D62" s="3">
         <v>37016</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -5546,8 +6359,20 @@
       <c r="D63" s="3">
         <v>35198</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -5560,8 +6385,20 @@
       <c r="D64" s="3">
         <v>33681</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -5574,8 +6411,20 @@
       <c r="D65" s="3">
         <v>105895</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -5588,8 +6437,20 @@
       <c r="D66" s="3">
         <v>12878</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -5602,8 +6463,20 @@
       <c r="D67" s="3">
         <v>25531</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -5616,8 +6489,20 @@
       <c r="D68" s="3">
         <v>8976</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -5630,8 +6515,20 @@
       <c r="D69" s="3">
         <v>47385</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -5644,8 +6541,20 @@
       <c r="D70" s="3">
         <v>3224320</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5658,8 +6567,20 @@
       <c r="D71" s="3">
         <v>34259</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -5672,8 +6593,20 @@
       <c r="D72" s="3">
         <v>16746</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -5686,8 +6619,20 @@
       <c r="D73" s="3">
         <v>26146</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -5700,8 +6645,20 @@
       <c r="D74" s="3">
         <v>18651</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -5714,8 +6671,20 @@
       <c r="D75" s="3">
         <v>12069</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -5728,8 +6697,20 @@
       <c r="D76" s="3">
         <v>28282</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5742,8 +6723,20 @@
       <c r="D77" s="3">
         <v>50206</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5756,8 +6749,20 @@
       <c r="D78" s="3">
         <v>15820</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -5770,8 +6775,20 @@
       <c r="D79" s="3">
         <v>24655</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -5784,8 +6801,20 @@
       <c r="D80" s="3">
         <v>9637</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -5798,8 +6827,20 @@
       <c r="D81" s="3">
         <v>17562</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -5812,8 +6853,20 @@
       <c r="D82" s="3">
         <v>254037</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -5826,8 +6879,20 @@
       <c r="D83" s="3">
         <v>3478357</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -5840,8 +6905,20 @@
       <c r="D84" s="3">
         <v>15170</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -5854,8 +6931,20 @@
       <c r="D85" s="3">
         <v>5839</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -5868,8 +6957,20 @@
       <c r="D86" s="3">
         <v>2635</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -5882,8 +6983,20 @@
       <c r="D87" s="3">
         <v>10225</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -5896,8 +7009,20 @@
       <c r="D88" s="3">
         <v>16570</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -5910,8 +7035,20 @@
       <c r="D89" s="3">
         <v>6296</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -5924,8 +7061,20 @@
       <c r="D90" s="3">
         <v>83342</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -5938,8 +7087,20 @@
       <c r="D91" s="3">
         <v>15618</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -5952,8 +7113,20 @@
       <c r="D92" s="3">
         <v>35920</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -5966,8 +7139,20 @@
       <c r="D93" s="3">
         <v>29266</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -5980,8 +7165,20 @@
       <c r="D94" s="3">
         <v>27524</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -5994,8 +7191,20 @@
       <c r="D95" s="3">
         <v>2609</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -6008,8 +7217,20 @@
       <c r="D96" s="3">
         <v>20624</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -6022,8 +7243,20 @@
       <c r="D97" s="3">
         <v>271638</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -6036,8 +7269,20 @@
       <c r="D98" s="3">
         <v>6645</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -6050,8 +7295,20 @@
       <c r="D99" s="3">
         <v>28173</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -6064,8 +7321,20 @@
       <c r="D100" s="3">
         <v>20859</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -6078,8 +7347,20 @@
       <c r="D101" s="3">
         <v>21002</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -6092,8 +7373,20 @@
       <c r="D102" s="3">
         <v>469</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -6106,8 +7399,20 @@
       <c r="D103" s="3">
         <v>9261</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -6120,8 +7425,20 @@
       <c r="D104" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -6134,8 +7451,20 @@
       <c r="D105" s="3">
         <v>76686</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -6148,8 +7477,20 @@
       <c r="D106" s="3">
         <v>122733</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -6162,8 +7503,20 @@
       <c r="D107" s="3">
         <v>8160</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -6176,8 +7529,20 @@
       <c r="D108" s="3">
         <v>294066</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -6190,8 +7555,20 @@
       <c r="D109" s="3">
         <v>37060</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -6204,8 +7581,20 @@
       <c r="D110" s="3">
         <v>11268</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -6218,8 +7607,20 @@
       <c r="D111" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -6232,8 +7633,20 @@
       <c r="D112" s="3">
         <v>12306</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -6246,8 +7659,20 @@
       <c r="D113" s="3">
         <v>28176</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -6260,8 +7685,20 @@
       <c r="D114" s="3">
         <v>38798</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -6274,8 +7711,20 @@
       <c r="D115" s="3">
         <v>22009</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -6288,8 +7737,20 @@
       <c r="D116" s="3">
         <v>14740</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -6302,8 +7763,20 @@
       <c r="D117" s="3">
         <v>35478</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -6316,8 +7789,20 @@
       <c r="D118" s="3">
         <v>199835</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -6330,8 +7815,20 @@
       <c r="D119" s="3">
         <v>765539</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -6344,141 +7841,505 @@
       <c r="D120" s="3">
         <v>4243896</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CB530-1ED0-44E4-B17D-2B1B3B1D163C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDC3D7-8825-4AF2-A834-5CA6C4A39FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2610" windowWidth="26340" windowHeight="18825" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="26265" windowHeight="21705" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="201">
   <si>
     <t>губ</t>
   </si>
@@ -617,6 +617,24 @@
   </si>
   <si>
     <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>11065?</t>
+  </si>
+  <si>
+    <t>116478,</t>
+  </si>
+  <si>
+    <t>576573(16</t>
+  </si>
+  <si>
+    <t>1310194,</t>
+  </si>
+  <si>
+    <t>249460Г</t>
+  </si>
+  <si>
+    <t>»918</t>
   </si>
 </sst>
 </file>
@@ -4693,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
   <dimension ref="A1:Q149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,18 +4791,42 @@
       <c r="D2" s="3">
         <v>11127</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="F2" s="4">
+        <v>26542</v>
+      </c>
+      <c r="G2" s="4">
+        <v>24805</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1055</v>
+      </c>
+      <c r="I2" s="4">
+        <v>982</v>
+      </c>
+      <c r="J2" s="4">
+        <v>797</v>
+      </c>
+      <c r="K2" s="4">
+        <v>582</v>
+      </c>
+      <c r="L2" s="4">
+        <v>190430</v>
+      </c>
+      <c r="M2" s="4">
+        <v>206390</v>
+      </c>
+      <c r="N2" s="4">
+        <v>8945</v>
+      </c>
+      <c r="O2" s="4">
+        <v>8657</v>
+      </c>
+      <c r="P2" s="4">
+        <v>5131</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>4617</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4799,18 +4841,42 @@
       <c r="D3" s="3">
         <v>47457</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="F3" s="4">
+        <v>38141</v>
+      </c>
+      <c r="G3" s="4">
+        <v>36510</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1619</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1561</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1176</v>
+      </c>
+      <c r="K3" s="4">
+        <v>991</v>
+      </c>
+      <c r="L3" s="4">
+        <v>744107</v>
+      </c>
+      <c r="M3" s="4">
+        <v>812451</v>
+      </c>
+      <c r="N3" s="4">
+        <v>37434</v>
+      </c>
+      <c r="O3" s="4">
+        <v>35634</v>
+      </c>
+      <c r="P3" s="4">
+        <v>23760</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>21531</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4825,18 +4891,42 @@
       <c r="D4" s="3">
         <v>58584</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="F4" s="4">
+        <v>62683</v>
+      </c>
+      <c r="G4" s="4">
+        <v>61315</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2675</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2543</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1973</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1572</v>
+      </c>
+      <c r="L4" s="4">
+        <v>934537</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1018841</v>
+      </c>
+      <c r="N4" s="4">
+        <v>46379</v>
+      </c>
+      <c r="O4" s="4">
+        <v>44291</v>
+      </c>
+      <c r="P4" s="4">
+        <v>28891</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>26148</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4851,18 +4941,42 @@
       <c r="D5" s="3">
         <v>12781</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="F5" s="4">
+        <v>14868</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15791</v>
+      </c>
+      <c r="H5" s="4">
+        <v>683</v>
+      </c>
+      <c r="I5" s="4">
+        <v>647</v>
+      </c>
+      <c r="J5" s="4">
+        <v>538</v>
+      </c>
+      <c r="K5" s="4">
+        <v>431</v>
+      </c>
+      <c r="L5" s="4">
+        <v>197408</v>
+      </c>
+      <c r="M5" s="4">
+        <v>206393</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9168</v>
+      </c>
+      <c r="O5" s="4">
+        <v>9081</v>
+      </c>
+      <c r="P5" s="4">
+        <v>6159</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>5648</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4877,18 +4991,42 @@
       <c r="D6" s="3">
         <v>31496</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="F6" s="4">
+        <v>293295</v>
+      </c>
+      <c r="G6" s="4">
+        <v>217970</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9597</v>
+      </c>
+      <c r="I6" s="4">
+        <v>9201</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7170</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5477</v>
+      </c>
+      <c r="L6" s="4">
+        <v>423034</v>
+      </c>
+      <c r="M6" s="4">
+        <v>438013</v>
+      </c>
+      <c r="N6" s="4">
+        <v>14480</v>
+      </c>
+      <c r="O6" s="4">
+        <v>13745</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10274</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>8575</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4903,18 +5041,42 @@
       <c r="D7" s="3">
         <v>33600</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="F7" s="4">
+        <v>895000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>725501</v>
+      </c>
+      <c r="H7" s="4">
+        <v>23293</v>
+      </c>
+      <c r="I7" s="4">
+        <v>21902</v>
+      </c>
+      <c r="J7" s="4">
+        <v>18956</v>
+      </c>
+      <c r="K7" s="4">
+        <v>14644</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4929,18 +5091,42 @@
       <c r="D8" s="3">
         <v>33242</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="F8" s="4">
+        <v>4809</v>
+      </c>
+      <c r="G8" s="4">
+        <v>50454</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1812</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1573</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1391</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1067</v>
+      </c>
+      <c r="L8" s="4">
+        <v>638153</v>
+      </c>
+      <c r="M8" s="4">
+        <v>686060</v>
+      </c>
+      <c r="N8" s="4">
+        <v>26821</v>
+      </c>
+      <c r="O8" s="4">
+        <v>25871</v>
+      </c>
+      <c r="P8" s="4">
+        <v>16210</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>14574</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4955,18 +5141,42 @@
       <c r="D9" s="3">
         <v>43145</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="F9" s="4">
+        <v>47564</v>
+      </c>
+      <c r="G9" s="4">
+        <v>49748</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2057</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1985</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1656</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1451</v>
+      </c>
+      <c r="L9" s="4">
+        <v>727548</v>
+      </c>
+      <c r="M9" s="4">
+        <v>795845</v>
+      </c>
+      <c r="N9" s="4">
+        <v>32548</v>
+      </c>
+      <c r="O9" s="4">
+        <v>30963</v>
+      </c>
+      <c r="P9" s="4">
+        <v>21048</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>18990</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4981,18 +5191,42 @@
       <c r="D10" s="3">
         <v>154261</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="F10" s="4">
+        <v>1298818</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1959471</v>
+      </c>
+      <c r="H10" s="4">
+        <v>37442</v>
+      </c>
+      <c r="I10" s="4">
+        <v>35308</v>
+      </c>
+      <c r="J10" s="4">
+        <v>29711</v>
+      </c>
+      <c r="K10" s="4">
+        <v>23075</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1986143</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2126311</v>
+      </c>
+      <c r="N10" s="4">
+        <v>83017</v>
+      </c>
+      <c r="O10" s="4">
+        <v>79660</v>
+      </c>
+      <c r="P10" s="4">
+        <v>53691</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>47787</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5007,18 +5241,42 @@
       <c r="D11" s="3">
         <v>60007</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="F11" s="4">
+        <v>86450</v>
+      </c>
+      <c r="G11" s="4">
+        <v>87209</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3455</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3340</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2620</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2391</v>
+      </c>
+      <c r="L11" s="4">
+        <v>975724</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1168890</v>
+      </c>
+      <c r="N11" s="4">
+        <v>45895</v>
+      </c>
+      <c r="O11" s="4">
+        <v>43281</v>
+      </c>
+      <c r="P11" s="4">
+        <v>29092</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>25904</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5033,18 +5291,42 @@
       <c r="D12" s="3">
         <v>33840</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="4">
+        <v>104335</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4407</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4218</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3483</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2866</v>
+      </c>
+      <c r="L12" s="4">
+        <v>549864</v>
+      </c>
+      <c r="M12" s="4">
+        <v>618642</v>
+      </c>
+      <c r="N12" s="4">
+        <v>23193</v>
+      </c>
+      <c r="O12" s="4">
+        <v>21987</v>
+      </c>
+      <c r="P12" s="4">
+        <v>13975</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>13516</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5059,18 +5341,42 @@
       <c r="D13" s="3">
         <v>48238</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="F13" s="4">
+        <v>46543</v>
+      </c>
+      <c r="G13" s="4">
+        <v>49331</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2140</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2054</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1516</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1395</v>
+      </c>
+      <c r="L13" s="4">
+        <v>768482</v>
+      </c>
+      <c r="M13" s="4">
+        <v>870849</v>
+      </c>
+      <c r="N13" s="4">
+        <v>38694</v>
+      </c>
+      <c r="O13" s="4">
+        <v>37119</v>
+      </c>
+      <c r="P13" s="4">
+        <v>23475</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>21852</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5085,18 +5391,42 @@
       <c r="D14" s="3">
         <v>55812</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="F14" s="4">
+        <v>177249</v>
+      </c>
+      <c r="G14" s="4">
+        <v>168021</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7168</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6482</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5057</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4275</v>
+      </c>
+      <c r="L14" s="4">
+        <v>880745</v>
+      </c>
+      <c r="M14" s="4">
+        <v>880162</v>
+      </c>
+      <c r="N14" s="4">
+        <v>38526</v>
+      </c>
+      <c r="O14" s="4">
+        <v>36637</v>
+      </c>
+      <c r="P14" s="4">
+        <v>24015</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>22465</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5111,18 +5441,42 @@
       <c r="D15" s="3">
         <v>51823</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="F15" s="4">
+        <v>65060</v>
+      </c>
+      <c r="G15" s="4">
+        <v>57005</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3258</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3179</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2301</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2001</v>
+      </c>
+      <c r="L15" s="4">
+        <v>733793</v>
+      </c>
+      <c r="M15" s="4">
+        <v>913380</v>
+      </c>
+      <c r="N15" s="4">
+        <v>38188</v>
+      </c>
+      <c r="O15" s="4">
+        <v>36340</v>
+      </c>
+      <c r="P15" s="4">
+        <v>25173</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>22348</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5137,18 +5491,42 @@
       <c r="D16" s="3">
         <v>41857</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="F16" s="4">
+        <v>829900</v>
+      </c>
+      <c r="G16" s="4">
+        <v>704800</v>
+      </c>
+      <c r="H16" s="4">
+        <v>27718</v>
+      </c>
+      <c r="I16" s="4">
+        <v>26379</v>
+      </c>
+      <c r="J16" s="4">
+        <v>23177</v>
+      </c>
+      <c r="K16" s="4">
+        <v>18680</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -5163,18 +5541,42 @@
       <c r="D17" s="3">
         <v>39828</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="F17" s="4">
+        <v>48759</v>
+      </c>
+      <c r="G17" s="4">
+        <v>47417</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1697</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1686</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1611</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1252</v>
+      </c>
+      <c r="L17" s="4">
+        <v>632401</v>
+      </c>
+      <c r="M17" s="4">
+        <v>720425</v>
+      </c>
+      <c r="N17" s="4">
+        <v>33339</v>
+      </c>
+      <c r="O17" s="4">
+        <v>31813</v>
+      </c>
+      <c r="P17" s="4">
+        <v>19110</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>17855</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5189,18 +5591,42 @@
       <c r="D18" s="3">
         <v>331405</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="F18" s="4">
+        <v>1364618</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1218118</v>
+      </c>
+      <c r="H18" s="4">
+        <v>49843</v>
+      </c>
+      <c r="I18" s="4">
+        <v>47338</v>
+      </c>
+      <c r="J18" s="4">
+        <v>39765</v>
+      </c>
+      <c r="K18" s="4">
+        <v>32860</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4541009</v>
+      </c>
+      <c r="M18" s="4">
+        <v>5173348</v>
+      </c>
+      <c r="N18" s="4">
+        <v>217835</v>
+      </c>
+      <c r="O18" s="4">
+        <v>207177</v>
+      </c>
+      <c r="P18" s="4">
+        <v>134840</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>123940</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -5215,18 +5641,42 @@
       <c r="D19" s="3">
         <v>51410</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="F19" s="4">
+        <v>104204</v>
+      </c>
+      <c r="G19" s="4">
+        <v>92731</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3895</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3875</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2764</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2397</v>
+      </c>
+      <c r="L19" s="4">
+        <v>848858</v>
+      </c>
+      <c r="M19" s="4">
+        <v>867783</v>
+      </c>
+      <c r="N19" s="4">
+        <v>40637</v>
+      </c>
+      <c r="O19" s="4">
+        <v>38830</v>
+      </c>
+      <c r="P19" s="4">
+        <v>24516</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>21733</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5241,18 +5691,42 @@
       <c r="D20" s="3">
         <v>58449</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="F20" s="4">
+        <v>73773</v>
+      </c>
+      <c r="G20" s="4">
+        <v>68728</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2906</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2786</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2307</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1907</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1205807</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1222119</v>
+      </c>
+      <c r="N20" s="4">
+        <v>52746</v>
+      </c>
+      <c r="O20" s="4">
+        <v>50577</v>
+      </c>
+      <c r="P20" s="4">
+        <v>28399</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>25836</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5267,18 +5741,42 @@
       <c r="D21" s="3">
         <v>71673</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="F21" s="4">
+        <v>154398</v>
+      </c>
+      <c r="G21" s="4">
+        <v>138645</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4812</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4568</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3643</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3146</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1170832</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1169300</v>
+      </c>
+      <c r="N21" s="4">
+        <v>55219</v>
+      </c>
+      <c r="O21" s="4">
+        <v>52960</v>
+      </c>
+      <c r="P21" s="4">
+        <v>33534</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>31350</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5293,18 +5791,42 @@
       <c r="D22" s="3">
         <v>84853</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="F22" s="4">
+        <v>122135</v>
+      </c>
+      <c r="G22" s="4">
+        <v>124133</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4060</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3666</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2905</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2499</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1351148</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1361792</v>
+      </c>
+      <c r="N22" s="4">
+        <v>67181</v>
+      </c>
+      <c r="O22" s="4">
+        <v>63127</v>
+      </c>
+      <c r="P22" s="4">
+        <v>40756</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>38693</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5319,18 +5841,42 @@
       <c r="D23" s="3">
         <v>105129</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="F23" s="4">
+        <v>83957</v>
+      </c>
+      <c r="G23" s="4">
+        <v>75194</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2534</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2288</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2033</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1568</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1699100</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1663461</v>
+      </c>
+      <c r="N23" s="4">
+        <v>87958</v>
+      </c>
+      <c r="O23" s="4">
+        <v>84108</v>
+      </c>
+      <c r="P23" s="4">
+        <v>51977</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>49551</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5345,18 +5891,42 @@
       <c r="D24" s="3">
         <v>104524</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="F24" s="4">
+        <v>140942</v>
+      </c>
+      <c r="G24" s="4">
+        <v>125186</v>
+      </c>
+      <c r="H24" s="4">
+        <v>6507</v>
+      </c>
+      <c r="I24" s="4">
+        <v>6293</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5064</v>
+      </c>
+      <c r="K24" s="4">
+        <v>4499</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1704600</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1723757</v>
+      </c>
+      <c r="N24" s="4">
+        <v>84244</v>
+      </c>
+      <c r="O24" s="4">
+        <v>81977</v>
+      </c>
+      <c r="P24" s="4">
+        <v>48764</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>46197</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5371,18 +5941,42 @@
       <c r="D25" s="3">
         <v>476038</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="F25" s="4">
+        <v>679199</v>
+      </c>
+      <c r="G25" s="4">
+        <v>624617</v>
+      </c>
+      <c r="H25" s="4">
+        <v>24714</v>
+      </c>
+      <c r="I25" s="4">
+        <v>23476</v>
+      </c>
+      <c r="J25" s="4">
+        <v>18716</v>
+      </c>
+      <c r="K25" s="4">
+        <v>16016</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7980345</v>
+      </c>
+      <c r="M25" s="4">
+        <v>8098212</v>
+      </c>
+      <c r="N25" s="4">
+        <v>387985</v>
+      </c>
+      <c r="O25" s="4">
+        <v>371579</v>
+      </c>
+      <c r="P25" s="4">
+        <v>227946</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>213360</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5397,18 +5991,42 @@
       <c r="D26" s="3">
         <v>58047</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="F26" s="4">
+        <v>83630</v>
+      </c>
+      <c r="G26" s="4">
+        <v>81388</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3814</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3685</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2914</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2433</v>
+      </c>
+      <c r="L26" s="4">
+        <v>877170</v>
+      </c>
+      <c r="M26" s="4">
+        <v>889373</v>
+      </c>
+      <c r="N26" s="4">
+        <v>45584</v>
+      </c>
+      <c r="O26" s="4">
+        <v>43308</v>
+      </c>
+      <c r="P26" s="4">
+        <v>27392</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>25308</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5423,18 +6041,42 @@
       <c r="D27" s="3">
         <v>107127</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="F27" s="4">
+        <v>253483</v>
+      </c>
+      <c r="G27" s="4">
+        <v>272542</v>
+      </c>
+      <c r="H27" s="4">
+        <v>10813</v>
+      </c>
+      <c r="I27" s="4">
+        <v>10468</v>
+      </c>
+      <c r="J27" s="4">
+        <v>8556</v>
+      </c>
+      <c r="K27" s="4">
+        <v>6975</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1356646</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1355850</v>
+      </c>
+      <c r="N27" s="4">
+        <v>70257</v>
+      </c>
+      <c r="O27" s="4">
+        <v>67944</v>
+      </c>
+      <c r="P27" s="4">
+        <v>46878</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>44718</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5449,18 +6091,42 @@
       <c r="D28" s="3">
         <v>63971</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="F28" s="4">
+        <v>85384</v>
+      </c>
+      <c r="G28" s="4">
+        <v>78661</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3896</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3826</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3351</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3070</v>
+      </c>
+      <c r="L28" s="4">
+        <v>888301</v>
+      </c>
+      <c r="M28" s="4">
+        <v>919537</v>
+      </c>
+      <c r="N28" s="4">
+        <v>47946</v>
+      </c>
+      <c r="O28" s="4">
+        <v>45973</v>
+      </c>
+      <c r="P28" s="4">
+        <v>29052</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>28498</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5475,18 +6141,42 @@
       <c r="D29" s="3">
         <v>64034</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="F29" s="4">
+        <v>74311</v>
+      </c>
+      <c r="G29" s="4">
+        <v>74455</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2583</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2386</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2091</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1683</v>
+      </c>
+      <c r="L29" s="4">
+        <v>919879</v>
+      </c>
+      <c r="M29" s="4">
+        <v>978696</v>
+      </c>
+      <c r="N29" s="4">
+        <v>47265</v>
+      </c>
+      <c r="O29" s="4">
+        <v>44435</v>
+      </c>
+      <c r="P29" s="4">
+        <v>31566</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>28744</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5501,18 +6191,42 @@
       <c r="D30" s="3">
         <v>83131</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="F30" s="4">
+        <v>127440</v>
+      </c>
+      <c r="G30" s="4">
+        <v>125935</v>
+      </c>
+      <c r="H30" s="4">
+        <v>4443</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4324</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4073</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3467</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1235499</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1229156</v>
+      </c>
+      <c r="N30" s="4">
+        <v>57692</v>
+      </c>
+      <c r="O30" s="4">
+        <v>56281</v>
+      </c>
+      <c r="P30" s="4">
+        <v>37990</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>37601</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5527,18 +6241,42 @@
       <c r="D31" s="3">
         <v>376360</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="F31" s="4">
+        <v>624248</v>
+      </c>
+      <c r="G31" s="4">
+        <v>632981</v>
+      </c>
+      <c r="H31" s="4">
+        <v>25549</v>
+      </c>
+      <c r="I31" s="4">
+        <v>24689</v>
+      </c>
+      <c r="J31" s="4">
+        <v>20985</v>
+      </c>
+      <c r="K31" s="4">
+        <v>17628</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5277495</v>
+      </c>
+      <c r="M31" s="4">
+        <v>5372612</v>
+      </c>
+      <c r="N31" s="4">
+        <v>268744</v>
+      </c>
+      <c r="O31" s="4">
+        <v>257941</v>
+      </c>
+      <c r="P31" s="4">
+        <v>172878</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>164869</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5553,18 +6291,42 @@
       <c r="D32" s="3">
         <v>136835</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="F32" s="4">
+        <v>68529</v>
+      </c>
+      <c r="G32" s="4">
+        <v>65736</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2598</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2416</v>
+      </c>
+      <c r="J32" s="4">
+        <v>2100</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1787</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1748027</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1821593</v>
+      </c>
+      <c r="N32" s="4">
+        <v>99818</v>
+      </c>
+      <c r="O32" s="4">
+        <v>95741</v>
+      </c>
+      <c r="P32" s="4">
+        <v>68050</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>64898</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5579,18 +6341,42 @@
       <c r="D33" s="3">
         <v>157669</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="F33" s="4">
+        <v>103493</v>
+      </c>
+      <c r="G33" s="4">
+        <v>100935</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5147</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5003</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4785</v>
+      </c>
+      <c r="K33" s="4">
+        <v>4028</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1672015</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1806027</v>
+      </c>
+      <c r="N33" s="4">
+        <v>100609</v>
+      </c>
+      <c r="O33" s="4">
+        <v>97121</v>
+      </c>
+      <c r="P33" s="4">
+        <v>76559</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>72297</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -5605,18 +6391,42 @@
       <c r="D34" s="3">
         <v>96382</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="F34" s="4">
+        <v>90881</v>
+      </c>
+      <c r="G34" s="4">
+        <v>90195</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4473</v>
+      </c>
+      <c r="I34" s="4">
+        <v>4274</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3543</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3047</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1376315</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1479401</v>
+      </c>
+      <c r="N34" s="4">
+        <v>76014</v>
+      </c>
+      <c r="O34" s="4">
+        <v>72557</v>
+      </c>
+      <c r="P34" s="4">
+        <v>45396</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>44396</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -5631,18 +6441,42 @@
       <c r="D35" s="3">
         <v>390886</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="F35" s="4">
+        <v>262903</v>
+      </c>
+      <c r="G35" s="4">
+        <v>256866</v>
+      </c>
+      <c r="H35" s="4">
+        <v>12218</v>
+      </c>
+      <c r="I35" s="4">
+        <v>11693</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10428</v>
+      </c>
+      <c r="K35" s="4">
+        <v>8862</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4796357</v>
+      </c>
+      <c r="M35" s="4">
+        <v>5167021</v>
+      </c>
+      <c r="N35" s="4">
+        <v>276441</v>
+      </c>
+      <c r="O35" s="4">
+        <v>265419</v>
+      </c>
+      <c r="P35" s="4">
+        <v>190005</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>181591</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5657,18 +6491,42 @@
       <c r="D36" s="3">
         <v>82688</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="F36" s="4">
+        <v>129288</v>
+      </c>
+      <c r="G36" s="4">
+        <v>121905</v>
+      </c>
+      <c r="H36" s="4">
+        <v>6374</v>
+      </c>
+      <c r="I36" s="4">
+        <v>5844</v>
+      </c>
+      <c r="J36" s="4">
+        <v>5200</v>
+      </c>
+      <c r="K36" s="4">
+        <v>4447</v>
+      </c>
+      <c r="L36" s="4">
+        <v>956903</v>
+      </c>
+      <c r="M36" s="4">
+        <v>953342</v>
+      </c>
+      <c r="N36" s="4">
+        <v>56883</v>
+      </c>
+      <c r="O36" s="4">
+        <v>55079</v>
+      </c>
+      <c r="P36" s="4">
+        <v>37490</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>35551</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5683,18 +6541,42 @@
       <c r="D37" s="3">
         <v>138353</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="F37" s="4">
+        <v>83399</v>
+      </c>
+      <c r="G37" s="4">
+        <v>91176</v>
+      </c>
+      <c r="H37" s="4">
+        <v>6292</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5988</v>
+      </c>
+      <c r="J37" s="4">
+        <v>5734</v>
+      </c>
+      <c r="K37" s="4">
+        <v>4807</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1719458</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1755386</v>
+      </c>
+      <c r="N37" s="4">
+        <v>100607</v>
+      </c>
+      <c r="O37" s="4">
+        <v>95912</v>
+      </c>
+      <c r="P37" s="4">
+        <v>65717</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>62095</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5709,18 +6591,42 @@
       <c r="D38" s="3">
         <v>30872</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="F38" s="4">
+        <v>92114</v>
+      </c>
+      <c r="G38" s="4">
+        <v>89763</v>
+      </c>
+      <c r="H38" s="4">
+        <v>3759</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3474</v>
+      </c>
+      <c r="J38" s="4">
+        <v>3255</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2539</v>
+      </c>
+      <c r="L38" s="4">
+        <v>591145</v>
+      </c>
+      <c r="M38" s="4">
+        <v>563850</v>
+      </c>
+      <c r="N38" s="4">
+        <v>20625</v>
+      </c>
+      <c r="O38" s="4">
+        <v>19279</v>
+      </c>
+      <c r="P38" s="4">
+        <v>13271</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>11807</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -5735,18 +6641,42 @@
       <c r="D39" s="3">
         <v>251913</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+      <c r="F39" s="4">
+        <v>304801</v>
+      </c>
+      <c r="G39" s="4">
+        <v>302844</v>
+      </c>
+      <c r="H39" s="4">
+        <v>16425</v>
+      </c>
+      <c r="I39" s="4">
+        <v>15306</v>
+      </c>
+      <c r="J39" s="4">
+        <v>14189</v>
+      </c>
+      <c r="K39" s="4">
+        <v>11793</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3267506</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3272578</v>
+      </c>
+      <c r="N39" s="4">
+        <v>178115</v>
+      </c>
+      <c r="O39" s="4">
+        <v>170270</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>109453</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -5761,18 +6691,42 @@
       <c r="D40" s="3">
         <v>76267</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
+      <c r="F40" s="4">
+        <v>222345</v>
+      </c>
+      <c r="G40" s="4">
+        <v>205934</v>
+      </c>
+      <c r="H40" s="4">
+        <v>8372</v>
+      </c>
+      <c r="I40" s="4">
+        <v>7826</v>
+      </c>
+      <c r="J40" s="4">
+        <v>5941</v>
+      </c>
+      <c r="K40" s="4">
+        <v>4690</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1503873</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1390025</v>
+      </c>
+      <c r="N40" s="4">
+        <v>66181</v>
+      </c>
+      <c r="O40" s="4">
+        <v>63219</v>
+      </c>
+      <c r="P40" s="4">
+        <v>33988</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>31648</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -5787,18 +6741,42 @@
       <c r="D41" s="3">
         <v>66885</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
+      <c r="F41" s="4">
+        <v>194940</v>
+      </c>
+      <c r="G41" s="4">
+        <v>200911</v>
+      </c>
+      <c r="H41" s="4">
+        <v>6612</v>
+      </c>
+      <c r="I41" s="4">
+        <v>6338</v>
+      </c>
+      <c r="J41" s="4">
+        <v>3983</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3245</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1623578</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1611687</v>
+      </c>
+      <c r="N41" s="4">
+        <v>62203</v>
+      </c>
+      <c r="O41" s="4">
+        <v>58809</v>
+      </c>
+      <c r="P41" s="4">
+        <v>31060</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>28597</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -5813,18 +6791,42 @@
       <c r="D42" s="3">
         <v>60490</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
+      <c r="F42" s="4">
+        <v>135409</v>
+      </c>
+      <c r="G42" s="4">
+        <v>133449</v>
+      </c>
+      <c r="H42" s="4">
+        <v>3745</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3565</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2648</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2310</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1289866</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1278207</v>
+      </c>
+      <c r="N42" s="4">
+        <v>55046</v>
+      </c>
+      <c r="O42" s="4">
+        <v>51918</v>
+      </c>
+      <c r="P42" s="4">
+        <v>28832</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>26700</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5839,18 +6841,42 @@
       <c r="D43" s="3">
         <v>203612</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
+      <c r="F43" s="4">
+        <v>552694</v>
+      </c>
+      <c r="G43" s="4">
+        <v>540294</v>
+      </c>
+      <c r="H43" s="4">
+        <v>18729</v>
+      </c>
+      <c r="I43" s="4">
+        <v>17729</v>
+      </c>
+      <c r="J43" s="4">
+        <v>12572</v>
+      </c>
+      <c r="K43" s="4">
+        <v>10245</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4417317</v>
+      </c>
+      <c r="M43" s="4">
+        <v>4279919</v>
+      </c>
+      <c r="N43" s="4">
+        <v>183430</v>
+      </c>
+      <c r="O43" s="4">
+        <v>173976</v>
+      </c>
+      <c r="P43" s="4">
+        <v>93880</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>86945</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -5865,18 +6891,42 @@
       <c r="D44" s="3">
         <v>104501</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="F44" s="4">
+        <v>413331</v>
+      </c>
+      <c r="G44" s="4">
+        <v>422996</v>
+      </c>
+      <c r="H44" s="4">
+        <v>11090</v>
+      </c>
+      <c r="I44" s="4">
+        <v>11287</v>
+      </c>
+      <c r="J44" s="4">
+        <v>7744</v>
+      </c>
+      <c r="K44" s="4">
+        <v>7299</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1912547</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1941894</v>
+      </c>
+      <c r="N44" s="4">
+        <v>82805</v>
+      </c>
+      <c r="O44" s="4">
+        <v>77964</v>
+      </c>
+      <c r="P44" s="4">
+        <v>47417</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>42040</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5891,18 +6941,42 @@
       <c r="D45" s="3">
         <v>82629</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
+      <c r="F45" s="4">
+        <v>155586</v>
+      </c>
+      <c r="G45" s="4">
+        <v>167678</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4965</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4371</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3096</v>
+      </c>
+      <c r="K45" s="4">
+        <v>2532</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1721128</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1714135</v>
+      </c>
+      <c r="N45" s="4">
+        <v>73890</v>
+      </c>
+      <c r="O45" s="4">
+        <v>68183</v>
+      </c>
+      <c r="P45" s="4">
+        <v>40481</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>36520</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5917,18 +6991,42 @@
       <c r="D46" s="3">
         <v>94396</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
+      <c r="F46" s="4">
+        <v>135617</v>
+      </c>
+      <c r="G46" s="4">
+        <v>138491</v>
+      </c>
+      <c r="H46" s="4">
+        <v>3510</v>
+      </c>
+      <c r="I46" s="4">
+        <v>3128</v>
+      </c>
+      <c r="J46" s="4">
+        <v>2614</v>
+      </c>
+      <c r="K46" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1727585</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1753764</v>
+      </c>
+      <c r="N46" s="4">
+        <v>68699</v>
+      </c>
+      <c r="O46" s="4">
+        <v>64582</v>
+      </c>
+      <c r="P46" s="4">
+        <v>47378</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>42382</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -5943,18 +7041,42 @@
       <c r="D47" s="3">
         <v>281525</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
+      <c r="F47" s="4">
+        <v>704534</v>
+      </c>
+      <c r="G47" s="4">
+        <v>729165</v>
+      </c>
+      <c r="H47" s="4">
+        <v>19565</v>
+      </c>
+      <c r="I47" s="4">
+        <v>18786</v>
+      </c>
+      <c r="J47" s="4">
+        <v>13454</v>
+      </c>
+      <c r="K47" s="4">
+        <v>11853</v>
+      </c>
+      <c r="L47" s="4">
+        <v>5361260</v>
+      </c>
+      <c r="M47" s="4">
+        <v>5409793</v>
+      </c>
+      <c r="N47" s="4">
+        <v>225394</v>
+      </c>
+      <c r="O47" s="4">
+        <v>210729</v>
+      </c>
+      <c r="P47" s="4">
+        <v>135276</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>120942</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -5969,18 +7091,42 @@
       <c r="D48" s="3">
         <v>74293</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
+      <c r="F48" s="4">
+        <v>143286</v>
+      </c>
+      <c r="G48" s="4">
+        <v>135704</v>
+      </c>
+      <c r="H48" s="4">
+        <v>4363</v>
+      </c>
+      <c r="I48" s="4">
+        <v>4107</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3838</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2910</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1119153</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1074399</v>
+      </c>
+      <c r="N48" s="4">
+        <v>45983</v>
+      </c>
+      <c r="O48" s="4">
+        <v>44171</v>
+      </c>
+      <c r="P48" s="4">
+        <v>34903</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>32642</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -5995,18 +7141,42 @@
       <c r="D49" s="3">
         <v>70905</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
+      <c r="F49" s="4">
+        <v>112611</v>
+      </c>
+      <c r="G49" s="4">
+        <v>106023</v>
+      </c>
+      <c r="H49" s="4">
+        <v>4328</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4124</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2993</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2540</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1403245</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1308788</v>
+      </c>
+      <c r="N49" s="4">
+        <v>62418</v>
+      </c>
+      <c r="O49" s="4">
+        <v>59185</v>
+      </c>
+      <c r="P49" s="4">
+        <v>34593</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>30779</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -6021,18 +7191,42 @@
       <c r="D50" s="3">
         <v>2335</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
+      <c r="F50" s="4">
+        <v>53976</v>
+      </c>
+      <c r="G50" s="4">
+        <v>52014</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2042</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2034</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1230</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1105</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -6047,18 +7241,42 @@
       <c r="D51" s="3">
         <v>9516</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
+      <c r="F51" s="4">
+        <v>297000</v>
+      </c>
+      <c r="G51" s="4">
+        <v>258000</v>
+      </c>
+      <c r="H51" s="4">
+        <v>6789</v>
+      </c>
+      <c r="I51" s="4">
+        <v>6390</v>
+      </c>
+      <c r="J51" s="4">
+        <v>5519</v>
+      </c>
+      <c r="K51" s="4">
+        <v>3997</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -6073,18 +7291,42 @@
       <c r="D52" s="3">
         <v>46151</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
+      <c r="F52" s="4">
+        <v>152848</v>
+      </c>
+      <c r="G52" s="4">
+        <v>135620</v>
+      </c>
+      <c r="H52" s="4">
+        <v>6734</v>
+      </c>
+      <c r="I52" s="4">
+        <v>6174</v>
+      </c>
+      <c r="J52" s="4">
+        <v>5400</v>
+      </c>
+      <c r="K52" s="4">
+        <v>3092</v>
+      </c>
+      <c r="L52" s="4">
+        <v>823717</v>
+      </c>
+      <c r="M52" s="4">
+        <v>774381</v>
+      </c>
+      <c r="N52" s="4">
+        <v>35358</v>
+      </c>
+      <c r="O52" s="4">
+        <v>34584</v>
+      </c>
+      <c r="P52" s="4">
+        <v>20466</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>17193</v>
+      </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -6099,18 +7341,42 @@
       <c r="D53" s="3">
         <v>1544</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
+      <c r="F53" s="4">
+        <v>57585</v>
+      </c>
+      <c r="G53" s="4">
+        <v>30888</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1365</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1300</v>
+      </c>
+      <c r="J53" s="4">
+        <v>945</v>
+      </c>
+      <c r="K53" s="4">
+        <v>599</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -6125,18 +7391,42 @@
       <c r="D54" s="3">
         <v>67554</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
+      <c r="F54" s="4">
+        <v>252432</v>
+      </c>
+      <c r="G54" s="4">
+        <v>230266</v>
+      </c>
+      <c r="H54" s="4">
+        <v>8011</v>
+      </c>
+      <c r="I54" s="4">
+        <v>7635</v>
+      </c>
+      <c r="J54" s="4">
+        <v>4909</v>
+      </c>
+      <c r="K54" s="4">
+        <v>3805</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1472578</v>
+      </c>
+      <c r="M54" s="4">
+        <v>1307220</v>
+      </c>
+      <c r="N54" s="4">
+        <v>73181</v>
+      </c>
+      <c r="O54" s="4">
+        <v>69445</v>
+      </c>
+      <c r="P54" s="4">
+        <v>31931</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>26909</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -6151,18 +7441,42 @@
       <c r="D55" s="3">
         <v>98226</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="F55" s="4">
+        <v>194391</v>
+      </c>
+      <c r="G55" s="4">
+        <v>182174</v>
+      </c>
+      <c r="H55" s="4">
+        <v>8269</v>
+      </c>
+      <c r="I55" s="4">
+        <v>8237</v>
+      </c>
+      <c r="J55" s="4">
+        <v>5557</v>
+      </c>
+      <c r="K55" s="4">
+        <v>4634</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1514770</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1429723</v>
+      </c>
+      <c r="N55" s="4">
+        <v>81916</v>
+      </c>
+      <c r="O55" s="4">
+        <v>78329</v>
+      </c>
+      <c r="P55" s="4">
+        <v>45931</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>42104</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -6177,18 +7491,42 @@
       <c r="D56" s="3">
         <v>370524</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
+      <c r="F56" s="4">
+        <v>1264129</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1130689</v>
+      </c>
+      <c r="H56" s="4">
+        <v>41901</v>
+      </c>
+      <c r="I56" s="4">
+        <v>40001</v>
+      </c>
+      <c r="J56" s="4">
+        <v>30391</v>
+      </c>
+      <c r="K56" s="4">
+        <v>22682</v>
+      </c>
+      <c r="L56" s="4">
+        <v>6333463</v>
+      </c>
+      <c r="M56" s="4">
+        <v>5894511</v>
+      </c>
+      <c r="N56" s="4">
+        <v>298856</v>
+      </c>
+      <c r="O56" s="4">
+        <v>285714</v>
+      </c>
+      <c r="P56" s="4">
+        <v>167824</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>149627</v>
+      </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -6203,18 +7541,42 @@
       <c r="D57" s="3">
         <v>32412</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
+      <c r="F57" s="4">
+        <v>170858</v>
+      </c>
+      <c r="G57" s="4">
+        <v>167764</v>
+      </c>
+      <c r="H57" s="4">
+        <v>4155</v>
+      </c>
+      <c r="I57" s="4">
+        <v>3593</v>
+      </c>
+      <c r="J57" s="4">
+        <v>2448</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2108</v>
+      </c>
+      <c r="L57" s="4">
+        <v>773760</v>
+      </c>
+      <c r="M57" s="4">
+        <v>783522</v>
+      </c>
+      <c r="N57" s="4">
+        <v>28478</v>
+      </c>
+      <c r="O57" s="4">
+        <v>27080</v>
+      </c>
+      <c r="P57" s="4">
+        <v>14772</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>13084</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -6229,18 +7591,42 @@
       <c r="D58" s="3">
         <v>50435</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
+      <c r="F58" s="4">
+        <v>103529</v>
+      </c>
+      <c r="G58" s="4">
+        <v>88956</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2265</v>
+      </c>
+      <c r="I58" s="4">
+        <v>2027</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1472</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1356</v>
+      </c>
+      <c r="L58" s="4">
+        <v>940408</v>
+      </c>
+      <c r="M58" s="4">
+        <v>909281</v>
+      </c>
+      <c r="N58" s="4">
+        <v>44917</v>
+      </c>
+      <c r="O58" s="4">
+        <v>42601</v>
+      </c>
+      <c r="P58" s="4">
+        <v>25056</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>22551</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -6255,18 +7641,42 @@
       <c r="D59" s="3">
         <v>40510</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
+      <c r="F59" s="4">
+        <v>130597</v>
+      </c>
+      <c r="G59" s="4">
+        <v>126810</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2984</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2534</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1623</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1373</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1022462</v>
+      </c>
+      <c r="M59" s="4">
+        <v>1012440</v>
+      </c>
+      <c r="N59" s="4">
+        <v>41379</v>
+      </c>
+      <c r="O59" s="4">
+        <v>38951</v>
+      </c>
+      <c r="P59" s="4">
+        <v>19625</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>17889</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -6281,18 +7691,42 @@
       <c r="D60" s="3">
         <v>52542</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
+      <c r="F60" s="4">
+        <v>129133</v>
+      </c>
+      <c r="G60" s="4">
+        <v>126224</v>
+      </c>
+      <c r="H60" s="4">
+        <v>4621</v>
+      </c>
+      <c r="I60" s="4">
+        <v>3874</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2553</v>
+      </c>
+      <c r="K60" s="4">
+        <v>2124</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1312598</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N60" s="4">
+        <v>51733</v>
+      </c>
+      <c r="O60" s="4">
+        <v>46151</v>
+      </c>
+      <c r="P60" s="4">
+        <v>25626</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>22239</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -6307,18 +7741,42 @@
       <c r="D61" s="3">
         <v>175899</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
+      <c r="F61" s="4">
+        <v>531117</v>
+      </c>
+      <c r="G61" s="4">
+        <v>509754</v>
+      </c>
+      <c r="H61" s="4">
+        <v>14025</v>
+      </c>
+      <c r="I61" s="4">
+        <v>12028</v>
+      </c>
+      <c r="J61" s="4">
+        <v>8096</v>
+      </c>
+      <c r="K61" s="4">
+        <v>6961</v>
+      </c>
+      <c r="L61" s="4">
+        <v>4049228</v>
+      </c>
+      <c r="M61" s="4">
+        <v>4015437</v>
+      </c>
+      <c r="N61" s="4">
+        <v>166507</v>
+      </c>
+      <c r="O61" s="4">
+        <v>156786</v>
+      </c>
+      <c r="P61" s="4">
+        <v>85979</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>75763</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -6333,18 +7791,42 @@
       <c r="D62" s="3">
         <v>37016</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
+      <c r="F62" s="4">
+        <v>137669</v>
+      </c>
+      <c r="G62" s="4">
+        <v>138036</v>
+      </c>
+      <c r="H62" s="4">
+        <v>3480</v>
+      </c>
+      <c r="I62" s="4">
+        <v>2820</v>
+      </c>
+      <c r="J62" s="4">
+        <v>2157</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1724</v>
+      </c>
+      <c r="L62" s="4">
+        <v>794630</v>
+      </c>
+      <c r="M62" s="4">
+        <v>785088</v>
+      </c>
+      <c r="N62" s="4">
+        <v>28305</v>
+      </c>
+      <c r="O62" s="4">
+        <v>27176</v>
+      </c>
+      <c r="P62" s="4">
+        <v>17112</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>16023</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -6359,18 +7841,42 @@
       <c r="D63" s="3">
         <v>35198</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
+      <c r="F63" s="4">
+        <v>147295</v>
+      </c>
+      <c r="G63" s="4">
+        <v>137323</v>
+      </c>
+      <c r="H63" s="4">
+        <v>4148</v>
+      </c>
+      <c r="I63" s="4">
+        <v>3536</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2719</v>
+      </c>
+      <c r="K63" s="4">
+        <v>2365</v>
+      </c>
+      <c r="L63" s="4">
+        <v>819569</v>
+      </c>
+      <c r="M63" s="4">
+        <v>834605</v>
+      </c>
+      <c r="N63" s="4">
+        <v>26735</v>
+      </c>
+      <c r="O63" s="4">
+        <v>24786</v>
+      </c>
+      <c r="P63" s="4">
+        <v>15816</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>14298</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -6385,18 +7891,42 @@
       <c r="D64" s="3">
         <v>33681</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
+      <c r="F64" s="4">
+        <v>83037</v>
+      </c>
+      <c r="G64" s="4">
+        <v>71912</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2120</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1798</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1487</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1284</v>
+      </c>
+      <c r="L64" s="4">
+        <v>786149</v>
+      </c>
+      <c r="M64" s="4">
+        <v>815257</v>
+      </c>
+      <c r="N64" s="4">
+        <v>22377</v>
+      </c>
+      <c r="O64" s="4">
+        <v>21344</v>
+      </c>
+      <c r="P64" s="4">
+        <v>15822</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>15088</v>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -6411,18 +7941,42 @@
       <c r="D65" s="3">
         <v>105895</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
+      <c r="F65" s="4">
+        <v>368001</v>
+      </c>
+      <c r="G65" s="4">
+        <v>347271</v>
+      </c>
+      <c r="H65" s="4">
+        <v>9748</v>
+      </c>
+      <c r="I65" s="4">
+        <v>8154</v>
+      </c>
+      <c r="J65" s="4">
+        <v>6363</v>
+      </c>
+      <c r="K65" s="4">
+        <v>5373</v>
+      </c>
+      <c r="L65" s="4">
+        <v>2400339</v>
+      </c>
+      <c r="M65" s="4">
+        <v>2434950</v>
+      </c>
+      <c r="N65" s="4">
+        <v>77417</v>
+      </c>
+      <c r="O65" s="4">
+        <v>73300</v>
+      </c>
+      <c r="P65" s="4">
+        <v>48750</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>45409</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -6437,18 +7991,42 @@
       <c r="D66" s="3">
         <v>12878</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="F66" s="4">
+        <v>100870</v>
+      </c>
+      <c r="G66" s="4">
+        <v>94500</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2634</v>
+      </c>
+      <c r="I66" s="4">
+        <v>2593</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1792</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1391</v>
+      </c>
+      <c r="L66" s="4">
+        <v>279035</v>
+      </c>
+      <c r="M66" s="4">
+        <v>303068</v>
+      </c>
+      <c r="N66" s="4">
+        <v>7860</v>
+      </c>
+      <c r="O66" s="4">
+        <v>6373</v>
+      </c>
+      <c r="P66" s="4">
+        <v>5298</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>4397</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -6463,18 +8041,42 @@
       <c r="D67" s="3">
         <v>25531</v>
       </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
+      <c r="F67" s="4">
+        <v>212191</v>
+      </c>
+      <c r="G67" s="4">
+        <v>221801</v>
+      </c>
+      <c r="H67" s="4">
+        <v>6407</v>
+      </c>
+      <c r="I67" s="4">
+        <v>6201</v>
+      </c>
+      <c r="J67" s="4">
+        <v>5505</v>
+      </c>
+      <c r="K67" s="4">
+        <v>4762</v>
+      </c>
+      <c r="L67" s="4">
+        <v>488423</v>
+      </c>
+      <c r="M67" s="4">
+        <v>522209</v>
+      </c>
+      <c r="N67" s="4">
+        <v>9984</v>
+      </c>
+      <c r="O67" s="4">
+        <v>9333</v>
+      </c>
+      <c r="P67" s="4">
+        <v>7902</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>7362</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -6489,18 +8091,42 @@
       <c r="D68" s="3">
         <v>8976</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
+      <c r="F68" s="4">
+        <v>42606</v>
+      </c>
+      <c r="G68" s="4">
+        <v>42260</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1435</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1336</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1358</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1088</v>
+      </c>
+      <c r="L68" s="4">
+        <v>188747</v>
+      </c>
+      <c r="M68" s="4">
+        <v>197121</v>
+      </c>
+      <c r="N68" s="4">
+        <v>4605</v>
+      </c>
+      <c r="O68" s="4">
+        <v>4373</v>
+      </c>
+      <c r="P68" s="4">
+        <v>3412</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>3118</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -6515,18 +8141,42 @@
       <c r="D69" s="3">
         <v>47385</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
+      <c r="F69" s="4">
+        <v>355667</v>
+      </c>
+      <c r="G69" s="4">
+        <v>358561</v>
+      </c>
+      <c r="H69" s="4">
+        <v>10376</v>
+      </c>
+      <c r="I69" s="4">
+        <v>10130</v>
+      </c>
+      <c r="J69" s="4">
+        <v>8655</v>
+      </c>
+      <c r="K69" s="4">
+        <v>7241</v>
+      </c>
+      <c r="L69" s="4">
+        <v>956205</v>
+      </c>
+      <c r="M69" s="4">
+        <v>1022398</v>
+      </c>
+      <c r="N69" s="4">
+        <v>22449</v>
+      </c>
+      <c r="O69" s="4">
+        <v>20079</v>
+      </c>
+      <c r="P69" s="4">
+        <v>16612</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>14877</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -6541,18 +8191,42 @@
       <c r="D70" s="3">
         <v>3224320</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
+      <c r="F70" s="4">
+        <v>8376622</v>
+      </c>
+      <c r="G70" s="4">
+        <v>7771946</v>
+      </c>
+      <c r="H70" s="4">
+        <v>283209</v>
+      </c>
+      <c r="I70" s="4">
+        <v>267181</v>
+      </c>
+      <c r="J70" s="4">
+        <v>215298</v>
+      </c>
+      <c r="K70" s="4">
+        <v>176161</v>
+      </c>
+      <c r="L70" s="4">
+        <v>52301204</v>
+      </c>
+      <c r="M70" s="4">
+        <v>53135931</v>
+      </c>
+      <c r="N70" s="4">
+        <v>2432569</v>
+      </c>
+      <c r="O70" s="4">
+        <v>2316927</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1472150</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>1360711</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -6567,18 +8241,42 @@
       <c r="D71" s="3">
         <v>34259</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
+      <c r="F71" s="4">
+        <v>75611</v>
+      </c>
+      <c r="G71" s="4">
+        <v>73848</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2538</v>
+      </c>
+      <c r="I71" s="4">
+        <v>2385</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1642</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1514</v>
+      </c>
+      <c r="L71" s="4">
+        <v>835108</v>
+      </c>
+      <c r="M71" s="4">
+        <v>861982</v>
+      </c>
+      <c r="N71" s="4">
+        <v>27262</v>
+      </c>
+      <c r="O71" s="4">
+        <v>26311</v>
+      </c>
+      <c r="P71" s="4">
+        <v>15582</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>15521</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -6593,18 +8291,42 @@
       <c r="D72" s="3">
         <v>16746</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
+      <c r="F72" s="4">
+        <v>381771</v>
+      </c>
+      <c r="G72" s="4">
+        <v>415322</v>
+      </c>
+      <c r="H72" s="4">
+        <v>11697</v>
+      </c>
+      <c r="I72" s="4">
+        <v>10232</v>
+      </c>
+      <c r="J72" s="4">
+        <v>8798</v>
+      </c>
+      <c r="K72" s="4">
+        <v>7950</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -6619,18 +8341,42 @@
       <c r="D73" s="3">
         <v>26146</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
+      <c r="F73" s="4">
+        <v>68932</v>
+      </c>
+      <c r="G73" s="4">
+        <v>65652</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1970</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1837</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1193</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1021</v>
+      </c>
+      <c r="L73" s="4">
+        <v>598392</v>
+      </c>
+      <c r="M73" s="4">
+        <v>622371</v>
+      </c>
+      <c r="N73" s="4">
+        <v>21083</v>
+      </c>
+      <c r="O73" s="4">
+        <v>21808</v>
+      </c>
+      <c r="P73" s="4">
+        <v>11689</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>12243</v>
+      </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -6645,18 +8391,42 @@
       <c r="D74" s="3">
         <v>18651</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
+      <c r="F74" s="4">
+        <v>35806</v>
+      </c>
+      <c r="G74" s="4">
+        <v>40855</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1395</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1306</v>
+      </c>
+      <c r="J74" s="4">
+        <v>735</v>
+      </c>
+      <c r="K74" s="4">
+        <v>619</v>
+      </c>
+      <c r="L74" s="4">
+        <v>447181</v>
+      </c>
+      <c r="M74" s="4">
+        <v>476978</v>
+      </c>
+      <c r="N74" s="4">
+        <v>15821</v>
+      </c>
+      <c r="O74" s="4">
+        <v>14988</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>8379</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -6671,18 +8441,42 @@
       <c r="D75" s="3">
         <v>12069</v>
       </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
+      <c r="F75" s="4">
+        <v>39270</v>
+      </c>
+      <c r="G75" s="4">
+        <v>40237</v>
+      </c>
+      <c r="H75" s="4">
+        <v>826</v>
+      </c>
+      <c r="I75" s="4">
+        <v>805</v>
+      </c>
+      <c r="J75" s="4">
+        <v>633</v>
+      </c>
+      <c r="K75" s="4">
+        <v>594</v>
+      </c>
+      <c r="L75" s="4">
+        <v>317236</v>
+      </c>
+      <c r="M75" s="4">
+        <v>319618</v>
+      </c>
+      <c r="N75" s="4">
+        <v>9281</v>
+      </c>
+      <c r="O75" s="4">
+        <v>8931</v>
+      </c>
+      <c r="P75" s="4">
+        <v>5563</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>5279</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -6697,18 +8491,42 @@
       <c r="D76" s="3">
         <v>28282</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
+      <c r="F76" s="4">
+        <v>90463</v>
+      </c>
+      <c r="G76" s="4">
+        <v>89607</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2518</v>
+      </c>
+      <c r="I76" s="4">
+        <v>2109</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1764</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1424</v>
+      </c>
+      <c r="L76" s="4">
+        <v>719785</v>
+      </c>
+      <c r="M76" s="4">
+        <v>724351</v>
+      </c>
+      <c r="N76" s="4">
+        <v>23484</v>
+      </c>
+      <c r="O76" s="4">
+        <v>22357</v>
+      </c>
+      <c r="P76" s="4">
+        <v>12827</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>12267</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -6723,18 +8541,42 @@
       <c r="D77" s="3">
         <v>50206</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
+      <c r="F77" s="4">
+        <v>324550</v>
+      </c>
+      <c r="G77" s="4">
+        <v>350667</v>
+      </c>
+      <c r="H77" s="4">
+        <v>19657</v>
+      </c>
+      <c r="I77" s="4">
+        <v>20121</v>
+      </c>
+      <c r="J77" s="4">
+        <v>9997</v>
+      </c>
+      <c r="K77" s="4">
+        <v>9397</v>
+      </c>
+      <c r="L77" s="4">
+        <v>768246</v>
+      </c>
+      <c r="M77" s="4">
+        <v>772848</v>
+      </c>
+      <c r="N77" s="4">
+        <v>34716</v>
+      </c>
+      <c r="O77" s="4">
+        <v>35395</v>
+      </c>
+      <c r="P77" s="4">
+        <v>15317</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>15497</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -6749,18 +8591,42 @@
       <c r="D78" s="3">
         <v>15820</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
+      <c r="F78" s="4">
+        <v>43729</v>
+      </c>
+      <c r="G78" s="4">
+        <v>46791</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1206</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1129</v>
+      </c>
+      <c r="J78" s="4">
+        <v>933</v>
+      </c>
+      <c r="K78" s="4">
+        <v>897</v>
+      </c>
+      <c r="L78" s="4">
+        <v>339733</v>
+      </c>
+      <c r="M78" s="4">
+        <v>338070</v>
+      </c>
+      <c r="N78" s="4">
+        <v>10312</v>
+      </c>
+      <c r="O78" s="4">
+        <v>10244</v>
+      </c>
+      <c r="P78" s="4">
+        <v>6522</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>7468</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -6775,18 +8641,42 @@
       <c r="D79" s="3">
         <v>24655</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
+      <c r="F79" s="4">
+        <v>48814</v>
+      </c>
+      <c r="G79" s="4">
+        <v>48998</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1968</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1432</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1075</v>
+      </c>
+      <c r="L79" s="4">
+        <v>576365</v>
+      </c>
+      <c r="M79" s="4">
+        <v>570028</v>
+      </c>
+      <c r="N79" s="4">
+        <v>19047</v>
+      </c>
+      <c r="O79" s="4">
+        <v>18109</v>
+      </c>
+      <c r="P79" s="4">
+        <v>11334</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>10814</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -6801,18 +8691,42 @@
       <c r="D80" s="3">
         <v>9637</v>
       </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
+      <c r="F80" s="4">
+        <v>34437</v>
+      </c>
+      <c r="G80" s="4">
+        <v>36006</v>
+      </c>
+      <c r="H80" s="4">
+        <v>743</v>
+      </c>
+      <c r="I80" s="4">
+        <v>682</v>
+      </c>
+      <c r="J80" s="4">
+        <v>484</v>
+      </c>
+      <c r="K80" s="4">
+        <v>364</v>
+      </c>
+      <c r="L80" s="4">
+        <v>283745</v>
+      </c>
+      <c r="M80" s="4">
+        <v>301552</v>
+      </c>
+      <c r="N80" s="4">
+        <v>6654</v>
+      </c>
+      <c r="O80" s="4">
+        <v>6403</v>
+      </c>
+      <c r="P80" s="4">
+        <v>4520</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>4249</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -6827,18 +8741,42 @@
       <c r="D81" s="3">
         <v>17562</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
+      <c r="F81" s="4">
+        <v>56712</v>
+      </c>
+      <c r="G81" s="4">
+        <v>52653</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1404</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1195</v>
+      </c>
+      <c r="J81" s="4">
+        <v>805</v>
+      </c>
+      <c r="K81" s="4">
+        <v>631</v>
+      </c>
+      <c r="L81" s="4">
+        <v>470311</v>
+      </c>
+      <c r="M81" s="4">
+        <v>470083</v>
+      </c>
+      <c r="N81" s="4">
+        <v>14128</v>
+      </c>
+      <c r="O81" s="4">
+        <v>13133</v>
+      </c>
+      <c r="P81" s="4">
+        <v>8284</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>7842</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -6853,18 +8791,42 @@
       <c r="D82" s="3">
         <v>254037</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="F82" s="4">
+        <v>1200095</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1260636</v>
+      </c>
+      <c r="H82" s="4">
+        <v>45956</v>
+      </c>
+      <c r="I82" s="4">
+        <v>43769</v>
+      </c>
+      <c r="J82" s="4">
+        <v>28416</v>
+      </c>
+      <c r="K82" s="4">
+        <v>25506</v>
+      </c>
+      <c r="L82" s="4">
+        <v>5356102</v>
+      </c>
+      <c r="M82" s="4">
+        <v>5457881</v>
+      </c>
+      <c r="N82" s="4">
+        <v>181783</v>
+      </c>
+      <c r="O82" s="4">
+        <v>177679</v>
+      </c>
+      <c r="P82" s="4">
+        <v>100556</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>99559</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -6879,18 +8841,42 @@
       <c r="D83" s="3">
         <v>3478357</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
+      <c r="F83" s="4">
+        <v>9576717</v>
+      </c>
+      <c r="G83" s="4">
+        <v>9032582</v>
+      </c>
+      <c r="H83" s="4">
+        <v>329165</v>
+      </c>
+      <c r="I83" s="4">
+        <v>310950</v>
+      </c>
+      <c r="J83" s="4">
+        <v>243714</v>
+      </c>
+      <c r="K83" s="4">
+        <v>201667</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M83" s="4">
+        <v>58593812</v>
+      </c>
+      <c r="N83" s="4">
+        <v>2614357</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1572706</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>1460270</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6905,18 +8891,42 @@
       <c r="D84" s="3">
         <v>15170</v>
       </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
+      <c r="F84" s="4">
+        <v>47658</v>
+      </c>
+      <c r="G84" s="4">
+        <v>41992</v>
+      </c>
+      <c r="H84" s="4">
+        <v>982</v>
+      </c>
+      <c r="I84" s="4">
+        <v>741</v>
+      </c>
+      <c r="J84" s="4">
+        <v>580</v>
+      </c>
+      <c r="K84" s="4">
+        <v>390</v>
+      </c>
+      <c r="L84" s="4">
+        <v>379142</v>
+      </c>
+      <c r="M84" s="4">
+        <v>322771</v>
+      </c>
+      <c r="N84" s="4">
+        <v>10748</v>
+      </c>
+      <c r="O84" s="4">
+        <v>9335</v>
+      </c>
+      <c r="P84" s="4">
+        <v>7496</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>6704</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -6931,18 +8941,42 @@
       <c r="D85" s="3">
         <v>5839</v>
       </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
+      <c r="F85" s="4">
+        <v>217795</v>
+      </c>
+      <c r="G85" s="4">
+        <v>139395</v>
+      </c>
+      <c r="H85" s="4">
+        <v>5165</v>
+      </c>
+      <c r="I85" s="4">
+        <v>4149</v>
+      </c>
+      <c r="J85" s="4">
+        <v>3545</v>
+      </c>
+      <c r="K85" s="4">
+        <v>2294</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -6957,18 +8991,42 @@
       <c r="D86" s="3">
         <v>2635</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
+      <c r="F86" s="4">
+        <v>21366</v>
+      </c>
+      <c r="G86" s="4">
+        <v>17044</v>
+      </c>
+      <c r="H86" s="4">
+        <v>354</v>
+      </c>
+      <c r="I86" s="4">
+        <v>358</v>
+      </c>
+      <c r="J86" s="4">
+        <v>406</v>
+      </c>
+      <c r="K86" s="4">
+        <v>203</v>
+      </c>
+      <c r="L86" s="4">
+        <v>68796</v>
+      </c>
+      <c r="M86" s="4">
+        <v>59346</v>
+      </c>
+      <c r="N86" s="4">
+        <v>1611</v>
+      </c>
+      <c r="O86" s="4">
+        <v>1498</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1057</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>969</v>
+      </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -6983,18 +9041,42 @@
       <c r="D87" s="3">
         <v>10225</v>
       </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
+      <c r="F87" s="4">
+        <v>42386</v>
+      </c>
+      <c r="G87" s="4">
+        <v>23200</v>
+      </c>
+      <c r="H87" s="4">
+        <v>932</v>
+      </c>
+      <c r="I87" s="4">
+        <v>580</v>
+      </c>
+      <c r="J87" s="4">
+        <v>684</v>
+      </c>
+      <c r="K87" s="4">
+        <v>417</v>
+      </c>
+      <c r="L87" s="4">
+        <v>319864</v>
+      </c>
+      <c r="M87" s="4">
+        <v>299495</v>
+      </c>
+      <c r="N87" s="4">
+        <v>7900</v>
+      </c>
+      <c r="O87" s="4">
+        <v>6884</v>
+      </c>
+      <c r="P87" s="4">
+        <v>4913</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>4211</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -7009,18 +9091,42 @@
       <c r="D88" s="3">
         <v>16570</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
+      <c r="F88" s="4">
+        <v>76292</v>
+      </c>
+      <c r="G88" s="4">
+        <v>71752</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1140</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1054</v>
+      </c>
+      <c r="J88" s="4">
+        <v>829</v>
+      </c>
+      <c r="K88" s="4">
+        <v>671</v>
+      </c>
+      <c r="L88" s="4">
+        <v>560639</v>
+      </c>
+      <c r="M88" s="4">
+        <v>521548</v>
+      </c>
+      <c r="N88" s="4">
+        <v>12640</v>
+      </c>
+      <c r="O88" s="4">
+        <v>10620</v>
+      </c>
+      <c r="P88" s="4">
+        <v>8171</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>6899</v>
+      </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -7035,18 +9141,42 @@
       <c r="D89" s="3">
         <v>6296</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
+      <c r="F89" s="4">
+        <v>23800</v>
+      </c>
+      <c r="G89" s="4">
+        <v>20100</v>
+      </c>
+      <c r="H89" s="4">
+        <v>751</v>
+      </c>
+      <c r="I89" s="4">
+        <v>723</v>
+      </c>
+      <c r="J89" s="4">
+        <v>336</v>
+      </c>
+      <c r="K89" s="4">
+        <v>302</v>
+      </c>
+      <c r="L89" s="4">
+        <v>178700</v>
+      </c>
+      <c r="M89" s="4">
+        <v>154600</v>
+      </c>
+      <c r="N89" s="4">
+        <v>6250</v>
+      </c>
+      <c r="O89" s="4">
+        <v>5627</v>
+      </c>
+      <c r="P89" s="4">
+        <v>3018</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>2640</v>
+      </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -7061,18 +9191,42 @@
       <c r="D90" s="3">
         <v>83342</v>
       </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
+      <c r="F90" s="4">
+        <v>120271</v>
+      </c>
+      <c r="G90" s="4">
+        <v>115348</v>
+      </c>
+      <c r="H90" s="4">
+        <v>5040</v>
+      </c>
+      <c r="I90" s="4">
+        <v>4816</v>
+      </c>
+      <c r="J90" s="4">
+        <v>3894</v>
+      </c>
+      <c r="K90" s="4">
+        <v>3493</v>
+      </c>
+      <c r="L90" s="4">
+        <v>1319687</v>
+      </c>
+      <c r="M90" s="4">
+        <v>1280875</v>
+      </c>
+      <c r="N90" s="4">
+        <v>72959</v>
+      </c>
+      <c r="O90" s="4">
+        <v>64151</v>
+      </c>
+      <c r="P90" s="4">
+        <v>38672</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>37283</v>
+      </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -7087,18 +9241,42 @@
       <c r="D91" s="3">
         <v>15618</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
+      <c r="F91" s="4">
+        <v>58071</v>
+      </c>
+      <c r="G91" s="4">
+        <v>41114</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1205</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1077</v>
+      </c>
+      <c r="J91" s="4">
+        <v>917</v>
+      </c>
+      <c r="K91" s="4">
+        <v>657</v>
+      </c>
+      <c r="L91" s="4">
+        <v>538478</v>
+      </c>
+      <c r="M91" s="4">
+        <v>475628</v>
+      </c>
+      <c r="N91" s="4">
+        <v>14379</v>
+      </c>
+      <c r="O91" s="4">
+        <v>13278</v>
+      </c>
+      <c r="P91" s="4">
+        <v>7407</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>6637</v>
+      </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -7113,18 +9291,42 @@
       <c r="D92" s="3">
         <v>35920</v>
       </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
+      <c r="F92" s="4">
+        <v>40399</v>
+      </c>
+      <c r="G92" s="4">
+        <v>36396</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1291</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1163</v>
+      </c>
+      <c r="J92" s="4">
+        <v>896</v>
+      </c>
+      <c r="K92" s="4">
+        <v>716</v>
+      </c>
+      <c r="L92" s="4">
+        <v>589167</v>
+      </c>
+      <c r="M92" s="4">
+        <v>564629</v>
+      </c>
+      <c r="N92" s="4">
+        <v>33927</v>
+      </c>
+      <c r="O92" s="4">
+        <v>32165</v>
+      </c>
+      <c r="P92" s="4">
+        <v>18202</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>16106</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -7139,18 +9341,42 @@
       <c r="D93" s="3">
         <v>29266</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
+      <c r="F93" s="4">
+        <v>116899</v>
+      </c>
+      <c r="G93" s="4">
+        <v>82150</v>
+      </c>
+      <c r="H93" s="4">
+        <v>3724</v>
+      </c>
+      <c r="I93" s="4">
+        <v>3668</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2492</v>
+      </c>
+      <c r="K93" s="4">
+        <v>2083</v>
+      </c>
+      <c r="L93" s="4">
+        <v>519245</v>
+      </c>
+      <c r="M93" s="4">
+        <v>478203</v>
+      </c>
+      <c r="N93" s="4">
+        <v>21649</v>
+      </c>
+      <c r="O93" s="4">
+        <v>19903</v>
+      </c>
+      <c r="P93" s="4">
+        <v>12819</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>11872</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -7165,18 +9391,42 @@
       <c r="D94" s="3">
         <v>27524</v>
       </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
+      <c r="F94" s="4">
+        <v>199276</v>
+      </c>
+      <c r="G94" s="4">
+        <v>187598</v>
+      </c>
+      <c r="H94" s="4">
+        <v>3170</v>
+      </c>
+      <c r="I94" s="4">
+        <v>2925</v>
+      </c>
+      <c r="J94" s="4">
+        <v>2480</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1894</v>
+      </c>
+      <c r="L94" s="4">
+        <v>534201</v>
+      </c>
+      <c r="M94" s="4">
+        <v>457897</v>
+      </c>
+      <c r="N94" s="4">
+        <v>19654</v>
+      </c>
+      <c r="O94" s="4">
+        <v>16927</v>
+      </c>
+      <c r="P94" s="4">
+        <v>12346</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>10804</v>
+      </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -7191,18 +9441,42 @@
       <c r="D95" s="3">
         <v>2609</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
+      <c r="F95" s="4">
+        <v>48715</v>
+      </c>
+      <c r="G95" s="4">
+        <v>31519</v>
+      </c>
+      <c r="H95" s="4">
+        <v>1211</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1128</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1013</v>
+      </c>
+      <c r="K95" s="4">
+        <v>543</v>
+      </c>
+      <c r="L95" s="4">
+        <v>39057</v>
+      </c>
+      <c r="M95" s="4">
+        <v>29839</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1440</v>
+      </c>
+      <c r="O95" s="4">
+        <v>1240</v>
+      </c>
+      <c r="P95" s="4">
+        <v>595</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>458</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -7217,18 +9491,42 @@
       <c r="D96" s="3">
         <v>20624</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
+      <c r="F96" s="4">
+        <v>52799</v>
+      </c>
+      <c r="G96" s="4">
+        <v>38569</v>
+      </c>
+      <c r="H96" s="4">
+        <v>1323</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1205</v>
+      </c>
+      <c r="J96" s="4">
+        <v>956</v>
+      </c>
+      <c r="K96" s="4">
+        <v>740</v>
+      </c>
+      <c r="L96" s="4">
+        <v>431992</v>
+      </c>
+      <c r="M96" s="4">
+        <v>381985</v>
+      </c>
+      <c r="N96" s="4">
+        <v>16865</v>
+      </c>
+      <c r="O96" s="4">
+        <v>14505</v>
+      </c>
+      <c r="P96" s="4">
+        <v>10058</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>8870</v>
+      </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -7243,18 +9541,42 @@
       <c r="D97" s="3">
         <v>271638</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
+      <c r="F97" s="4">
+        <v>1065727</v>
+      </c>
+      <c r="G97" s="4">
+        <v>646177</v>
+      </c>
+      <c r="H97" s="4">
+        <v>26288</v>
+      </c>
+      <c r="I97" s="4">
+        <v>23587</v>
+      </c>
+      <c r="J97" s="4">
+        <v>19028</v>
+      </c>
+      <c r="K97" s="4">
+        <v>14403</v>
+      </c>
+      <c r="L97" s="4">
+        <v>5478968</v>
+      </c>
+      <c r="M97" s="4">
+        <v>5026816</v>
+      </c>
+      <c r="N97" s="4">
+        <v>220022</v>
+      </c>
+      <c r="O97" s="4">
+        <v>196133</v>
+      </c>
+      <c r="P97" s="4">
+        <v>124754</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>113453</v>
+      </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -7269,18 +9591,42 @@
       <c r="D98" s="3">
         <v>6645</v>
       </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
+      <c r="F98" s="4">
+        <v>46517</v>
+      </c>
+      <c r="G98" s="4">
+        <v>29049</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1438</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1394</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1002</v>
+      </c>
+      <c r="K98" s="4">
+        <v>729</v>
+      </c>
+      <c r="L98" s="4">
+        <v>116208</v>
+      </c>
+      <c r="M98" s="4">
+        <v>76969</v>
+      </c>
+      <c r="N98" s="4">
+        <v>5127</v>
+      </c>
+      <c r="O98" s="4">
+        <v>4496</v>
+      </c>
+      <c r="P98" s="4">
+        <v>2791</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>2123</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -7295,18 +9641,42 @@
       <c r="D99" s="3">
         <v>28173</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
+      <c r="F99" s="4">
+        <v>67691</v>
+      </c>
+      <c r="G99" s="4">
+        <v>55718</v>
+      </c>
+      <c r="H99" s="4">
+        <v>2387</v>
+      </c>
+      <c r="I99" s="4">
+        <v>2201</v>
+      </c>
+      <c r="J99" s="4">
+        <v>2021</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1556</v>
+      </c>
+      <c r="L99" s="4">
+        <v>445303</v>
+      </c>
+      <c r="M99" s="4">
+        <v>397697</v>
+      </c>
+      <c r="N99" s="4">
+        <v>24268</v>
+      </c>
+      <c r="O99" s="4">
+        <v>23125</v>
+      </c>
+      <c r="P99" s="4">
+        <v>13366</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>11230</v>
+      </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -7321,18 +9691,42 @@
       <c r="D100" s="3">
         <v>20859</v>
       </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
+      <c r="F100" s="4">
+        <v>70085</v>
+      </c>
+      <c r="G100" s="4">
+        <v>46718</v>
+      </c>
+      <c r="H100" s="4">
+        <v>2321</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2115</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1083</v>
+      </c>
+      <c r="K100" s="4">
+        <v>885</v>
+      </c>
+      <c r="L100" s="4">
+        <v>392442</v>
+      </c>
+      <c r="M100" s="4">
+        <v>379398</v>
+      </c>
+      <c r="N100" s="4">
+        <v>16634</v>
+      </c>
+      <c r="O100" s="4">
+        <v>14952</v>
+      </c>
+      <c r="P100" s="4">
+        <v>10139</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>8752</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -7347,18 +9741,42 @@
       <c r="D101" s="3">
         <v>21002</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
+      <c r="F101" s="4">
+        <v>31438</v>
+      </c>
+      <c r="G101" s="4">
+        <v>33626</v>
+      </c>
+      <c r="H101" s="4">
+        <v>3081</v>
+      </c>
+      <c r="I101" s="4">
+        <v>3324</v>
+      </c>
+      <c r="J101" s="4">
+        <v>2124</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1957</v>
+      </c>
+      <c r="L101" s="4">
+        <v>320249</v>
+      </c>
+      <c r="M101" s="4">
+        <v>263822</v>
+      </c>
+      <c r="N101" s="4">
+        <v>14299</v>
+      </c>
+      <c r="O101" s="4">
+        <v>13616</v>
+      </c>
+      <c r="P101" s="4">
+        <v>9247</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>7674</v>
+      </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -7373,18 +9791,42 @@
       <c r="D102" s="3">
         <v>469</v>
       </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
+      <c r="F102" s="4">
+        <v>1334</v>
+      </c>
+      <c r="G102" s="4">
+        <v>839</v>
+      </c>
+      <c r="H102" s="4">
+        <v>74</v>
+      </c>
+      <c r="I102" s="4">
+        <v>71</v>
+      </c>
+      <c r="J102" s="4">
+        <v>52</v>
+      </c>
+      <c r="K102" s="4">
+        <v>37</v>
+      </c>
+      <c r="L102" s="4">
+        <v>16653</v>
+      </c>
+      <c r="M102" s="4">
+        <v>15850</v>
+      </c>
+      <c r="N102" s="4">
+        <v>250</v>
+      </c>
+      <c r="O102" s="4">
+        <v>238</v>
+      </c>
+      <c r="P102" s="4">
+        <v>196</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>184</v>
+      </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -7399,18 +9841,42 @@
       <c r="D103" s="3">
         <v>9261</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
+      <c r="F103" s="4">
+        <v>136107</v>
+      </c>
+      <c r="G103" s="4">
+        <v>56666</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2728</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2133</v>
+      </c>
+      <c r="J103" s="4">
+        <v>2156</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1326</v>
+      </c>
+      <c r="L103" s="4">
+        <v>192580</v>
+      </c>
+      <c r="M103" s="4">
+        <v>160044</v>
+      </c>
+      <c r="N103" s="4">
+        <v>6370</v>
+      </c>
+      <c r="O103" s="4">
+        <v>5762</v>
+      </c>
+      <c r="P103" s="4">
+        <v>3137</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>2642</v>
+      </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -7425,18 +9891,42 @@
       <c r="D104" s="3">
         <v>78</v>
       </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L104" s="4">
+        <v>5498</v>
+      </c>
+      <c r="M104" s="4">
+        <v>3107</v>
+      </c>
+      <c r="N104" s="4">
+        <v>96</v>
+      </c>
+      <c r="O104" s="4">
+        <v>105</v>
+      </c>
+      <c r="P104" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -7451,18 +9941,42 @@
       <c r="D105" s="3">
         <v>76686</v>
       </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
+      <c r="F105" s="4">
+        <v>75650</v>
+      </c>
+      <c r="G105" s="4">
+        <v>66722</v>
+      </c>
+      <c r="H105" s="4">
+        <v>2918</v>
+      </c>
+      <c r="I105" s="4">
+        <v>2762</v>
+      </c>
+      <c r="J105" s="4">
+        <v>2671</v>
+      </c>
+      <c r="K105" s="4">
+        <v>2184</v>
+      </c>
+      <c r="L105" s="4">
+        <v>951034</v>
+      </c>
+      <c r="M105" s="4">
+        <v>945349</v>
+      </c>
+      <c r="N105" s="4">
+        <v>55102</v>
+      </c>
+      <c r="O105" s="4">
+        <v>52817</v>
+      </c>
+      <c r="P105" s="4">
+        <v>37382</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>34449</v>
+      </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -7477,18 +9991,42 @@
       <c r="D106" s="3">
         <v>122733</v>
       </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
+      <c r="F106" s="4">
+        <v>155570</v>
+      </c>
+      <c r="G106" s="4">
+        <v>144227</v>
+      </c>
+      <c r="H106" s="4">
+        <v>7080</v>
+      </c>
+      <c r="I106" s="4">
+        <v>6877</v>
+      </c>
+      <c r="J106" s="4">
+        <v>5445</v>
+      </c>
+      <c r="K106" s="4">
+        <v>4676</v>
+      </c>
+      <c r="L106" s="4">
+        <v>1851822</v>
+      </c>
+      <c r="M106" s="4">
+        <v>1699047</v>
+      </c>
+      <c r="N106" s="4">
+        <v>99583</v>
+      </c>
+      <c r="O106" s="4">
+        <v>94619</v>
+      </c>
+      <c r="P106" s="4">
+        <v>58631</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>53981</v>
+      </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -7503,18 +10041,42 @@
       <c r="D107" s="3">
         <v>8160</v>
       </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
+      <c r="F107" s="4">
+        <v>6433</v>
+      </c>
+      <c r="G107" s="4">
+        <v>4871</v>
+      </c>
+      <c r="H107" s="4">
+        <v>419</v>
+      </c>
+      <c r="I107" s="4">
+        <v>372</v>
+      </c>
+      <c r="J107" s="4">
+        <v>332</v>
+      </c>
+      <c r="K107" s="4">
+        <v>253</v>
+      </c>
+      <c r="L107" s="4">
+        <v>125450</v>
+      </c>
+      <c r="M107" s="4">
+        <v>120984</v>
+      </c>
+      <c r="N107" s="4">
+        <v>5361</v>
+      </c>
+      <c r="O107" s="4">
+        <v>5096</v>
+      </c>
+      <c r="P107" s="4">
+        <v>3925</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>3650</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -7529,18 +10091,42 @@
       <c r="D108" s="3">
         <v>294066</v>
       </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
+      <c r="F108" s="4">
+        <v>590825</v>
+      </c>
+      <c r="G108" s="4">
+        <v>438436</v>
+      </c>
+      <c r="H108" s="4">
+        <v>22446</v>
+      </c>
+      <c r="I108" s="4">
+        <v>21249</v>
+      </c>
+      <c r="J108" s="4">
+        <v>16886</v>
+      </c>
+      <c r="K108" s="4">
+        <v>13603</v>
+      </c>
+      <c r="L108" s="4">
+        <v>4417239</v>
+      </c>
+      <c r="M108" s="4">
+        <v>4062267</v>
+      </c>
+      <c r="N108" s="4">
+        <v>227090</v>
+      </c>
+      <c r="O108" s="4">
+        <v>214826</v>
+      </c>
+      <c r="P108" s="4">
+        <v>138872</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>124705</v>
+      </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -7555,18 +10141,42 @@
       <c r="D109" s="3">
         <v>37060</v>
       </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
+      <c r="F109" s="4">
+        <v>88587</v>
+      </c>
+      <c r="G109" s="4">
+        <v>107588</v>
+      </c>
+      <c r="H109" s="4">
+        <v>3584</v>
+      </c>
+      <c r="I109" s="4">
+        <v>3525</v>
+      </c>
+      <c r="J109" s="4">
+        <v>2693</v>
+      </c>
+      <c r="K109" s="4">
+        <v>2169</v>
+      </c>
+      <c r="L109" s="4">
+        <v>658842</v>
+      </c>
+      <c r="M109" s="4">
+        <v>614384</v>
+      </c>
+      <c r="N109" s="4">
+        <v>28737</v>
+      </c>
+      <c r="O109" s="4">
+        <v>26693</v>
+      </c>
+      <c r="P109" s="4">
+        <v>17139</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>15059</v>
+      </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -7581,18 +10191,42 @@
       <c r="D110" s="3">
         <v>11268</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
+      <c r="F110" s="4">
+        <v>43300</v>
+      </c>
+      <c r="G110" s="4">
+        <v>19700</v>
+      </c>
+      <c r="H110" s="4">
+        <v>1411</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1304</v>
+      </c>
+      <c r="J110" s="4">
+        <v>1699</v>
+      </c>
+      <c r="K110" s="4">
+        <v>670</v>
+      </c>
+      <c r="L110" s="4">
+        <v>203900</v>
+      </c>
+      <c r="M110" s="4">
+        <v>184400</v>
+      </c>
+      <c r="N110" s="4">
+        <v>9646</v>
+      </c>
+      <c r="O110" s="4">
+        <v>8134</v>
+      </c>
+      <c r="P110" s="4">
+        <v>4543</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>4356</v>
+      </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -7607,18 +10241,42 @@
       <c r="D111" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
+      <c r="F111" s="4">
+        <v>107200</v>
+      </c>
+      <c r="G111" s="4">
+        <v>86200</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L111" s="4">
+        <v>542900</v>
+      </c>
+      <c r="M111" s="4">
+        <v>447300</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -7633,18 +10291,42 @@
       <c r="D112" s="3">
         <v>12306</v>
       </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
+      <c r="F112" s="4">
+        <v>34487</v>
+      </c>
+      <c r="G112" s="4">
+        <v>32005</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1684</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1604</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1032</v>
+      </c>
+      <c r="K112" s="4">
+        <v>842</v>
+      </c>
+      <c r="L112" s="4">
+        <v>440420</v>
+      </c>
+      <c r="M112" s="4">
+        <v>366848</v>
+      </c>
+      <c r="N112" s="4">
+        <v>9895</v>
+      </c>
+      <c r="O112" s="4">
+        <v>8794</v>
+      </c>
+      <c r="P112" s="4">
+        <v>5570</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>4862</v>
+      </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -7659,18 +10341,42 @@
       <c r="D113" s="3">
         <v>28176</v>
       </c>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
+      <c r="F113" s="4">
+        <v>55365</v>
+      </c>
+      <c r="G113" s="4">
+        <v>45027</v>
+      </c>
+      <c r="H113" s="4">
+        <v>2294</v>
+      </c>
+      <c r="I113" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J113" s="4">
+        <v>1408</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1077</v>
+      </c>
+      <c r="L113" s="4">
+        <v>622805</v>
+      </c>
+      <c r="M113" s="4">
+        <v>504556</v>
+      </c>
+      <c r="N113" s="4">
+        <v>21227</v>
+      </c>
+      <c r="O113" s="4">
+        <v>17791</v>
+      </c>
+      <c r="P113" s="4">
+        <v>13951</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>11740</v>
+      </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -7685,18 +10391,42 @@
       <c r="D114" s="3">
         <v>38798</v>
       </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
+      <c r="F114" s="4">
+        <v>174666</v>
+      </c>
+      <c r="G114" s="4">
+        <v>144601</v>
+      </c>
+      <c r="H114" s="4">
+        <v>5557</v>
+      </c>
+      <c r="I114" s="4">
+        <v>5209</v>
+      </c>
+      <c r="J114" s="4">
+        <v>3414</v>
+      </c>
+      <c r="K114" s="4">
+        <v>3076</v>
+      </c>
+      <c r="L114" s="4">
+        <v>849049</v>
+      </c>
+      <c r="M114" s="4">
+        <v>743148</v>
+      </c>
+      <c r="N114" s="4">
+        <v>30739</v>
+      </c>
+      <c r="O114" s="4">
+        <v>25388</v>
+      </c>
+      <c r="P114" s="4">
+        <v>17471</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>14837</v>
+      </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -7711,18 +10441,42 @@
       <c r="D115" s="3">
         <v>22009</v>
       </c>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
+      <c r="F115" s="4">
+        <v>22574</v>
+      </c>
+      <c r="G115" s="4">
+        <v>20950</v>
+      </c>
+      <c r="H115" s="4">
+        <v>663</v>
+      </c>
+      <c r="I115" s="4">
+        <v>689</v>
+      </c>
+      <c r="J115" s="4">
+        <v>517</v>
+      </c>
+      <c r="K115" s="4">
+        <v>548</v>
+      </c>
+      <c r="L115" s="4">
+        <v>372992</v>
+      </c>
+      <c r="M115" s="4">
+        <v>332627</v>
+      </c>
+      <c r="N115" s="4">
+        <v>11712</v>
+      </c>
+      <c r="O115" s="4">
+        <v>15260</v>
+      </c>
+      <c r="P115" s="4">
+        <v>10959</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>9985</v>
+      </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -7737,18 +10491,42 @@
       <c r="D116" s="3">
         <v>14740</v>
       </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
+      <c r="F116" s="4">
+        <v>32144</v>
+      </c>
+      <c r="G116" s="4">
+        <v>30901</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1318</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1153</v>
+      </c>
+      <c r="J116" s="4">
+        <v>983</v>
+      </c>
+      <c r="K116" s="4">
+        <v>868</v>
+      </c>
+      <c r="L116" s="4">
+        <v>390669</v>
+      </c>
+      <c r="M116" s="4">
+        <v>350531</v>
+      </c>
+      <c r="N116" s="4">
+        <v>8896</v>
+      </c>
+      <c r="O116" s="4">
+        <v>7712</v>
+      </c>
+      <c r="P116" s="4">
+        <v>6794</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>6095</v>
+      </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -7763,18 +10541,42 @@
       <c r="D117" s="3">
         <v>35478</v>
       </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
+      <c r="F117" s="4">
+        <v>213368</v>
+      </c>
+      <c r="G117" s="4">
+        <v>181987</v>
+      </c>
+      <c r="H117" s="4">
+        <v>6417</v>
+      </c>
+      <c r="I117" s="4">
+        <v>6106</v>
+      </c>
+      <c r="J117" s="4">
+        <v>4406</v>
+      </c>
+      <c r="K117" s="4">
+        <v>4357</v>
+      </c>
+      <c r="L117" s="4">
+        <v>879231</v>
+      </c>
+      <c r="M117" s="4">
+        <v>787945</v>
+      </c>
+      <c r="N117" s="4">
+        <v>25908</v>
+      </c>
+      <c r="O117" s="4">
+        <v>23361</v>
+      </c>
+      <c r="P117" s="4">
+        <v>13927</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>12788</v>
+      </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -7789,18 +10591,42 @@
       <c r="D118" s="3">
         <v>199835</v>
       </c>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
+      <c r="F118" s="4">
+        <v>771691</v>
+      </c>
+      <c r="G118" s="4">
+        <v>668959</v>
+      </c>
+      <c r="H118" s="4">
+        <v>22928</v>
+      </c>
+      <c r="I118" s="4">
+        <v>21590</v>
+      </c>
+      <c r="J118" s="4">
+        <v>16152</v>
+      </c>
+      <c r="K118" s="4">
+        <v>13607</v>
+      </c>
+      <c r="L118" s="4">
+        <v>4960808</v>
+      </c>
+      <c r="M118" s="4">
+        <v>4331739</v>
+      </c>
+      <c r="N118" s="4">
+        <v>152760</v>
+      </c>
+      <c r="O118" s="4">
+        <v>133133</v>
+      </c>
+      <c r="P118" s="4">
+        <v>90354</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>79722</v>
+      </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -7815,18 +10641,42 @@
       <c r="D119" s="3">
         <v>765539</v>
       </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
+      <c r="F119" s="4">
+        <v>2428243</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1953572</v>
+      </c>
+      <c r="H119" s="4">
+        <v>71662</v>
+      </c>
+      <c r="I119" s="4">
+        <v>66426</v>
+      </c>
+      <c r="J119" s="4">
+        <v>52066</v>
+      </c>
+      <c r="K119" s="4">
+        <v>41613</v>
+      </c>
+      <c r="L119" s="4">
+        <v>14857015</v>
+      </c>
+      <c r="M119" s="4">
+        <v>13420822</v>
+      </c>
+      <c r="N119" s="4">
+        <v>599872</v>
+      </c>
+      <c r="O119" s="4">
+        <v>544092</v>
+      </c>
+      <c r="P119" s="4">
+        <v>353980</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>317880</v>
+      </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -7841,18 +10691,42 @@
       <c r="D120" s="3">
         <v>4243896</v>
       </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
+      <c r="F120" s="4">
+        <v>12004960</v>
+      </c>
+      <c r="G120" s="4">
+        <v>10986154</v>
+      </c>
+      <c r="H120" s="4">
+        <v>400827</v>
+      </c>
+      <c r="I120" s="4">
+        <v>377376</v>
+      </c>
+      <c r="J120" s="4">
+        <v>295780</v>
+      </c>
+      <c r="K120" s="4">
+        <v>243280</v>
+      </c>
+      <c r="L120" s="4">
+        <v>72514321</v>
+      </c>
+      <c r="M120" s="4">
+        <v>72014634</v>
+      </c>
+      <c r="N120" s="4">
+        <v>3214229</v>
+      </c>
+      <c r="O120" s="4">
+        <v>3038698</v>
+      </c>
+      <c r="P120" s="4">
+        <v>1926686</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>1778150</v>
+      </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDC3D7-8825-4AF2-A834-5CA6C4A39FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68551DB1-585A-476B-B281-4163E839A091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="26265" windowHeight="21705" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>губ</t>
   </si>
@@ -635,6 +635,27 @@
   </si>
   <si>
     <t>»918</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
   </si>
 </sst>
 </file>
@@ -4709,10 +4730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
-  <dimension ref="A1:Q149"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P111" sqref="P111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,14 +4742,26 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4748,37 +4781,73 @@
         <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -4797,38 +4866,48 @@
       <c r="G2" s="4">
         <v>24805</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>1055</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>982</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
         <v>797</v>
       </c>
-      <c r="K2" s="4">
+      <c r="O2" s="4">
         <v>582</v>
       </c>
-      <c r="L2" s="4">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
         <v>190430</v>
       </c>
-      <c r="M2" s="4">
+      <c r="S2" s="4">
         <v>206390</v>
       </c>
-      <c r="N2" s="4">
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4">
         <v>8945</v>
       </c>
-      <c r="O2" s="4">
+      <c r="W2" s="4">
         <v>8657</v>
       </c>
-      <c r="P2" s="4">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4">
         <v>5131</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="AA2" s="4">
         <v>4617</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4847,38 +4926,48 @@
       <c r="G3" s="4">
         <v>36510</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>1619</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>1561</v>
       </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <v>1176</v>
       </c>
-      <c r="K3" s="4">
+      <c r="O3" s="4">
         <v>991</v>
       </c>
-      <c r="L3" s="4">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
         <v>744107</v>
       </c>
-      <c r="M3" s="4">
+      <c r="S3" s="4">
         <v>812451</v>
       </c>
-      <c r="N3" s="4">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
         <v>37434</v>
       </c>
-      <c r="O3" s="4">
+      <c r="W3" s="4">
         <v>35634</v>
       </c>
-      <c r="P3" s="4">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4">
         <v>23760</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="AA3" s="4">
         <v>21531</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -4897,38 +4986,48 @@
       <c r="G4" s="4">
         <v>61315</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>2675</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>2543</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <v>1973</v>
       </c>
-      <c r="K4" s="4">
+      <c r="O4" s="4">
         <v>1572</v>
       </c>
-      <c r="L4" s="4">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
         <v>934537</v>
       </c>
-      <c r="M4" s="4">
+      <c r="S4" s="4">
         <v>1018841</v>
       </c>
-      <c r="N4" s="4">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
         <v>46379</v>
       </c>
-      <c r="O4" s="4">
+      <c r="W4" s="4">
         <v>44291</v>
       </c>
-      <c r="P4" s="4">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
         <v>28891</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="AA4" s="4">
         <v>26148</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -4947,38 +5046,48 @@
       <c r="G5" s="4">
         <v>15791</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>683</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>647</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>538</v>
       </c>
-      <c r="K5" s="4">
+      <c r="O5" s="4">
         <v>431</v>
       </c>
-      <c r="L5" s="4">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
         <v>197408</v>
       </c>
-      <c r="M5" s="4">
+      <c r="S5" s="4">
         <v>206393</v>
       </c>
-      <c r="N5" s="4">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>9168</v>
       </c>
-      <c r="O5" s="4">
+      <c r="W5" s="4">
         <v>9081</v>
       </c>
-      <c r="P5" s="4">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4">
         <v>6159</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="AA5" s="4">
         <v>5648</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4997,38 +5106,48 @@
       <c r="G6" s="4">
         <v>217970</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>9597</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>9201</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>7170</v>
       </c>
-      <c r="K6" s="4">
+      <c r="O6" s="4">
         <v>5477</v>
       </c>
-      <c r="L6" s="4">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
         <v>423034</v>
       </c>
-      <c r="M6" s="4">
+      <c r="S6" s="4">
         <v>438013</v>
       </c>
-      <c r="N6" s="4">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>14480</v>
       </c>
-      <c r="O6" s="4">
+      <c r="W6" s="4">
         <v>13745</v>
       </c>
-      <c r="P6" s="4">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
         <v>10274</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="AA6" s="4">
         <v>8575</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -5047,38 +5166,48 @@
       <c r="G7" s="4">
         <v>725501</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>23293</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>21902</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
         <v>18956</v>
       </c>
-      <c r="K7" s="4">
+      <c r="O7" s="4">
         <v>14644</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5097,38 +5226,48 @@
       <c r="G8" s="4">
         <v>50454</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>1812</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>1573</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
         <v>1391</v>
       </c>
-      <c r="K8" s="4">
+      <c r="O8" s="4">
         <v>1067</v>
       </c>
-      <c r="L8" s="4">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
         <v>638153</v>
       </c>
-      <c r="M8" s="4">
+      <c r="S8" s="4">
         <v>686060</v>
       </c>
-      <c r="N8" s="4">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
         <v>26821</v>
       </c>
-      <c r="O8" s="4">
+      <c r="W8" s="4">
         <v>25871</v>
       </c>
-      <c r="P8" s="4">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4">
         <v>16210</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="AA8" s="4">
         <v>14574</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -5147,38 +5286,48 @@
       <c r="G9" s="4">
         <v>49748</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>2057</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>1985</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1656</v>
       </c>
-      <c r="K9" s="4">
+      <c r="O9" s="4">
         <v>1451</v>
       </c>
-      <c r="L9" s="4">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
         <v>727548</v>
       </c>
-      <c r="M9" s="4">
+      <c r="S9" s="4">
         <v>795845</v>
       </c>
-      <c r="N9" s="4">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
         <v>32548</v>
       </c>
-      <c r="O9" s="4">
+      <c r="W9" s="4">
         <v>30963</v>
       </c>
-      <c r="P9" s="4">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4">
         <v>21048</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="AA9" s="4">
         <v>18990</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -5197,38 +5346,48 @@
       <c r="G10" s="4">
         <v>1959471</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>37442</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>35308</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>29711</v>
       </c>
-      <c r="K10" s="4">
+      <c r="O10" s="4">
         <v>23075</v>
       </c>
-      <c r="L10" s="4">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
         <v>1986143</v>
       </c>
-      <c r="M10" s="4">
+      <c r="S10" s="4">
         <v>2126311</v>
       </c>
-      <c r="N10" s="4">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
         <v>83017</v>
       </c>
-      <c r="O10" s="4">
+      <c r="W10" s="4">
         <v>79660</v>
       </c>
-      <c r="P10" s="4">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4">
         <v>53691</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="AA10" s="4">
         <v>47787</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -5247,38 +5406,48 @@
       <c r="G11" s="4">
         <v>87209</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>3455</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <v>3340</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>2620</v>
       </c>
-      <c r="K11" s="4">
+      <c r="O11" s="4">
         <v>2391</v>
       </c>
-      <c r="L11" s="4">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
         <v>975724</v>
       </c>
-      <c r="M11" s="4">
+      <c r="S11" s="4">
         <v>1168890</v>
       </c>
-      <c r="N11" s="4">
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
         <v>45895</v>
       </c>
-      <c r="O11" s="4">
+      <c r="W11" s="4">
         <v>43281</v>
       </c>
-      <c r="P11" s="4">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4">
         <v>29092</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="AA11" s="4">
         <v>25904</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -5297,38 +5466,48 @@
       <c r="G12" s="4">
         <v>104335</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>4407</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>4218</v>
       </c>
-      <c r="J12" s="4">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>3483</v>
       </c>
-      <c r="K12" s="4">
+      <c r="O12" s="4">
         <v>2866</v>
       </c>
-      <c r="L12" s="4">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
         <v>549864</v>
       </c>
-      <c r="M12" s="4">
+      <c r="S12" s="4">
         <v>618642</v>
       </c>
-      <c r="N12" s="4">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
         <v>23193</v>
       </c>
-      <c r="O12" s="4">
+      <c r="W12" s="4">
         <v>21987</v>
       </c>
-      <c r="P12" s="4">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4">
         <v>13975</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="AA12" s="4">
         <v>13516</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5347,38 +5526,48 @@
       <c r="G13" s="4">
         <v>49331</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>2140</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>2054</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>1516</v>
       </c>
-      <c r="K13" s="4">
+      <c r="O13" s="4">
         <v>1395</v>
       </c>
-      <c r="L13" s="4">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
         <v>768482</v>
       </c>
-      <c r="M13" s="4">
+      <c r="S13" s="4">
         <v>870849</v>
       </c>
-      <c r="N13" s="4">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
         <v>38694</v>
       </c>
-      <c r="O13" s="4">
+      <c r="W13" s="4">
         <v>37119</v>
       </c>
-      <c r="P13" s="4">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4">
         <v>23475</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="AA13" s="4">
         <v>21852</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -5397,38 +5586,48 @@
       <c r="G14" s="4">
         <v>168021</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>7168</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>6482</v>
       </c>
-      <c r="J14" s="4">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>5057</v>
       </c>
-      <c r="K14" s="4">
+      <c r="O14" s="4">
         <v>4275</v>
       </c>
-      <c r="L14" s="4">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
         <v>880745</v>
       </c>
-      <c r="M14" s="4">
+      <c r="S14" s="4">
         <v>880162</v>
       </c>
-      <c r="N14" s="4">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
         <v>38526</v>
       </c>
-      <c r="O14" s="4">
+      <c r="W14" s="4">
         <v>36637</v>
       </c>
-      <c r="P14" s="4">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4">
         <v>24015</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="AA14" s="4">
         <v>22465</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -5447,38 +5646,48 @@
       <c r="G15" s="4">
         <v>57005</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>3258</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <v>3179</v>
       </c>
-      <c r="J15" s="4">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>2301</v>
       </c>
-      <c r="K15" s="4">
+      <c r="O15" s="4">
         <v>2001</v>
       </c>
-      <c r="L15" s="4">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
         <v>733793</v>
       </c>
-      <c r="M15" s="4">
+      <c r="S15" s="4">
         <v>913380</v>
       </c>
-      <c r="N15" s="4">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
         <v>38188</v>
       </c>
-      <c r="O15" s="4">
+      <c r="W15" s="4">
         <v>36340</v>
       </c>
-      <c r="P15" s="4">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4">
         <v>25173</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="AA15" s="4">
         <v>22348</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -5497,38 +5706,48 @@
       <c r="G16" s="4">
         <v>704800</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>27718</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <v>26379</v>
       </c>
-      <c r="J16" s="4">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>23177</v>
       </c>
-      <c r="K16" s="4">
+      <c r="O16" s="4">
         <v>18680</v>
       </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5547,38 +5766,48 @@
       <c r="G17" s="4">
         <v>47417</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>1697</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="4">
         <v>1686</v>
       </c>
-      <c r="J17" s="4">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
         <v>1611</v>
       </c>
-      <c r="K17" s="4">
+      <c r="O17" s="4">
         <v>1252</v>
       </c>
-      <c r="L17" s="4">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
         <v>632401</v>
       </c>
-      <c r="M17" s="4">
+      <c r="S17" s="4">
         <v>720425</v>
       </c>
-      <c r="N17" s="4">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4">
         <v>33339</v>
       </c>
-      <c r="O17" s="4">
+      <c r="W17" s="4">
         <v>31813</v>
       </c>
-      <c r="P17" s="4">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4">
         <v>19110</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="AA17" s="4">
         <v>17855</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -5597,38 +5826,48 @@
       <c r="G18" s="4">
         <v>1218118</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>49843</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <v>47338</v>
       </c>
-      <c r="J18" s="4">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>39765</v>
       </c>
-      <c r="K18" s="4">
+      <c r="O18" s="4">
         <v>32860</v>
       </c>
-      <c r="L18" s="4">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4">
         <v>4541009</v>
       </c>
-      <c r="M18" s="4">
+      <c r="S18" s="4">
         <v>5173348</v>
       </c>
-      <c r="N18" s="4">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
         <v>217835</v>
       </c>
-      <c r="O18" s="4">
+      <c r="W18" s="4">
         <v>207177</v>
       </c>
-      <c r="P18" s="4">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4">
         <v>134840</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="AA18" s="4">
         <v>123940</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -5647,38 +5886,48 @@
       <c r="G19" s="4">
         <v>92731</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>3895</v>
       </c>
-      <c r="I19" s="4">
+      <c r="K19" s="4">
         <v>3875</v>
       </c>
-      <c r="J19" s="4">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
         <v>2764</v>
       </c>
-      <c r="K19" s="4">
+      <c r="O19" s="4">
         <v>2397</v>
       </c>
-      <c r="L19" s="4">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4">
         <v>848858</v>
       </c>
-      <c r="M19" s="4">
+      <c r="S19" s="4">
         <v>867783</v>
       </c>
-      <c r="N19" s="4">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4">
         <v>40637</v>
       </c>
-      <c r="O19" s="4">
+      <c r="W19" s="4">
         <v>38830</v>
       </c>
-      <c r="P19" s="4">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4">
         <v>24516</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="AA19" s="4">
         <v>21733</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -5697,38 +5946,48 @@
       <c r="G20" s="4">
         <v>68728</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>2906</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <v>2786</v>
       </c>
-      <c r="J20" s="4">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
         <v>2307</v>
       </c>
-      <c r="K20" s="4">
+      <c r="O20" s="4">
         <v>1907</v>
       </c>
-      <c r="L20" s="4">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
         <v>1205807</v>
       </c>
-      <c r="M20" s="4">
+      <c r="S20" s="4">
         <v>1222119</v>
       </c>
-      <c r="N20" s="4">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4">
         <v>52746</v>
       </c>
-      <c r="O20" s="4">
+      <c r="W20" s="4">
         <v>50577</v>
       </c>
-      <c r="P20" s="4">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4">
         <v>28399</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="AA20" s="4">
         <v>25836</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5747,38 +6006,48 @@
       <c r="G21" s="4">
         <v>138645</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>4812</v>
       </c>
-      <c r="I21" s="4">
+      <c r="K21" s="4">
         <v>4568</v>
       </c>
-      <c r="J21" s="4">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
         <v>3643</v>
       </c>
-      <c r="K21" s="4">
+      <c r="O21" s="4">
         <v>3146</v>
       </c>
-      <c r="L21" s="4">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
         <v>1170832</v>
       </c>
-      <c r="M21" s="4">
+      <c r="S21" s="4">
         <v>1169300</v>
       </c>
-      <c r="N21" s="4">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4">
         <v>55219</v>
       </c>
-      <c r="O21" s="4">
+      <c r="W21" s="4">
         <v>52960</v>
       </c>
-      <c r="P21" s="4">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4">
         <v>33534</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="AA21" s="4">
         <v>31350</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5797,38 +6066,48 @@
       <c r="G22" s="4">
         <v>124133</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>4060</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>3666</v>
       </c>
-      <c r="J22" s="4">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
         <v>2905</v>
       </c>
-      <c r="K22" s="4">
+      <c r="O22" s="4">
         <v>2499</v>
       </c>
-      <c r="L22" s="4">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
         <v>1351148</v>
       </c>
-      <c r="M22" s="4">
+      <c r="S22" s="4">
         <v>1361792</v>
       </c>
-      <c r="N22" s="4">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4">
         <v>67181</v>
       </c>
-      <c r="O22" s="4">
+      <c r="W22" s="4">
         <v>63127</v>
       </c>
-      <c r="P22" s="4">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4">
         <v>40756</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="AA22" s="4">
         <v>38693</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -5847,38 +6126,48 @@
       <c r="G23" s="4">
         <v>75194</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>2534</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <v>2288</v>
       </c>
-      <c r="J23" s="4">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
         <v>2033</v>
       </c>
-      <c r="K23" s="4">
+      <c r="O23" s="4">
         <v>1568</v>
       </c>
-      <c r="L23" s="4">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4">
         <v>1699100</v>
       </c>
-      <c r="M23" s="4">
+      <c r="S23" s="4">
         <v>1663461</v>
       </c>
-      <c r="N23" s="4">
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4">
         <v>87958</v>
       </c>
-      <c r="O23" s="4">
+      <c r="W23" s="4">
         <v>84108</v>
       </c>
-      <c r="P23" s="4">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4">
         <v>51977</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="AA23" s="4">
         <v>49551</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -5897,38 +6186,48 @@
       <c r="G24" s="4">
         <v>125186</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>6507</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <v>6293</v>
       </c>
-      <c r="J24" s="4">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
         <v>5064</v>
       </c>
-      <c r="K24" s="4">
+      <c r="O24" s="4">
         <v>4499</v>
       </c>
-      <c r="L24" s="4">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
         <v>1704600</v>
       </c>
-      <c r="M24" s="4">
+      <c r="S24" s="4">
         <v>1723757</v>
       </c>
-      <c r="N24" s="4">
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4">
         <v>84244</v>
       </c>
-      <c r="O24" s="4">
+      <c r="W24" s="4">
         <v>81977</v>
       </c>
-      <c r="P24" s="4">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4">
         <v>48764</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="AA24" s="4">
         <v>46197</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -5947,38 +6246,48 @@
       <c r="G25" s="4">
         <v>624617</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>24714</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <v>23476</v>
       </c>
-      <c r="J25" s="4">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
         <v>18716</v>
       </c>
-      <c r="K25" s="4">
+      <c r="O25" s="4">
         <v>16016</v>
       </c>
-      <c r="L25" s="4">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4">
         <v>7980345</v>
       </c>
-      <c r="M25" s="4">
+      <c r="S25" s="4">
         <v>8098212</v>
       </c>
-      <c r="N25" s="4">
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4">
         <v>387985</v>
       </c>
-      <c r="O25" s="4">
+      <c r="W25" s="4">
         <v>371579</v>
       </c>
-      <c r="P25" s="4">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4">
         <v>227946</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="AA25" s="4">
         <v>213360</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5997,38 +6306,48 @@
       <c r="G26" s="4">
         <v>81388</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>3814</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <v>3685</v>
       </c>
-      <c r="J26" s="4">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
         <v>2914</v>
       </c>
-      <c r="K26" s="4">
+      <c r="O26" s="4">
         <v>2433</v>
       </c>
-      <c r="L26" s="4">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4">
         <v>877170</v>
       </c>
-      <c r="M26" s="4">
+      <c r="S26" s="4">
         <v>889373</v>
       </c>
-      <c r="N26" s="4">
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4">
         <v>45584</v>
       </c>
-      <c r="O26" s="4">
+      <c r="W26" s="4">
         <v>43308</v>
       </c>
-      <c r="P26" s="4">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4">
         <v>27392</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="AA26" s="4">
         <v>25308</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -6047,38 +6366,48 @@
       <c r="G27" s="4">
         <v>272542</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>10813</v>
       </c>
-      <c r="I27" s="4">
+      <c r="K27" s="4">
         <v>10468</v>
       </c>
-      <c r="J27" s="4">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
         <v>8556</v>
       </c>
-      <c r="K27" s="4">
+      <c r="O27" s="4">
         <v>6975</v>
       </c>
-      <c r="L27" s="4">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4">
         <v>1356646</v>
       </c>
-      <c r="M27" s="4">
+      <c r="S27" s="4">
         <v>1355850</v>
       </c>
-      <c r="N27" s="4">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4">
         <v>70257</v>
       </c>
-      <c r="O27" s="4">
+      <c r="W27" s="4">
         <v>67944</v>
       </c>
-      <c r="P27" s="4">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4">
         <v>46878</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="AA27" s="4">
         <v>44718</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -6097,38 +6426,48 @@
       <c r="G28" s="4">
         <v>78661</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>3896</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <v>3826</v>
       </c>
-      <c r="J28" s="4">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
         <v>3351</v>
       </c>
-      <c r="K28" s="4">
+      <c r="O28" s="4">
         <v>3070</v>
       </c>
-      <c r="L28" s="4">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
         <v>888301</v>
       </c>
-      <c r="M28" s="4">
+      <c r="S28" s="4">
         <v>919537</v>
       </c>
-      <c r="N28" s="4">
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4">
         <v>47946</v>
       </c>
-      <c r="O28" s="4">
+      <c r="W28" s="4">
         <v>45973</v>
       </c>
-      <c r="P28" s="4">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4">
         <v>29052</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="AA28" s="4">
         <v>28498</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -6147,38 +6486,48 @@
       <c r="G29" s="4">
         <v>74455</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>2583</v>
       </c>
-      <c r="I29" s="4">
+      <c r="K29" s="4">
         <v>2386</v>
       </c>
-      <c r="J29" s="4">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
         <v>2091</v>
       </c>
-      <c r="K29" s="4">
+      <c r="O29" s="4">
         <v>1683</v>
       </c>
-      <c r="L29" s="4">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4">
         <v>919879</v>
       </c>
-      <c r="M29" s="4">
+      <c r="S29" s="4">
         <v>978696</v>
       </c>
-      <c r="N29" s="4">
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4">
         <v>47265</v>
       </c>
-      <c r="O29" s="4">
+      <c r="W29" s="4">
         <v>44435</v>
       </c>
-      <c r="P29" s="4">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4">
         <v>31566</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="AA29" s="4">
         <v>28744</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -6197,38 +6546,48 @@
       <c r="G30" s="4">
         <v>125935</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>4443</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <v>4324</v>
       </c>
-      <c r="J30" s="4">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
         <v>4073</v>
       </c>
-      <c r="K30" s="4">
+      <c r="O30" s="4">
         <v>3467</v>
       </c>
-      <c r="L30" s="4">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4">
         <v>1235499</v>
       </c>
-      <c r="M30" s="4">
+      <c r="S30" s="4">
         <v>1229156</v>
       </c>
-      <c r="N30" s="4">
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4">
         <v>57692</v>
       </c>
-      <c r="O30" s="4">
+      <c r="W30" s="4">
         <v>56281</v>
       </c>
-      <c r="P30" s="4">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4">
         <v>37990</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="AA30" s="4">
         <v>37601</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -6247,38 +6606,48 @@
       <c r="G31" s="4">
         <v>632981</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>25549</v>
       </c>
-      <c r="I31" s="4">
+      <c r="K31" s="4">
         <v>24689</v>
       </c>
-      <c r="J31" s="4">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
         <v>20985</v>
       </c>
-      <c r="K31" s="4">
+      <c r="O31" s="4">
         <v>17628</v>
       </c>
-      <c r="L31" s="4">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4">
         <v>5277495</v>
       </c>
-      <c r="M31" s="4">
+      <c r="S31" s="4">
         <v>5372612</v>
       </c>
-      <c r="N31" s="4">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4">
         <v>268744</v>
       </c>
-      <c r="O31" s="4">
+      <c r="W31" s="4">
         <v>257941</v>
       </c>
-      <c r="P31" s="4">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4">
         <v>172878</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="AA31" s="4">
         <v>164869</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -6297,38 +6666,48 @@
       <c r="G32" s="4">
         <v>65736</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>2598</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <v>2416</v>
       </c>
-      <c r="J32" s="4">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
         <v>2100</v>
       </c>
-      <c r="K32" s="4">
+      <c r="O32" s="4">
         <v>1787</v>
       </c>
-      <c r="L32" s="4">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4">
         <v>1748027</v>
       </c>
-      <c r="M32" s="4">
+      <c r="S32" s="4">
         <v>1821593</v>
       </c>
-      <c r="N32" s="4">
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4">
         <v>99818</v>
       </c>
-      <c r="O32" s="4">
+      <c r="W32" s="4">
         <v>95741</v>
       </c>
-      <c r="P32" s="4">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4">
         <v>68050</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="AA32" s="4">
         <v>64898</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -6347,38 +6726,48 @@
       <c r="G33" s="4">
         <v>100935</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>5147</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <v>5003</v>
       </c>
-      <c r="J33" s="4">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
         <v>4785</v>
       </c>
-      <c r="K33" s="4">
+      <c r="O33" s="4">
         <v>4028</v>
       </c>
-      <c r="L33" s="4">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4">
         <v>1672015</v>
       </c>
-      <c r="M33" s="4">
+      <c r="S33" s="4">
         <v>1806027</v>
       </c>
-      <c r="N33" s="4">
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4">
         <v>100609</v>
       </c>
-      <c r="O33" s="4">
+      <c r="W33" s="4">
         <v>97121</v>
       </c>
-      <c r="P33" s="4">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4">
         <v>76559</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="AA33" s="4">
         <v>72297</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -6397,38 +6786,48 @@
       <c r="G34" s="4">
         <v>90195</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>4473</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <v>4274</v>
       </c>
-      <c r="J34" s="4">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4">
         <v>3543</v>
       </c>
-      <c r="K34" s="4">
+      <c r="O34" s="4">
         <v>3047</v>
       </c>
-      <c r="L34" s="4">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4">
         <v>1376315</v>
       </c>
-      <c r="M34" s="4">
+      <c r="S34" s="4">
         <v>1479401</v>
       </c>
-      <c r="N34" s="4">
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4">
         <v>76014</v>
       </c>
-      <c r="O34" s="4">
+      <c r="W34" s="4">
         <v>72557</v>
       </c>
-      <c r="P34" s="4">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4">
         <v>45396</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="AA34" s="4">
         <v>44396</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -6447,38 +6846,48 @@
       <c r="G35" s="4">
         <v>256866</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>12218</v>
       </c>
-      <c r="I35" s="4">
+      <c r="K35" s="4">
         <v>11693</v>
       </c>
-      <c r="J35" s="4">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
         <v>10428</v>
       </c>
-      <c r="K35" s="4">
+      <c r="O35" s="4">
         <v>8862</v>
       </c>
-      <c r="L35" s="4">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4">
         <v>4796357</v>
       </c>
-      <c r="M35" s="4">
+      <c r="S35" s="4">
         <v>5167021</v>
       </c>
-      <c r="N35" s="4">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4">
         <v>276441</v>
       </c>
-      <c r="O35" s="4">
+      <c r="W35" s="4">
         <v>265419</v>
       </c>
-      <c r="P35" s="4">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4">
         <v>190005</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="AA35" s="4">
         <v>181591</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -6497,38 +6906,48 @@
       <c r="G36" s="4">
         <v>121905</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>6374</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <v>5844</v>
       </c>
-      <c r="J36" s="4">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4">
         <v>5200</v>
       </c>
-      <c r="K36" s="4">
+      <c r="O36" s="4">
         <v>4447</v>
       </c>
-      <c r="L36" s="4">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4">
         <v>956903</v>
       </c>
-      <c r="M36" s="4">
+      <c r="S36" s="4">
         <v>953342</v>
       </c>
-      <c r="N36" s="4">
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4">
         <v>56883</v>
       </c>
-      <c r="O36" s="4">
+      <c r="W36" s="4">
         <v>55079</v>
       </c>
-      <c r="P36" s="4">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4">
         <v>37490</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="AA36" s="4">
         <v>35551</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -6547,38 +6966,48 @@
       <c r="G37" s="4">
         <v>91176</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>6292</v>
       </c>
-      <c r="I37" s="4">
+      <c r="K37" s="4">
         <v>5988</v>
       </c>
-      <c r="J37" s="4">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
         <v>5734</v>
       </c>
-      <c r="K37" s="4">
+      <c r="O37" s="4">
         <v>4807</v>
       </c>
-      <c r="L37" s="4">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4">
         <v>1719458</v>
       </c>
-      <c r="M37" s="4">
+      <c r="S37" s="4">
         <v>1755386</v>
       </c>
-      <c r="N37" s="4">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4">
         <v>100607</v>
       </c>
-      <c r="O37" s="4">
+      <c r="W37" s="4">
         <v>95912</v>
       </c>
-      <c r="P37" s="4">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4">
         <v>65717</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="AA37" s="4">
         <v>62095</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -6597,38 +7026,48 @@
       <c r="G38" s="4">
         <v>89763</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>3759</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <v>3474</v>
       </c>
-      <c r="J38" s="4">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
         <v>3255</v>
       </c>
-      <c r="K38" s="4">
+      <c r="O38" s="4">
         <v>2539</v>
       </c>
-      <c r="L38" s="4">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4">
         <v>591145</v>
       </c>
-      <c r="M38" s="4">
+      <c r="S38" s="4">
         <v>563850</v>
       </c>
-      <c r="N38" s="4">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4">
         <v>20625</v>
       </c>
-      <c r="O38" s="4">
+      <c r="W38" s="4">
         <v>19279</v>
       </c>
-      <c r="P38" s="4">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4">
         <v>13271</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="AA38" s="4">
         <v>11807</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -6647,38 +7086,48 @@
       <c r="G39" s="4">
         <v>302844</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>16425</v>
       </c>
-      <c r="I39" s="4">
+      <c r="K39" s="4">
         <v>15306</v>
       </c>
-      <c r="J39" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <v>14189</v>
       </c>
-      <c r="K39" s="4">
+      <c r="O39" s="4">
         <v>11793</v>
       </c>
-      <c r="L39" s="4">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4">
         <v>3267506</v>
       </c>
-      <c r="M39" s="4">
+      <c r="S39" s="4">
         <v>3272578</v>
       </c>
-      <c r="N39" s="4">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4">
         <v>178115</v>
       </c>
-      <c r="O39" s="4">
+      <c r="W39" s="4">
         <v>170270</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="AA39" s="4">
         <v>109453</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -6697,38 +7146,48 @@
       <c r="G40" s="4">
         <v>205934</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>8372</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <v>7826</v>
       </c>
-      <c r="J40" s="4">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
         <v>5941</v>
       </c>
-      <c r="K40" s="4">
+      <c r="O40" s="4">
         <v>4690</v>
       </c>
-      <c r="L40" s="4">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4">
         <v>1503873</v>
       </c>
-      <c r="M40" s="4">
+      <c r="S40" s="4">
         <v>1390025</v>
       </c>
-      <c r="N40" s="4">
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4">
         <v>66181</v>
       </c>
-      <c r="O40" s="4">
+      <c r="W40" s="4">
         <v>63219</v>
       </c>
-      <c r="P40" s="4">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4">
         <v>33988</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="AA40" s="4">
         <v>31648</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -6747,38 +7206,48 @@
       <c r="G41" s="4">
         <v>200911</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>6612</v>
       </c>
-      <c r="I41" s="4">
+      <c r="K41" s="4">
         <v>6338</v>
       </c>
-      <c r="J41" s="4">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
         <v>3983</v>
       </c>
-      <c r="K41" s="4">
+      <c r="O41" s="4">
         <v>3245</v>
       </c>
-      <c r="L41" s="4">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4">
         <v>1623578</v>
       </c>
-      <c r="M41" s="4">
+      <c r="S41" s="4">
         <v>1611687</v>
       </c>
-      <c r="N41" s="4">
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4">
         <v>62203</v>
       </c>
-      <c r="O41" s="4">
+      <c r="W41" s="4">
         <v>58809</v>
       </c>
-      <c r="P41" s="4">
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4">
         <v>31060</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="AA41" s="4">
         <v>28597</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -6797,38 +7266,48 @@
       <c r="G42" s="4">
         <v>133449</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>3745</v>
       </c>
-      <c r="I42" s="4">
+      <c r="K42" s="4">
         <v>3565</v>
       </c>
-      <c r="J42" s="4">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4">
         <v>2648</v>
       </c>
-      <c r="K42" s="4">
+      <c r="O42" s="4">
         <v>2310</v>
       </c>
-      <c r="L42" s="4">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4">
         <v>1289866</v>
       </c>
-      <c r="M42" s="4">
+      <c r="S42" s="4">
         <v>1278207</v>
       </c>
-      <c r="N42" s="4">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4">
         <v>55046</v>
       </c>
-      <c r="O42" s="4">
+      <c r="W42" s="4">
         <v>51918</v>
       </c>
-      <c r="P42" s="4">
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4">
         <v>28832</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="AA42" s="4">
         <v>26700</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -6847,38 +7326,48 @@
       <c r="G43" s="4">
         <v>540294</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
         <v>18729</v>
       </c>
-      <c r="I43" s="4">
+      <c r="K43" s="4">
         <v>17729</v>
       </c>
-      <c r="J43" s="4">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
         <v>12572</v>
       </c>
-      <c r="K43" s="4">
+      <c r="O43" s="4">
         <v>10245</v>
       </c>
-      <c r="L43" s="4">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4">
         <v>4417317</v>
       </c>
-      <c r="M43" s="4">
+      <c r="S43" s="4">
         <v>4279919</v>
       </c>
-      <c r="N43" s="4">
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4">
         <v>183430</v>
       </c>
-      <c r="O43" s="4">
+      <c r="W43" s="4">
         <v>173976</v>
       </c>
-      <c r="P43" s="4">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4">
         <v>93880</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="AA43" s="4">
         <v>86945</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -6897,38 +7386,48 @@
       <c r="G44" s="4">
         <v>422996</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
         <v>11090</v>
       </c>
-      <c r="I44" s="4">
+      <c r="K44" s="4">
         <v>11287</v>
       </c>
-      <c r="J44" s="4">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
         <v>7744</v>
       </c>
-      <c r="K44" s="4">
+      <c r="O44" s="4">
         <v>7299</v>
       </c>
-      <c r="L44" s="4">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4">
         <v>1912547</v>
       </c>
-      <c r="M44" s="4">
+      <c r="S44" s="4">
         <v>1941894</v>
       </c>
-      <c r="N44" s="4">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4">
         <v>82805</v>
       </c>
-      <c r="O44" s="4">
+      <c r="W44" s="4">
         <v>77964</v>
       </c>
-      <c r="P44" s="4">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4">
         <v>47417</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="AA44" s="4">
         <v>42040</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6947,38 +7446,48 @@
       <c r="G45" s="4">
         <v>167678</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
         <v>4965</v>
       </c>
-      <c r="I45" s="4">
+      <c r="K45" s="4">
         <v>4371</v>
       </c>
-      <c r="J45" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4">
         <v>3096</v>
       </c>
-      <c r="K45" s="4">
+      <c r="O45" s="4">
         <v>2532</v>
       </c>
-      <c r="L45" s="4">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4">
         <v>1721128</v>
       </c>
-      <c r="M45" s="4">
+      <c r="S45" s="4">
         <v>1714135</v>
       </c>
-      <c r="N45" s="4">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4">
         <v>73890</v>
       </c>
-      <c r="O45" s="4">
+      <c r="W45" s="4">
         <v>68183</v>
       </c>
-      <c r="P45" s="4">
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4">
         <v>40481</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="AA45" s="4">
         <v>36520</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -6997,38 +7506,48 @@
       <c r="G46" s="4">
         <v>138491</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
         <v>3510</v>
       </c>
-      <c r="I46" s="4">
+      <c r="K46" s="4">
         <v>3128</v>
       </c>
-      <c r="J46" s="4">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4">
         <v>2614</v>
       </c>
-      <c r="K46" s="4">
+      <c r="O46" s="4">
         <v>2022</v>
       </c>
-      <c r="L46" s="4">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4">
         <v>1727585</v>
       </c>
-      <c r="M46" s="4">
+      <c r="S46" s="4">
         <v>1753764</v>
       </c>
-      <c r="N46" s="4">
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4">
         <v>68699</v>
       </c>
-      <c r="O46" s="4">
+      <c r="W46" s="4">
         <v>64582</v>
       </c>
-      <c r="P46" s="4">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4">
         <v>47378</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="AA46" s="4">
         <v>42382</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -7047,38 +7566,48 @@
       <c r="G47" s="4">
         <v>729165</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <v>19565</v>
       </c>
-      <c r="I47" s="4">
+      <c r="K47" s="4">
         <v>18786</v>
       </c>
-      <c r="J47" s="4">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4">
         <v>13454</v>
       </c>
-      <c r="K47" s="4">
+      <c r="O47" s="4">
         <v>11853</v>
       </c>
-      <c r="L47" s="4">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4">
         <v>5361260</v>
       </c>
-      <c r="M47" s="4">
+      <c r="S47" s="4">
         <v>5409793</v>
       </c>
-      <c r="N47" s="4">
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4">
         <v>225394</v>
       </c>
-      <c r="O47" s="4">
+      <c r="W47" s="4">
         <v>210729</v>
       </c>
-      <c r="P47" s="4">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4">
         <v>135276</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="AA47" s="4">
         <v>120942</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -7097,38 +7626,48 @@
       <c r="G48" s="4">
         <v>135704</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
         <v>4363</v>
       </c>
-      <c r="I48" s="4">
+      <c r="K48" s="4">
         <v>4107</v>
       </c>
-      <c r="J48" s="4">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
         <v>3838</v>
       </c>
-      <c r="K48" s="4">
+      <c r="O48" s="4">
         <v>2910</v>
       </c>
-      <c r="L48" s="4">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4">
         <v>1119153</v>
       </c>
-      <c r="M48" s="4">
+      <c r="S48" s="4">
         <v>1074399</v>
       </c>
-      <c r="N48" s="4">
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4">
         <v>45983</v>
       </c>
-      <c r="O48" s="4">
+      <c r="W48" s="4">
         <v>44171</v>
       </c>
-      <c r="P48" s="4">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4">
         <v>34903</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="AA48" s="4">
         <v>32642</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -7147,38 +7686,48 @@
       <c r="G49" s="4">
         <v>106023</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
         <v>4328</v>
       </c>
-      <c r="I49" s="4">
+      <c r="K49" s="4">
         <v>4124</v>
       </c>
-      <c r="J49" s="4">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
         <v>2993</v>
       </c>
-      <c r="K49" s="4">
+      <c r="O49" s="4">
         <v>2540</v>
       </c>
-      <c r="L49" s="4">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4">
         <v>1403245</v>
       </c>
-      <c r="M49" s="4">
+      <c r="S49" s="4">
         <v>1308788</v>
       </c>
-      <c r="N49" s="4">
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4">
         <v>62418</v>
       </c>
-      <c r="O49" s="4">
+      <c r="W49" s="4">
         <v>59185</v>
       </c>
-      <c r="P49" s="4">
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4">
         <v>34593</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="AA49" s="4">
         <v>30779</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -7197,38 +7746,48 @@
       <c r="G50" s="4">
         <v>52014</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4">
         <v>2042</v>
       </c>
-      <c r="I50" s="4">
+      <c r="K50" s="4">
         <v>2034</v>
       </c>
-      <c r="J50" s="4">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4">
         <v>1230</v>
       </c>
-      <c r="K50" s="4">
+      <c r="O50" s="4">
         <v>1105</v>
       </c>
-      <c r="L50" s="4">
-        <v>0</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
-      <c r="N50" s="4">
-        <v>0</v>
-      </c>
-      <c r="O50" s="4">
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4">
+        <v>0</v>
+      </c>
+      <c r="W50" s="4">
+        <v>0</v>
+      </c>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -7247,38 +7806,48 @@
       <c r="G51" s="4">
         <v>258000</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
         <v>6789</v>
       </c>
-      <c r="I51" s="4">
+      <c r="K51" s="4">
         <v>6390</v>
       </c>
-      <c r="J51" s="4">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4">
         <v>5519</v>
       </c>
-      <c r="K51" s="4">
+      <c r="O51" s="4">
         <v>3997</v>
       </c>
-      <c r="L51" s="4">
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-      <c r="N51" s="4">
-        <v>0</v>
-      </c>
-      <c r="O51" s="4">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <v>0</v>
+      </c>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4">
+        <v>0</v>
+      </c>
+      <c r="W51" s="4">
+        <v>0</v>
+      </c>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -7297,38 +7866,48 @@
       <c r="G52" s="4">
         <v>135620</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
         <v>6734</v>
       </c>
-      <c r="I52" s="4">
+      <c r="K52" s="4">
         <v>6174</v>
       </c>
-      <c r="J52" s="4">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4">
         <v>5400</v>
       </c>
-      <c r="K52" s="4">
+      <c r="O52" s="4">
         <v>3092</v>
       </c>
-      <c r="L52" s="4">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4">
         <v>823717</v>
       </c>
-      <c r="M52" s="4">
+      <c r="S52" s="4">
         <v>774381</v>
       </c>
-      <c r="N52" s="4">
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4">
         <v>35358</v>
       </c>
-      <c r="O52" s="4">
+      <c r="W52" s="4">
         <v>34584</v>
       </c>
-      <c r="P52" s="4">
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4">
         <v>20466</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="AA52" s="4">
         <v>17193</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -7347,38 +7926,48 @@
       <c r="G53" s="4">
         <v>30888</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <v>1365</v>
       </c>
-      <c r="I53" s="4">
+      <c r="K53" s="4">
         <v>1300</v>
       </c>
-      <c r="J53" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4">
         <v>945</v>
       </c>
-      <c r="K53" s="4">
+      <c r="O53" s="4">
         <v>599</v>
       </c>
-      <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="4">
-        <v>0</v>
-      </c>
-      <c r="O53" s="4">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0</v>
+      </c>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -7397,38 +7986,48 @@
       <c r="G54" s="4">
         <v>230266</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <v>8011</v>
       </c>
-      <c r="I54" s="4">
+      <c r="K54" s="4">
         <v>7635</v>
       </c>
-      <c r="J54" s="4">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
         <v>4909</v>
       </c>
-      <c r="K54" s="4">
+      <c r="O54" s="4">
         <v>3805</v>
       </c>
-      <c r="L54" s="4">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4">
         <v>1472578</v>
       </c>
-      <c r="M54" s="4">
+      <c r="S54" s="4">
         <v>1307220</v>
       </c>
-      <c r="N54" s="4">
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4">
         <v>73181</v>
       </c>
-      <c r="O54" s="4">
+      <c r="W54" s="4">
         <v>69445</v>
       </c>
-      <c r="P54" s="4">
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4">
         <v>31931</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="AA54" s="4">
         <v>26909</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -7447,38 +8046,48 @@
       <c r="G55" s="4">
         <v>182174</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <v>8269</v>
       </c>
-      <c r="I55" s="4">
+      <c r="K55" s="4">
         <v>8237</v>
       </c>
-      <c r="J55" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4">
         <v>5557</v>
       </c>
-      <c r="K55" s="4">
+      <c r="O55" s="4">
         <v>4634</v>
       </c>
-      <c r="L55" s="4">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4">
         <v>1514770</v>
       </c>
-      <c r="M55" s="4">
+      <c r="S55" s="4">
         <v>1429723</v>
       </c>
-      <c r="N55" s="4">
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4">
         <v>81916</v>
       </c>
-      <c r="O55" s="4">
+      <c r="W55" s="4">
         <v>78329</v>
       </c>
-      <c r="P55" s="4">
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4">
         <v>45931</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="AA55" s="4">
         <v>42104</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -7497,38 +8106,48 @@
       <c r="G56" s="4">
         <v>1130689</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
         <v>41901</v>
       </c>
-      <c r="I56" s="4">
+      <c r="K56" s="4">
         <v>40001</v>
       </c>
-      <c r="J56" s="4">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4">
         <v>30391</v>
       </c>
-      <c r="K56" s="4">
+      <c r="O56" s="4">
         <v>22682</v>
       </c>
-      <c r="L56" s="4">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4">
         <v>6333463</v>
       </c>
-      <c r="M56" s="4">
+      <c r="S56" s="4">
         <v>5894511</v>
       </c>
-      <c r="N56" s="4">
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4">
         <v>298856</v>
       </c>
-      <c r="O56" s="4">
+      <c r="W56" s="4">
         <v>285714</v>
       </c>
-      <c r="P56" s="4">
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4">
         <v>167824</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="AA56" s="4">
         <v>149627</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -7547,38 +8166,48 @@
       <c r="G57" s="4">
         <v>167764</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
         <v>4155</v>
       </c>
-      <c r="I57" s="4">
+      <c r="K57" s="4">
         <v>3593</v>
       </c>
-      <c r="J57" s="4">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4">
         <v>2448</v>
       </c>
-      <c r="K57" s="4">
+      <c r="O57" s="4">
         <v>2108</v>
       </c>
-      <c r="L57" s="4">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4">
         <v>773760</v>
       </c>
-      <c r="M57" s="4">
+      <c r="S57" s="4">
         <v>783522</v>
       </c>
-      <c r="N57" s="4">
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4">
         <v>28478</v>
       </c>
-      <c r="O57" s="4">
+      <c r="W57" s="4">
         <v>27080</v>
       </c>
-      <c r="P57" s="4">
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4">
         <v>14772</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="AA57" s="4">
         <v>13084</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -7597,38 +8226,48 @@
       <c r="G58" s="4">
         <v>88956</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4">
         <v>2265</v>
       </c>
-      <c r="I58" s="4">
+      <c r="K58" s="4">
         <v>2027</v>
       </c>
-      <c r="J58" s="4">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4">
         <v>1472</v>
       </c>
-      <c r="K58" s="4">
+      <c r="O58" s="4">
         <v>1356</v>
       </c>
-      <c r="L58" s="4">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4">
         <v>940408</v>
       </c>
-      <c r="M58" s="4">
+      <c r="S58" s="4">
         <v>909281</v>
       </c>
-      <c r="N58" s="4">
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4">
         <v>44917</v>
       </c>
-      <c r="O58" s="4">
+      <c r="W58" s="4">
         <v>42601</v>
       </c>
-      <c r="P58" s="4">
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4">
         <v>25056</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="AA58" s="4">
         <v>22551</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -7647,38 +8286,48 @@
       <c r="G59" s="4">
         <v>126810</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
         <v>2984</v>
       </c>
-      <c r="I59" s="4">
+      <c r="K59" s="4">
         <v>2534</v>
       </c>
-      <c r="J59" s="4">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4">
         <v>1623</v>
       </c>
-      <c r="K59" s="4">
+      <c r="O59" s="4">
         <v>1373</v>
       </c>
-      <c r="L59" s="4">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4">
         <v>1022462</v>
       </c>
-      <c r="M59" s="4">
+      <c r="S59" s="4">
         <v>1012440</v>
       </c>
-      <c r="N59" s="4">
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4">
         <v>41379</v>
       </c>
-      <c r="O59" s="4">
+      <c r="W59" s="4">
         <v>38951</v>
       </c>
-      <c r="P59" s="4">
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4">
         <v>19625</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="AA59" s="4">
         <v>17889</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -7697,38 +8346,48 @@
       <c r="G60" s="4">
         <v>126224</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4">
         <v>4621</v>
       </c>
-      <c r="I60" s="4">
+      <c r="K60" s="4">
         <v>3874</v>
       </c>
-      <c r="J60" s="4">
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4">
         <v>2553</v>
       </c>
-      <c r="K60" s="4">
+      <c r="O60" s="4">
         <v>2124</v>
       </c>
-      <c r="L60" s="4">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4">
         <v>1312598</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="N60" s="4">
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4">
         <v>51733</v>
       </c>
-      <c r="O60" s="4">
+      <c r="W60" s="4">
         <v>46151</v>
       </c>
-      <c r="P60" s="4">
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4">
         <v>25626</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="AA60" s="4">
         <v>22239</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -7747,38 +8406,48 @@
       <c r="G61" s="4">
         <v>509754</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4">
         <v>14025</v>
       </c>
-      <c r="I61" s="4">
+      <c r="K61" s="4">
         <v>12028</v>
       </c>
-      <c r="J61" s="4">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4">
         <v>8096</v>
       </c>
-      <c r="K61" s="4">
+      <c r="O61" s="4">
         <v>6961</v>
       </c>
-      <c r="L61" s="4">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4">
         <v>4049228</v>
       </c>
-      <c r="M61" s="4">
+      <c r="S61" s="4">
         <v>4015437</v>
       </c>
-      <c r="N61" s="4">
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4">
         <v>166507</v>
       </c>
-      <c r="O61" s="4">
+      <c r="W61" s="4">
         <v>156786</v>
       </c>
-      <c r="P61" s="4">
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4">
         <v>85979</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="AA61" s="4">
         <v>75763</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -7797,38 +8466,48 @@
       <c r="G62" s="4">
         <v>138036</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4">
         <v>3480</v>
       </c>
-      <c r="I62" s="4">
+      <c r="K62" s="4">
         <v>2820</v>
       </c>
-      <c r="J62" s="4">
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
         <v>2157</v>
       </c>
-      <c r="K62" s="4">
+      <c r="O62" s="4">
         <v>1724</v>
       </c>
-      <c r="L62" s="4">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4">
         <v>794630</v>
       </c>
-      <c r="M62" s="4">
+      <c r="S62" s="4">
         <v>785088</v>
       </c>
-      <c r="N62" s="4">
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4">
         <v>28305</v>
       </c>
-      <c r="O62" s="4">
+      <c r="W62" s="4">
         <v>27176</v>
       </c>
-      <c r="P62" s="4">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4">
         <v>17112</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="AA62" s="4">
         <v>16023</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -7847,38 +8526,48 @@
       <c r="G63" s="4">
         <v>137323</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
         <v>4148</v>
       </c>
-      <c r="I63" s="4">
+      <c r="K63" s="4">
         <v>3536</v>
       </c>
-      <c r="J63" s="4">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4">
         <v>2719</v>
       </c>
-      <c r="K63" s="4">
+      <c r="O63" s="4">
         <v>2365</v>
       </c>
-      <c r="L63" s="4">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4">
         <v>819569</v>
       </c>
-      <c r="M63" s="4">
+      <c r="S63" s="4">
         <v>834605</v>
       </c>
-      <c r="N63" s="4">
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4">
         <v>26735</v>
       </c>
-      <c r="O63" s="4">
+      <c r="W63" s="4">
         <v>24786</v>
       </c>
-      <c r="P63" s="4">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4">
         <v>15816</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="AA63" s="4">
         <v>14298</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -7897,38 +8586,48 @@
       <c r="G64" s="4">
         <v>71912</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
         <v>2120</v>
       </c>
-      <c r="I64" s="4">
+      <c r="K64" s="4">
         <v>1798</v>
       </c>
-      <c r="J64" s="4">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4">
         <v>1487</v>
       </c>
-      <c r="K64" s="4">
+      <c r="O64" s="4">
         <v>1284</v>
       </c>
-      <c r="L64" s="4">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4">
         <v>786149</v>
       </c>
-      <c r="M64" s="4">
+      <c r="S64" s="4">
         <v>815257</v>
       </c>
-      <c r="N64" s="4">
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4">
         <v>22377</v>
       </c>
-      <c r="O64" s="4">
+      <c r="W64" s="4">
         <v>21344</v>
       </c>
-      <c r="P64" s="4">
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4">
         <v>15822</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="AA64" s="4">
         <v>15088</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -7947,38 +8646,48 @@
       <c r="G65" s="4">
         <v>347271</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
         <v>9748</v>
       </c>
-      <c r="I65" s="4">
+      <c r="K65" s="4">
         <v>8154</v>
       </c>
-      <c r="J65" s="4">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
         <v>6363</v>
       </c>
-      <c r="K65" s="4">
+      <c r="O65" s="4">
         <v>5373</v>
       </c>
-      <c r="L65" s="4">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4">
         <v>2400339</v>
       </c>
-      <c r="M65" s="4">
+      <c r="S65" s="4">
         <v>2434950</v>
       </c>
-      <c r="N65" s="4">
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4">
         <v>77417</v>
       </c>
-      <c r="O65" s="4">
+      <c r="W65" s="4">
         <v>73300</v>
       </c>
-      <c r="P65" s="4">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4">
         <v>48750</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="AA65" s="4">
         <v>45409</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -7997,38 +8706,48 @@
       <c r="G66" s="4">
         <v>94500</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
         <v>2634</v>
       </c>
-      <c r="I66" s="4">
+      <c r="K66" s="4">
         <v>2593</v>
       </c>
-      <c r="J66" s="4">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
         <v>1792</v>
       </c>
-      <c r="K66" s="4">
+      <c r="O66" s="4">
         <v>1391</v>
       </c>
-      <c r="L66" s="4">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4">
         <v>279035</v>
       </c>
-      <c r="M66" s="4">
+      <c r="S66" s="4">
         <v>303068</v>
       </c>
-      <c r="N66" s="4">
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4">
         <v>7860</v>
       </c>
-      <c r="O66" s="4">
+      <c r="W66" s="4">
         <v>6373</v>
       </c>
-      <c r="P66" s="4">
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4">
         <v>5298</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="AA66" s="4">
         <v>4397</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -8047,38 +8766,48 @@
       <c r="G67" s="4">
         <v>221801</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
         <v>6407</v>
       </c>
-      <c r="I67" s="4">
+      <c r="K67" s="4">
         <v>6201</v>
       </c>
-      <c r="J67" s="4">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
         <v>5505</v>
       </c>
-      <c r="K67" s="4">
+      <c r="O67" s="4">
         <v>4762</v>
       </c>
-      <c r="L67" s="4">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4">
         <v>488423</v>
       </c>
-      <c r="M67" s="4">
+      <c r="S67" s="4">
         <v>522209</v>
       </c>
-      <c r="N67" s="4">
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4">
         <v>9984</v>
       </c>
-      <c r="O67" s="4">
+      <c r="W67" s="4">
         <v>9333</v>
       </c>
-      <c r="P67" s="4">
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4">
         <v>7902</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="AA67" s="4">
         <v>7362</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -8097,38 +8826,48 @@
       <c r="G68" s="4">
         <v>42260</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
         <v>1435</v>
       </c>
-      <c r="I68" s="4">
+      <c r="K68" s="4">
         <v>1336</v>
       </c>
-      <c r="J68" s="4">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
         <v>1358</v>
       </c>
-      <c r="K68" s="4">
+      <c r="O68" s="4">
         <v>1088</v>
       </c>
-      <c r="L68" s="4">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4">
         <v>188747</v>
       </c>
-      <c r="M68" s="4">
+      <c r="S68" s="4">
         <v>197121</v>
       </c>
-      <c r="N68" s="4">
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4">
         <v>4605</v>
       </c>
-      <c r="O68" s="4">
+      <c r="W68" s="4">
         <v>4373</v>
       </c>
-      <c r="P68" s="4">
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4">
         <v>3412</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="AA68" s="4">
         <v>3118</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -8147,38 +8886,48 @@
       <c r="G69" s="4">
         <v>358561</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
         <v>10376</v>
       </c>
-      <c r="I69" s="4">
+      <c r="K69" s="4">
         <v>10130</v>
       </c>
-      <c r="J69" s="4">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>8655</v>
       </c>
-      <c r="K69" s="4">
+      <c r="O69" s="4">
         <v>7241</v>
       </c>
-      <c r="L69" s="4">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4">
         <v>956205</v>
       </c>
-      <c r="M69" s="4">
+      <c r="S69" s="4">
         <v>1022398</v>
       </c>
-      <c r="N69" s="4">
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4">
         <v>22449</v>
       </c>
-      <c r="O69" s="4">
+      <c r="W69" s="4">
         <v>20079</v>
       </c>
-      <c r="P69" s="4">
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4">
         <v>16612</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="AA69" s="4">
         <v>14877</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -8197,38 +8946,48 @@
       <c r="G70" s="4">
         <v>7771946</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
         <v>283209</v>
       </c>
-      <c r="I70" s="4">
+      <c r="K70" s="4">
         <v>267181</v>
       </c>
-      <c r="J70" s="4">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4">
         <v>215298</v>
       </c>
-      <c r="K70" s="4">
+      <c r="O70" s="4">
         <v>176161</v>
       </c>
-      <c r="L70" s="4">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4">
         <v>52301204</v>
       </c>
-      <c r="M70" s="4">
+      <c r="S70" s="4">
         <v>53135931</v>
       </c>
-      <c r="N70" s="4">
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4">
         <v>2432569</v>
       </c>
-      <c r="O70" s="4">
+      <c r="W70" s="4">
         <v>2316927</v>
       </c>
-      <c r="P70" s="4">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4">
         <v>1472150</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="AA70" s="4">
         <v>1360711</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -8247,38 +9006,48 @@
       <c r="G71" s="4">
         <v>73848</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
         <v>2538</v>
       </c>
-      <c r="I71" s="4">
+      <c r="K71" s="4">
         <v>2385</v>
       </c>
-      <c r="J71" s="4">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
         <v>1642</v>
       </c>
-      <c r="K71" s="4">
+      <c r="O71" s="4">
         <v>1514</v>
       </c>
-      <c r="L71" s="4">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4">
         <v>835108</v>
       </c>
-      <c r="M71" s="4">
+      <c r="S71" s="4">
         <v>861982</v>
       </c>
-      <c r="N71" s="4">
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4">
         <v>27262</v>
       </c>
-      <c r="O71" s="4">
+      <c r="W71" s="4">
         <v>26311</v>
       </c>
-      <c r="P71" s="4">
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4">
         <v>15582</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="AA71" s="4">
         <v>15521</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -8297,38 +9066,48 @@
       <c r="G72" s="4">
         <v>415322</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
         <v>11697</v>
       </c>
-      <c r="I72" s="4">
+      <c r="K72" s="4">
         <v>10232</v>
       </c>
-      <c r="J72" s="4">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
         <v>8798</v>
       </c>
-      <c r="K72" s="4">
+      <c r="O72" s="4">
         <v>7950</v>
       </c>
-      <c r="L72" s="4">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
-      <c r="N72" s="4">
-        <v>0</v>
-      </c>
-      <c r="O72" s="4">
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4">
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4">
+        <v>0</v>
+      </c>
+      <c r="W72" s="4">
+        <v>0</v>
+      </c>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8347,38 +9126,48 @@
       <c r="G73" s="4">
         <v>65652</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
         <v>1970</v>
       </c>
-      <c r="I73" s="4">
+      <c r="K73" s="4">
         <v>1837</v>
       </c>
-      <c r="J73" s="4">
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4">
         <v>1193</v>
       </c>
-      <c r="K73" s="4">
+      <c r="O73" s="4">
         <v>1021</v>
       </c>
-      <c r="L73" s="4">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4">
         <v>598392</v>
       </c>
-      <c r="M73" s="4">
+      <c r="S73" s="4">
         <v>622371</v>
       </c>
-      <c r="N73" s="4">
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4">
         <v>21083</v>
       </c>
-      <c r="O73" s="4">
+      <c r="W73" s="4">
         <v>21808</v>
       </c>
-      <c r="P73" s="4">
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4">
         <v>11689</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="AA73" s="4">
         <v>12243</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8397,38 +9186,48 @@
       <c r="G74" s="4">
         <v>40855</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4">
         <v>1395</v>
       </c>
-      <c r="I74" s="4">
+      <c r="K74" s="4">
         <v>1306</v>
       </c>
-      <c r="J74" s="4">
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4">
         <v>735</v>
       </c>
-      <c r="K74" s="4">
+      <c r="O74" s="4">
         <v>619</v>
       </c>
-      <c r="L74" s="4">
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4">
         <v>447181</v>
       </c>
-      <c r="M74" s="4">
+      <c r="S74" s="4">
         <v>476978</v>
       </c>
-      <c r="N74" s="4">
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4">
         <v>15821</v>
       </c>
-      <c r="O74" s="4">
+      <c r="W74" s="4">
         <v>14988</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Q74" s="4">
+      <c r="AA74" s="4">
         <v>8379</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -8447,38 +9246,48 @@
       <c r="G75" s="4">
         <v>40237</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4">
         <v>826</v>
       </c>
-      <c r="I75" s="4">
+      <c r="K75" s="4">
         <v>805</v>
       </c>
-      <c r="J75" s="4">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4">
         <v>633</v>
       </c>
-      <c r="K75" s="4">
+      <c r="O75" s="4">
         <v>594</v>
       </c>
-      <c r="L75" s="4">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4">
         <v>317236</v>
       </c>
-      <c r="M75" s="4">
+      <c r="S75" s="4">
         <v>319618</v>
       </c>
-      <c r="N75" s="4">
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4">
         <v>9281</v>
       </c>
-      <c r="O75" s="4">
+      <c r="W75" s="4">
         <v>8931</v>
       </c>
-      <c r="P75" s="4">
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4">
         <v>5563</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="AA75" s="4">
         <v>5279</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -8497,38 +9306,48 @@
       <c r="G76" s="4">
         <v>89607</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4">
         <v>2518</v>
       </c>
-      <c r="I76" s="4">
+      <c r="K76" s="4">
         <v>2109</v>
       </c>
-      <c r="J76" s="4">
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4">
         <v>1764</v>
       </c>
-      <c r="K76" s="4">
+      <c r="O76" s="4">
         <v>1424</v>
       </c>
-      <c r="L76" s="4">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4">
         <v>719785</v>
       </c>
-      <c r="M76" s="4">
+      <c r="S76" s="4">
         <v>724351</v>
       </c>
-      <c r="N76" s="4">
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4">
         <v>23484</v>
       </c>
-      <c r="O76" s="4">
+      <c r="W76" s="4">
         <v>22357</v>
       </c>
-      <c r="P76" s="4">
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4">
         <v>12827</v>
       </c>
-      <c r="Q76" s="4">
+      <c r="AA76" s="4">
         <v>12267</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -8547,38 +9366,48 @@
       <c r="G77" s="4">
         <v>350667</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4">
         <v>19657</v>
       </c>
-      <c r="I77" s="4">
+      <c r="K77" s="4">
         <v>20121</v>
       </c>
-      <c r="J77" s="4">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4">
         <v>9997</v>
       </c>
-      <c r="K77" s="4">
+      <c r="O77" s="4">
         <v>9397</v>
       </c>
-      <c r="L77" s="4">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4">
         <v>768246</v>
       </c>
-      <c r="M77" s="4">
+      <c r="S77" s="4">
         <v>772848</v>
       </c>
-      <c r="N77" s="4">
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4">
         <v>34716</v>
       </c>
-      <c r="O77" s="4">
+      <c r="W77" s="4">
         <v>35395</v>
       </c>
-      <c r="P77" s="4">
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4">
         <v>15317</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="AA77" s="4">
         <v>15497</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -8597,38 +9426,48 @@
       <c r="G78" s="4">
         <v>46791</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4">
         <v>1206</v>
       </c>
-      <c r="I78" s="4">
+      <c r="K78" s="4">
         <v>1129</v>
       </c>
-      <c r="J78" s="4">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4">
         <v>933</v>
       </c>
-      <c r="K78" s="4">
+      <c r="O78" s="4">
         <v>897</v>
       </c>
-      <c r="L78" s="4">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4">
         <v>339733</v>
       </c>
-      <c r="M78" s="4">
+      <c r="S78" s="4">
         <v>338070</v>
       </c>
-      <c r="N78" s="4">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4">
         <v>10312</v>
       </c>
-      <c r="O78" s="4">
+      <c r="W78" s="4">
         <v>10244</v>
       </c>
-      <c r="P78" s="4">
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4">
         <v>6522</v>
       </c>
-      <c r="Q78" s="4">
+      <c r="AA78" s="4">
         <v>7468</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -8647,38 +9486,48 @@
       <c r="G79" s="4">
         <v>48998</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4">
         <v>2002</v>
       </c>
-      <c r="I79" s="4">
+      <c r="K79" s="4">
         <v>1968</v>
       </c>
-      <c r="J79" s="4">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4">
         <v>1432</v>
       </c>
-      <c r="K79" s="4">
+      <c r="O79" s="4">
         <v>1075</v>
       </c>
-      <c r="L79" s="4">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4">
         <v>576365</v>
       </c>
-      <c r="M79" s="4">
+      <c r="S79" s="4">
         <v>570028</v>
       </c>
-      <c r="N79" s="4">
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4">
         <v>19047</v>
       </c>
-      <c r="O79" s="4">
+      <c r="W79" s="4">
         <v>18109</v>
       </c>
-      <c r="P79" s="4">
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4">
         <v>11334</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="AA79" s="4">
         <v>10814</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -8697,38 +9546,48 @@
       <c r="G80" s="4">
         <v>36006</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4">
         <v>743</v>
       </c>
-      <c r="I80" s="4">
+      <c r="K80" s="4">
         <v>682</v>
       </c>
-      <c r="J80" s="4">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4">
         <v>484</v>
       </c>
-      <c r="K80" s="4">
+      <c r="O80" s="4">
         <v>364</v>
       </c>
-      <c r="L80" s="4">
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4">
         <v>283745</v>
       </c>
-      <c r="M80" s="4">
+      <c r="S80" s="4">
         <v>301552</v>
       </c>
-      <c r="N80" s="4">
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4">
         <v>6654</v>
       </c>
-      <c r="O80" s="4">
+      <c r="W80" s="4">
         <v>6403</v>
       </c>
-      <c r="P80" s="4">
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4">
         <v>4520</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="AA80" s="4">
         <v>4249</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -8747,38 +9606,48 @@
       <c r="G81" s="4">
         <v>52653</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
         <v>1404</v>
       </c>
-      <c r="I81" s="4">
+      <c r="K81" s="4">
         <v>1195</v>
       </c>
-      <c r="J81" s="4">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4">
         <v>805</v>
       </c>
-      <c r="K81" s="4">
+      <c r="O81" s="4">
         <v>631</v>
       </c>
-      <c r="L81" s="4">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4">
         <v>470311</v>
       </c>
-      <c r="M81" s="4">
+      <c r="S81" s="4">
         <v>470083</v>
       </c>
-      <c r="N81" s="4">
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4">
         <v>14128</v>
       </c>
-      <c r="O81" s="4">
+      <c r="W81" s="4">
         <v>13133</v>
       </c>
-      <c r="P81" s="4">
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4">
         <v>8284</v>
       </c>
-      <c r="Q81" s="4">
+      <c r="AA81" s="4">
         <v>7842</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -8797,38 +9666,48 @@
       <c r="G82" s="4">
         <v>1260636</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
         <v>45956</v>
       </c>
-      <c r="I82" s="4">
+      <c r="K82" s="4">
         <v>43769</v>
       </c>
-      <c r="J82" s="4">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4">
         <v>28416</v>
       </c>
-      <c r="K82" s="4">
+      <c r="O82" s="4">
         <v>25506</v>
       </c>
-      <c r="L82" s="4">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4">
         <v>5356102</v>
       </c>
-      <c r="M82" s="4">
+      <c r="S82" s="4">
         <v>5457881</v>
       </c>
-      <c r="N82" s="4">
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4">
         <v>181783</v>
       </c>
-      <c r="O82" s="4">
+      <c r="W82" s="4">
         <v>177679</v>
       </c>
-      <c r="P82" s="4">
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4">
         <v>100556</v>
       </c>
-      <c r="Q82" s="4">
+      <c r="AA82" s="4">
         <v>99559</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -8847,38 +9726,48 @@
       <c r="G83" s="4">
         <v>9032582</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
         <v>329165</v>
       </c>
-      <c r="I83" s="4">
+      <c r="K83" s="4">
         <v>310950</v>
       </c>
-      <c r="J83" s="4">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4">
         <v>243714</v>
       </c>
-      <c r="K83" s="4">
+      <c r="O83" s="4">
         <v>201667</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="M83" s="4">
+      <c r="S83" s="4">
         <v>58593812</v>
       </c>
-      <c r="N83" s="4">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4">
         <v>2614357</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="W83" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="P83" s="4">
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4">
         <v>1572706</v>
       </c>
-      <c r="Q83" s="4">
+      <c r="AA83" s="4">
         <v>1460270</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -8897,38 +9786,48 @@
       <c r="G84" s="4">
         <v>41992</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4">
         <v>982</v>
       </c>
-      <c r="I84" s="4">
+      <c r="K84" s="4">
         <v>741</v>
       </c>
-      <c r="J84" s="4">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4">
         <v>580</v>
       </c>
-      <c r="K84" s="4">
+      <c r="O84" s="4">
         <v>390</v>
       </c>
-      <c r="L84" s="4">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4">
         <v>379142</v>
       </c>
-      <c r="M84" s="4">
+      <c r="S84" s="4">
         <v>322771</v>
       </c>
-      <c r="N84" s="4">
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4">
         <v>10748</v>
       </c>
-      <c r="O84" s="4">
+      <c r="W84" s="4">
         <v>9335</v>
       </c>
-      <c r="P84" s="4">
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4">
         <v>7496</v>
       </c>
-      <c r="Q84" s="4">
+      <c r="AA84" s="4">
         <v>6704</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -8947,38 +9846,48 @@
       <c r="G85" s="4">
         <v>139395</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
         <v>5165</v>
       </c>
-      <c r="I85" s="4">
+      <c r="K85" s="4">
         <v>4149</v>
       </c>
-      <c r="J85" s="4">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4">
         <v>3545</v>
       </c>
-      <c r="K85" s="4">
+      <c r="O85" s="4">
         <v>2294</v>
       </c>
-      <c r="L85" s="4">
-        <v>0</v>
-      </c>
-      <c r="M85" s="4">
-        <v>0</v>
-      </c>
-      <c r="N85" s="4">
-        <v>0</v>
-      </c>
-      <c r="O85" s="4">
-        <v>0</v>
-      </c>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4">
+        <v>0</v>
+      </c>
+      <c r="S85" s="4">
+        <v>0</v>
+      </c>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4">
+        <v>0</v>
+      </c>
+      <c r="W85" s="4">
+        <v>0</v>
+      </c>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -8997,38 +9906,48 @@
       <c r="G86" s="4">
         <v>17044</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4">
         <v>354</v>
       </c>
-      <c r="I86" s="4">
+      <c r="K86" s="4">
         <v>358</v>
       </c>
-      <c r="J86" s="4">
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4">
         <v>406</v>
       </c>
-      <c r="K86" s="4">
+      <c r="O86" s="4">
         <v>203</v>
       </c>
-      <c r="L86" s="4">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4">
         <v>68796</v>
       </c>
-      <c r="M86" s="4">
+      <c r="S86" s="4">
         <v>59346</v>
       </c>
-      <c r="N86" s="4">
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4">
         <v>1611</v>
       </c>
-      <c r="O86" s="4">
+      <c r="W86" s="4">
         <v>1498</v>
       </c>
-      <c r="P86" s="4">
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4">
         <v>1057</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="AA86" s="4">
         <v>969</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -9047,38 +9966,48 @@
       <c r="G87" s="4">
         <v>23200</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4">
         <v>932</v>
       </c>
-      <c r="I87" s="4">
+      <c r="K87" s="4">
         <v>580</v>
       </c>
-      <c r="J87" s="4">
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4">
         <v>684</v>
       </c>
-      <c r="K87" s="4">
+      <c r="O87" s="4">
         <v>417</v>
       </c>
-      <c r="L87" s="4">
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4">
         <v>319864</v>
       </c>
-      <c r="M87" s="4">
+      <c r="S87" s="4">
         <v>299495</v>
       </c>
-      <c r="N87" s="4">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4">
         <v>7900</v>
       </c>
-      <c r="O87" s="4">
+      <c r="W87" s="4">
         <v>6884</v>
       </c>
-      <c r="P87" s="4">
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4">
         <v>4913</v>
       </c>
-      <c r="Q87" s="4">
+      <c r="AA87" s="4">
         <v>4211</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -9097,38 +10026,48 @@
       <c r="G88" s="4">
         <v>71752</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4">
         <v>1140</v>
       </c>
-      <c r="I88" s="4">
+      <c r="K88" s="4">
         <v>1054</v>
       </c>
-      <c r="J88" s="4">
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4">
         <v>829</v>
       </c>
-      <c r="K88" s="4">
+      <c r="O88" s="4">
         <v>671</v>
       </c>
-      <c r="L88" s="4">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4">
         <v>560639</v>
       </c>
-      <c r="M88" s="4">
+      <c r="S88" s="4">
         <v>521548</v>
       </c>
-      <c r="N88" s="4">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4">
         <v>12640</v>
       </c>
-      <c r="O88" s="4">
+      <c r="W88" s="4">
         <v>10620</v>
       </c>
-      <c r="P88" s="4">
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4">
         <v>8171</v>
       </c>
-      <c r="Q88" s="4">
+      <c r="AA88" s="4">
         <v>6899</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -9147,38 +10086,48 @@
       <c r="G89" s="4">
         <v>20100</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4">
         <v>751</v>
       </c>
-      <c r="I89" s="4">
+      <c r="K89" s="4">
         <v>723</v>
       </c>
-      <c r="J89" s="4">
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4">
         <v>336</v>
       </c>
-      <c r="K89" s="4">
+      <c r="O89" s="4">
         <v>302</v>
       </c>
-      <c r="L89" s="4">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4">
         <v>178700</v>
       </c>
-      <c r="M89" s="4">
+      <c r="S89" s="4">
         <v>154600</v>
       </c>
-      <c r="N89" s="4">
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4">
         <v>6250</v>
       </c>
-      <c r="O89" s="4">
+      <c r="W89" s="4">
         <v>5627</v>
       </c>
-      <c r="P89" s="4">
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4">
         <v>3018</v>
       </c>
-      <c r="Q89" s="4">
+      <c r="AA89" s="4">
         <v>2640</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -9197,38 +10146,48 @@
       <c r="G90" s="4">
         <v>115348</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4">
         <v>5040</v>
       </c>
-      <c r="I90" s="4">
+      <c r="K90" s="4">
         <v>4816</v>
       </c>
-      <c r="J90" s="4">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4">
         <v>3894</v>
       </c>
-      <c r="K90" s="4">
+      <c r="O90" s="4">
         <v>3493</v>
       </c>
-      <c r="L90" s="4">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4">
         <v>1319687</v>
       </c>
-      <c r="M90" s="4">
+      <c r="S90" s="4">
         <v>1280875</v>
       </c>
-      <c r="N90" s="4">
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4">
         <v>72959</v>
       </c>
-      <c r="O90" s="4">
+      <c r="W90" s="4">
         <v>64151</v>
       </c>
-      <c r="P90" s="4">
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4">
         <v>38672</v>
       </c>
-      <c r="Q90" s="4">
+      <c r="AA90" s="4">
         <v>37283</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -9247,38 +10206,48 @@
       <c r="G91" s="4">
         <v>41114</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4">
         <v>1205</v>
       </c>
-      <c r="I91" s="4">
+      <c r="K91" s="4">
         <v>1077</v>
       </c>
-      <c r="J91" s="4">
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4">
         <v>917</v>
       </c>
-      <c r="K91" s="4">
+      <c r="O91" s="4">
         <v>657</v>
       </c>
-      <c r="L91" s="4">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4">
         <v>538478</v>
       </c>
-      <c r="M91" s="4">
+      <c r="S91" s="4">
         <v>475628</v>
       </c>
-      <c r="N91" s="4">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4">
         <v>14379</v>
       </c>
-      <c r="O91" s="4">
+      <c r="W91" s="4">
         <v>13278</v>
       </c>
-      <c r="P91" s="4">
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4">
         <v>7407</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="AA91" s="4">
         <v>6637</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -9297,38 +10266,48 @@
       <c r="G92" s="4">
         <v>36396</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4">
         <v>1291</v>
       </c>
-      <c r="I92" s="4">
+      <c r="K92" s="4">
         <v>1163</v>
       </c>
-      <c r="J92" s="4">
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4">
         <v>896</v>
       </c>
-      <c r="K92" s="4">
+      <c r="O92" s="4">
         <v>716</v>
       </c>
-      <c r="L92" s="4">
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4">
         <v>589167</v>
       </c>
-      <c r="M92" s="4">
+      <c r="S92" s="4">
         <v>564629</v>
       </c>
-      <c r="N92" s="4">
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4">
         <v>33927</v>
       </c>
-      <c r="O92" s="4">
+      <c r="W92" s="4">
         <v>32165</v>
       </c>
-      <c r="P92" s="4">
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4">
         <v>18202</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="AA92" s="4">
         <v>16106</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -9347,38 +10326,48 @@
       <c r="G93" s="4">
         <v>82150</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4">
         <v>3724</v>
       </c>
-      <c r="I93" s="4">
+      <c r="K93" s="4">
         <v>3668</v>
       </c>
-      <c r="J93" s="4">
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4">
         <v>2492</v>
       </c>
-      <c r="K93" s="4">
+      <c r="O93" s="4">
         <v>2083</v>
       </c>
-      <c r="L93" s="4">
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4">
         <v>519245</v>
       </c>
-      <c r="M93" s="4">
+      <c r="S93" s="4">
         <v>478203</v>
       </c>
-      <c r="N93" s="4">
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4">
         <v>21649</v>
       </c>
-      <c r="O93" s="4">
+      <c r="W93" s="4">
         <v>19903</v>
       </c>
-      <c r="P93" s="4">
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4">
         <v>12819</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="AA93" s="4">
         <v>11872</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -9397,38 +10386,48 @@
       <c r="G94" s="4">
         <v>187598</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4">
         <v>3170</v>
       </c>
-      <c r="I94" s="4">
+      <c r="K94" s="4">
         <v>2925</v>
       </c>
-      <c r="J94" s="4">
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4">
         <v>2480</v>
       </c>
-      <c r="K94" s="4">
+      <c r="O94" s="4">
         <v>1894</v>
       </c>
-      <c r="L94" s="4">
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4">
         <v>534201</v>
       </c>
-      <c r="M94" s="4">
+      <c r="S94" s="4">
         <v>457897</v>
       </c>
-      <c r="N94" s="4">
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4">
         <v>19654</v>
       </c>
-      <c r="O94" s="4">
+      <c r="W94" s="4">
         <v>16927</v>
       </c>
-      <c r="P94" s="4">
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4">
         <v>12346</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="AA94" s="4">
         <v>10804</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -9447,38 +10446,48 @@
       <c r="G95" s="4">
         <v>31519</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4">
         <v>1211</v>
       </c>
-      <c r="I95" s="4">
+      <c r="K95" s="4">
         <v>1128</v>
       </c>
-      <c r="J95" s="4">
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4">
         <v>1013</v>
       </c>
-      <c r="K95" s="4">
+      <c r="O95" s="4">
         <v>543</v>
       </c>
-      <c r="L95" s="4">
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4">
         <v>39057</v>
       </c>
-      <c r="M95" s="4">
+      <c r="S95" s="4">
         <v>29839</v>
       </c>
-      <c r="N95" s="4">
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4">
         <v>1440</v>
       </c>
-      <c r="O95" s="4">
+      <c r="W95" s="4">
         <v>1240</v>
       </c>
-      <c r="P95" s="4">
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4">
         <v>595</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="AA95" s="4">
         <v>458</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -9497,38 +10506,48 @@
       <c r="G96" s="4">
         <v>38569</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4">
         <v>1323</v>
       </c>
-      <c r="I96" s="4">
+      <c r="K96" s="4">
         <v>1205</v>
       </c>
-      <c r="J96" s="4">
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4">
         <v>956</v>
       </c>
-      <c r="K96" s="4">
+      <c r="O96" s="4">
         <v>740</v>
       </c>
-      <c r="L96" s="4">
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4">
         <v>431992</v>
       </c>
-      <c r="M96" s="4">
+      <c r="S96" s="4">
         <v>381985</v>
       </c>
-      <c r="N96" s="4">
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4">
         <v>16865</v>
       </c>
-      <c r="O96" s="4">
+      <c r="W96" s="4">
         <v>14505</v>
       </c>
-      <c r="P96" s="4">
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4">
         <v>10058</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="AA96" s="4">
         <v>8870</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -9547,38 +10566,48 @@
       <c r="G97" s="4">
         <v>646177</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4">
         <v>26288</v>
       </c>
-      <c r="I97" s="4">
+      <c r="K97" s="4">
         <v>23587</v>
       </c>
-      <c r="J97" s="4">
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4">
         <v>19028</v>
       </c>
-      <c r="K97" s="4">
+      <c r="O97" s="4">
         <v>14403</v>
       </c>
-      <c r="L97" s="4">
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4">
         <v>5478968</v>
       </c>
-      <c r="M97" s="4">
+      <c r="S97" s="4">
         <v>5026816</v>
       </c>
-      <c r="N97" s="4">
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4">
         <v>220022</v>
       </c>
-      <c r="O97" s="4">
+      <c r="W97" s="4">
         <v>196133</v>
       </c>
-      <c r="P97" s="4">
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4">
         <v>124754</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="AA97" s="4">
         <v>113453</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -9597,38 +10626,48 @@
       <c r="G98" s="4">
         <v>29049</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4">
         <v>1438</v>
       </c>
-      <c r="I98" s="4">
+      <c r="K98" s="4">
         <v>1394</v>
       </c>
-      <c r="J98" s="4">
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4">
         <v>1002</v>
       </c>
-      <c r="K98" s="4">
+      <c r="O98" s="4">
         <v>729</v>
       </c>
-      <c r="L98" s="4">
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4">
         <v>116208</v>
       </c>
-      <c r="M98" s="4">
+      <c r="S98" s="4">
         <v>76969</v>
       </c>
-      <c r="N98" s="4">
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4">
         <v>5127</v>
       </c>
-      <c r="O98" s="4">
+      <c r="W98" s="4">
         <v>4496</v>
       </c>
-      <c r="P98" s="4">
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4">
         <v>2791</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="AA98" s="4">
         <v>2123</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -9647,38 +10686,48 @@
       <c r="G99" s="4">
         <v>55718</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4">
         <v>2387</v>
       </c>
-      <c r="I99" s="4">
+      <c r="K99" s="4">
         <v>2201</v>
       </c>
-      <c r="J99" s="4">
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4">
         <v>2021</v>
       </c>
-      <c r="K99" s="4">
+      <c r="O99" s="4">
         <v>1556</v>
       </c>
-      <c r="L99" s="4">
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4">
         <v>445303</v>
       </c>
-      <c r="M99" s="4">
+      <c r="S99" s="4">
         <v>397697</v>
       </c>
-      <c r="N99" s="4">
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4">
         <v>24268</v>
       </c>
-      <c r="O99" s="4">
+      <c r="W99" s="4">
         <v>23125</v>
       </c>
-      <c r="P99" s="4">
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4">
         <v>13366</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="AA99" s="4">
         <v>11230</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -9697,38 +10746,48 @@
       <c r="G100" s="4">
         <v>46718</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4">
         <v>2321</v>
       </c>
-      <c r="I100" s="4">
+      <c r="K100" s="4">
         <v>2115</v>
       </c>
-      <c r="J100" s="4">
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4">
         <v>1083</v>
       </c>
-      <c r="K100" s="4">
+      <c r="O100" s="4">
         <v>885</v>
       </c>
-      <c r="L100" s="4">
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4">
         <v>392442</v>
       </c>
-      <c r="M100" s="4">
+      <c r="S100" s="4">
         <v>379398</v>
       </c>
-      <c r="N100" s="4">
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4">
         <v>16634</v>
       </c>
-      <c r="O100" s="4">
+      <c r="W100" s="4">
         <v>14952</v>
       </c>
-      <c r="P100" s="4">
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4">
         <v>10139</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="AA100" s="4">
         <v>8752</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -9747,38 +10806,48 @@
       <c r="G101" s="4">
         <v>33626</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4">
         <v>3081</v>
       </c>
-      <c r="I101" s="4">
+      <c r="K101" s="4">
         <v>3324</v>
       </c>
-      <c r="J101" s="4">
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4">
         <v>2124</v>
       </c>
-      <c r="K101" s="4">
+      <c r="O101" s="4">
         <v>1957</v>
       </c>
-      <c r="L101" s="4">
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4">
         <v>320249</v>
       </c>
-      <c r="M101" s="4">
+      <c r="S101" s="4">
         <v>263822</v>
       </c>
-      <c r="N101" s="4">
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4">
         <v>14299</v>
       </c>
-      <c r="O101" s="4">
+      <c r="W101" s="4">
         <v>13616</v>
       </c>
-      <c r="P101" s="4">
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4">
         <v>9247</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="AA101" s="4">
         <v>7674</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -9797,38 +10866,48 @@
       <c r="G102" s="4">
         <v>839</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4">
         <v>74</v>
       </c>
-      <c r="I102" s="4">
+      <c r="K102" s="4">
         <v>71</v>
       </c>
-      <c r="J102" s="4">
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4">
         <v>52</v>
       </c>
-      <c r="K102" s="4">
+      <c r="O102" s="4">
         <v>37</v>
       </c>
-      <c r="L102" s="4">
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4">
         <v>16653</v>
       </c>
-      <c r="M102" s="4">
+      <c r="S102" s="4">
         <v>15850</v>
       </c>
-      <c r="N102" s="4">
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4">
         <v>250</v>
       </c>
-      <c r="O102" s="4">
+      <c r="W102" s="4">
         <v>238</v>
       </c>
-      <c r="P102" s="4">
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4">
         <v>196</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="AA102" s="4">
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -9847,38 +10926,48 @@
       <c r="G103" s="4">
         <v>56666</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4">
         <v>2728</v>
       </c>
-      <c r="I103" s="4">
+      <c r="K103" s="4">
         <v>2133</v>
       </c>
-      <c r="J103" s="4">
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4">
         <v>2156</v>
       </c>
-      <c r="K103" s="4">
+      <c r="O103" s="4">
         <v>1326</v>
       </c>
-      <c r="L103" s="4">
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4">
         <v>192580</v>
       </c>
-      <c r="M103" s="4">
+      <c r="S103" s="4">
         <v>160044</v>
       </c>
-      <c r="N103" s="4">
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4">
         <v>6370</v>
       </c>
-      <c r="O103" s="4">
+      <c r="W103" s="4">
         <v>5762</v>
       </c>
-      <c r="P103" s="4">
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4">
         <v>3137</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="AA103" s="4">
         <v>2642</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -9897,38 +10986,48 @@
       <c r="G104" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="4" t="s">
         <v>181</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L104" s="4">
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4">
         <v>5498</v>
       </c>
-      <c r="M104" s="4">
+      <c r="S104" s="4">
         <v>3107</v>
       </c>
-      <c r="N104" s="4">
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4">
         <v>96</v>
       </c>
-      <c r="O104" s="4">
+      <c r="W104" s="4">
         <v>105</v>
       </c>
-      <c r="P104" s="4">
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4">
         <v>58</v>
       </c>
-      <c r="Q104" s="4">
+      <c r="AA104" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -9947,38 +11046,48 @@
       <c r="G105" s="4">
         <v>66722</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4">
         <v>2918</v>
       </c>
-      <c r="I105" s="4">
+      <c r="K105" s="4">
         <v>2762</v>
       </c>
-      <c r="J105" s="4">
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4">
         <v>2671</v>
       </c>
-      <c r="K105" s="4">
+      <c r="O105" s="4">
         <v>2184</v>
       </c>
-      <c r="L105" s="4">
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4">
         <v>951034</v>
       </c>
-      <c r="M105" s="4">
+      <c r="S105" s="4">
         <v>945349</v>
       </c>
-      <c r="N105" s="4">
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4">
         <v>55102</v>
       </c>
-      <c r="O105" s="4">
+      <c r="W105" s="4">
         <v>52817</v>
       </c>
-      <c r="P105" s="4">
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4">
         <v>37382</v>
       </c>
-      <c r="Q105" s="4">
+      <c r="AA105" s="4">
         <v>34449</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -9997,38 +11106,48 @@
       <c r="G106" s="4">
         <v>144227</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4">
         <v>7080</v>
       </c>
-      <c r="I106" s="4">
+      <c r="K106" s="4">
         <v>6877</v>
       </c>
-      <c r="J106" s="4">
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4">
         <v>5445</v>
       </c>
-      <c r="K106" s="4">
+      <c r="O106" s="4">
         <v>4676</v>
       </c>
-      <c r="L106" s="4">
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4">
         <v>1851822</v>
       </c>
-      <c r="M106" s="4">
+      <c r="S106" s="4">
         <v>1699047</v>
       </c>
-      <c r="N106" s="4">
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4">
         <v>99583</v>
       </c>
-      <c r="O106" s="4">
+      <c r="W106" s="4">
         <v>94619</v>
       </c>
-      <c r="P106" s="4">
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4">
         <v>58631</v>
       </c>
-      <c r="Q106" s="4">
+      <c r="AA106" s="4">
         <v>53981</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -10047,38 +11166,48 @@
       <c r="G107" s="4">
         <v>4871</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4">
         <v>419</v>
       </c>
-      <c r="I107" s="4">
+      <c r="K107" s="4">
         <v>372</v>
       </c>
-      <c r="J107" s="4">
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4">
         <v>332</v>
       </c>
-      <c r="K107" s="4">
+      <c r="O107" s="4">
         <v>253</v>
       </c>
-      <c r="L107" s="4">
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4">
         <v>125450</v>
       </c>
-      <c r="M107" s="4">
+      <c r="S107" s="4">
         <v>120984</v>
       </c>
-      <c r="N107" s="4">
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4">
         <v>5361</v>
       </c>
-      <c r="O107" s="4">
+      <c r="W107" s="4">
         <v>5096</v>
       </c>
-      <c r="P107" s="4">
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4">
         <v>3925</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="AA107" s="4">
         <v>3650</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -10097,38 +11226,48 @@
       <c r="G108" s="4">
         <v>438436</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4">
         <v>22446</v>
       </c>
-      <c r="I108" s="4">
+      <c r="K108" s="4">
         <v>21249</v>
       </c>
-      <c r="J108" s="4">
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4">
         <v>16886</v>
       </c>
-      <c r="K108" s="4">
+      <c r="O108" s="4">
         <v>13603</v>
       </c>
-      <c r="L108" s="4">
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4">
         <v>4417239</v>
       </c>
-      <c r="M108" s="4">
+      <c r="S108" s="4">
         <v>4062267</v>
       </c>
-      <c r="N108" s="4">
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4">
         <v>227090</v>
       </c>
-      <c r="O108" s="4">
+      <c r="W108" s="4">
         <v>214826</v>
       </c>
-      <c r="P108" s="4">
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4">
         <v>138872</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="AA108" s="4">
         <v>124705</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -10147,38 +11286,48 @@
       <c r="G109" s="4">
         <v>107588</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4">
         <v>3584</v>
       </c>
-      <c r="I109" s="4">
+      <c r="K109" s="4">
         <v>3525</v>
       </c>
-      <c r="J109" s="4">
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4">
         <v>2693</v>
       </c>
-      <c r="K109" s="4">
+      <c r="O109" s="4">
         <v>2169</v>
       </c>
-      <c r="L109" s="4">
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4">
         <v>658842</v>
       </c>
-      <c r="M109" s="4">
+      <c r="S109" s="4">
         <v>614384</v>
       </c>
-      <c r="N109" s="4">
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4">
         <v>28737</v>
       </c>
-      <c r="O109" s="4">
+      <c r="W109" s="4">
         <v>26693</v>
       </c>
-      <c r="P109" s="4">
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4">
         <v>17139</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="AA109" s="4">
         <v>15059</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -10197,38 +11346,48 @@
       <c r="G110" s="4">
         <v>19700</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4">
         <v>1411</v>
       </c>
-      <c r="I110" s="4">
+      <c r="K110" s="4">
         <v>1304</v>
       </c>
-      <c r="J110" s="4">
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4">
         <v>1699</v>
       </c>
-      <c r="K110" s="4">
+      <c r="O110" s="4">
         <v>670</v>
       </c>
-      <c r="L110" s="4">
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4">
         <v>203900</v>
       </c>
-      <c r="M110" s="4">
+      <c r="S110" s="4">
         <v>184400</v>
       </c>
-      <c r="N110" s="4">
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4">
         <v>9646</v>
       </c>
-      <c r="O110" s="4">
+      <c r="W110" s="4">
         <v>8134</v>
       </c>
-      <c r="P110" s="4">
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4">
         <v>4543</v>
       </c>
-      <c r="Q110" s="4">
+      <c r="AA110" s="4">
         <v>4356</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -10247,38 +11406,48 @@
       <c r="G111" s="4">
         <v>86200</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="4" t="s">
         <v>181</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L111" s="4">
-        <v>542900</v>
-      </c>
-      <c r="M111" s="4">
-        <v>447300</v>
-      </c>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
       <c r="N111" s="4" t="s">
         <v>181</v>
       </c>
       <c r="O111" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="P111" s="4" t="s">
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4">
+        <v>542900</v>
+      </c>
+      <c r="S111" s="4">
+        <v>447300</v>
+      </c>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q111" s="4" t="s">
+      <c r="W111" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA111" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -10297,38 +11466,48 @@
       <c r="G112" s="4">
         <v>32005</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4">
         <v>1684</v>
       </c>
-      <c r="I112" s="4">
+      <c r="K112" s="4">
         <v>1604</v>
       </c>
-      <c r="J112" s="4">
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4">
         <v>1032</v>
       </c>
-      <c r="K112" s="4">
+      <c r="O112" s="4">
         <v>842</v>
       </c>
-      <c r="L112" s="4">
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4">
         <v>440420</v>
       </c>
-      <c r="M112" s="4">
+      <c r="S112" s="4">
         <v>366848</v>
       </c>
-      <c r="N112" s="4">
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4">
         <v>9895</v>
       </c>
-      <c r="O112" s="4">
+      <c r="W112" s="4">
         <v>8794</v>
       </c>
-      <c r="P112" s="4">
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4">
         <v>5570</v>
       </c>
-      <c r="Q112" s="4">
+      <c r="AA112" s="4">
         <v>4862</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -10347,38 +11526,48 @@
       <c r="G113" s="4">
         <v>45027</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4">
         <v>2294</v>
       </c>
-      <c r="I113" s="4">
+      <c r="K113" s="4">
         <v>2000</v>
       </c>
-      <c r="J113" s="4">
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4">
         <v>1408</v>
       </c>
-      <c r="K113" s="4">
+      <c r="O113" s="4">
         <v>1077</v>
       </c>
-      <c r="L113" s="4">
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4">
         <v>622805</v>
       </c>
-      <c r="M113" s="4">
+      <c r="S113" s="4">
         <v>504556</v>
       </c>
-      <c r="N113" s="4">
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4">
         <v>21227</v>
       </c>
-      <c r="O113" s="4">
+      <c r="W113" s="4">
         <v>17791</v>
       </c>
-      <c r="P113" s="4">
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4">
         <v>13951</v>
       </c>
-      <c r="Q113" s="4">
+      <c r="AA113" s="4">
         <v>11740</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -10397,38 +11586,48 @@
       <c r="G114" s="4">
         <v>144601</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4">
         <v>5557</v>
       </c>
-      <c r="I114" s="4">
+      <c r="K114" s="4">
         <v>5209</v>
       </c>
-      <c r="J114" s="4">
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4">
         <v>3414</v>
       </c>
-      <c r="K114" s="4">
+      <c r="O114" s="4">
         <v>3076</v>
       </c>
-      <c r="L114" s="4">
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4">
         <v>849049</v>
       </c>
-      <c r="M114" s="4">
+      <c r="S114" s="4">
         <v>743148</v>
       </c>
-      <c r="N114" s="4">
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4">
         <v>30739</v>
       </c>
-      <c r="O114" s="4">
+      <c r="W114" s="4">
         <v>25388</v>
       </c>
-      <c r="P114" s="4">
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4">
         <v>17471</v>
       </c>
-      <c r="Q114" s="4">
+      <c r="AA114" s="4">
         <v>14837</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -10447,38 +11646,48 @@
       <c r="G115" s="4">
         <v>20950</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4">
         <v>663</v>
       </c>
-      <c r="I115" s="4">
+      <c r="K115" s="4">
         <v>689</v>
       </c>
-      <c r="J115" s="4">
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4">
         <v>517</v>
       </c>
-      <c r="K115" s="4">
+      <c r="O115" s="4">
         <v>548</v>
       </c>
-      <c r="L115" s="4">
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4">
         <v>372992</v>
       </c>
-      <c r="M115" s="4">
+      <c r="S115" s="4">
         <v>332627</v>
       </c>
-      <c r="N115" s="4">
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4">
         <v>11712</v>
       </c>
-      <c r="O115" s="4">
+      <c r="W115" s="4">
         <v>15260</v>
       </c>
-      <c r="P115" s="4">
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4">
         <v>10959</v>
       </c>
-      <c r="Q115" s="4">
+      <c r="AA115" s="4">
         <v>9985</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -10497,38 +11706,48 @@
       <c r="G116" s="4">
         <v>30901</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4">
         <v>1318</v>
       </c>
-      <c r="I116" s="4">
+      <c r="K116" s="4">
         <v>1153</v>
       </c>
-      <c r="J116" s="4">
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4">
         <v>983</v>
       </c>
-      <c r="K116" s="4">
+      <c r="O116" s="4">
         <v>868</v>
       </c>
-      <c r="L116" s="4">
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4">
         <v>390669</v>
       </c>
-      <c r="M116" s="4">
+      <c r="S116" s="4">
         <v>350531</v>
       </c>
-      <c r="N116" s="4">
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4">
         <v>8896</v>
       </c>
-      <c r="O116" s="4">
+      <c r="W116" s="4">
         <v>7712</v>
       </c>
-      <c r="P116" s="4">
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4">
         <v>6794</v>
       </c>
-      <c r="Q116" s="4">
+      <c r="AA116" s="4">
         <v>6095</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -10547,38 +11766,48 @@
       <c r="G117" s="4">
         <v>181987</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4">
         <v>6417</v>
       </c>
-      <c r="I117" s="4">
+      <c r="K117" s="4">
         <v>6106</v>
       </c>
-      <c r="J117" s="4">
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4">
         <v>4406</v>
       </c>
-      <c r="K117" s="4">
+      <c r="O117" s="4">
         <v>4357</v>
       </c>
-      <c r="L117" s="4">
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4">
         <v>879231</v>
       </c>
-      <c r="M117" s="4">
+      <c r="S117" s="4">
         <v>787945</v>
       </c>
-      <c r="N117" s="4">
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4">
         <v>25908</v>
       </c>
-      <c r="O117" s="4">
+      <c r="W117" s="4">
         <v>23361</v>
       </c>
-      <c r="P117" s="4">
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4">
         <v>13927</v>
       </c>
-      <c r="Q117" s="4">
+      <c r="AA117" s="4">
         <v>12788</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -10597,38 +11826,48 @@
       <c r="G118" s="4">
         <v>668959</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4">
         <v>22928</v>
       </c>
-      <c r="I118" s="4">
+      <c r="K118" s="4">
         <v>21590</v>
       </c>
-      <c r="J118" s="4">
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4">
         <v>16152</v>
       </c>
-      <c r="K118" s="4">
+      <c r="O118" s="4">
         <v>13607</v>
       </c>
-      <c r="L118" s="4">
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4">
         <v>4960808</v>
       </c>
-      <c r="M118" s="4">
+      <c r="S118" s="4">
         <v>4331739</v>
       </c>
-      <c r="N118" s="4">
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4">
         <v>152760</v>
       </c>
-      <c r="O118" s="4">
+      <c r="W118" s="4">
         <v>133133</v>
       </c>
-      <c r="P118" s="4">
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4">
         <v>90354</v>
       </c>
-      <c r="Q118" s="4">
+      <c r="AA118" s="4">
         <v>79722</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -10647,38 +11886,48 @@
       <c r="G119" s="4">
         <v>1953572</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4">
         <v>71662</v>
       </c>
-      <c r="I119" s="4">
+      <c r="K119" s="4">
         <v>66426</v>
       </c>
-      <c r="J119" s="4">
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4">
         <v>52066</v>
       </c>
-      <c r="K119" s="4">
+      <c r="O119" s="4">
         <v>41613</v>
       </c>
-      <c r="L119" s="4">
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4">
         <v>14857015</v>
       </c>
-      <c r="M119" s="4">
+      <c r="S119" s="4">
         <v>13420822</v>
       </c>
-      <c r="N119" s="4">
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4">
         <v>599872</v>
       </c>
-      <c r="O119" s="4">
+      <c r="W119" s="4">
         <v>544092</v>
       </c>
-      <c r="P119" s="4">
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4">
         <v>353980</v>
       </c>
-      <c r="Q119" s="4">
+      <c r="AA119" s="4">
         <v>317880</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -10697,38 +11946,48 @@
       <c r="G120" s="4">
         <v>10986154</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4">
         <v>400827</v>
       </c>
-      <c r="I120" s="4">
+      <c r="K120" s="4">
         <v>377376</v>
       </c>
-      <c r="J120" s="4">
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4">
         <v>295780</v>
       </c>
-      <c r="K120" s="4">
+      <c r="O120" s="4">
         <v>243280</v>
       </c>
-      <c r="L120" s="4">
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4">
         <v>72514321</v>
       </c>
-      <c r="M120" s="4">
+      <c r="S120" s="4">
         <v>72014634</v>
       </c>
-      <c r="N120" s="4">
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4">
         <v>3214229</v>
       </c>
-      <c r="O120" s="4">
+      <c r="W120" s="4">
         <v>3038698</v>
       </c>
-      <c r="P120" s="4">
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4">
         <v>1926686</v>
       </c>
-      <c r="Q120" s="4">
+      <c r="AA120" s="4">
         <v>1778150</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -10744,8 +12003,18 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="4"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -10761,8 +12030,18 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -10778,8 +12057,18 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -10795,8 +12084,18 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -10812,8 +12111,18 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -10829,8 +12138,18 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -10846,8 +12165,18 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -10863,8 +12192,18 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
+      <c r="AA128" s="4"/>
+    </row>
+    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -10880,8 +12219,18 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+    </row>
+    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -10897,8 +12246,18 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -10914,8 +12273,18 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="4"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
+    </row>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -10931,8 +12300,18 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
+      <c r="AA132" s="4"/>
+    </row>
+    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -10948,8 +12327,18 @@
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+      <c r="AA133" s="4"/>
+    </row>
+    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -10965,8 +12354,18 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
+      <c r="AA134" s="4"/>
+    </row>
+    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -10982,8 +12381,18 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+    </row>
+    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -10999,8 +12408,18 @@
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
+      <c r="AA136" s="4"/>
+    </row>
+    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -11016,8 +12435,18 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
+    </row>
+    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -11033,8 +12462,18 @@
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
+      <c r="Z138" s="4"/>
+      <c r="AA138" s="4"/>
+    </row>
+    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -11050,8 +12489,18 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
+      <c r="AA139" s="4"/>
+    </row>
+    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -11067,8 +12516,18 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
+      <c r="Z140" s="4"/>
+      <c r="AA140" s="4"/>
+    </row>
+    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -11084,8 +12543,18 @@
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
+      <c r="AA141" s="4"/>
+    </row>
+    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -11101,8 +12570,18 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+      <c r="Z142" s="4"/>
+      <c r="AA142" s="4"/>
+    </row>
+    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -11118,8 +12597,18 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
-    </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
+    </row>
+    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -11135,8 +12624,18 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
+      <c r="AA144" s="4"/>
+    </row>
+    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -11152,8 +12651,18 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
+    </row>
+    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -11169,8 +12678,18 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
+      <c r="AA146" s="4"/>
+    </row>
+    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -11186,8 +12705,18 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
+    </row>
+    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -11200,8 +12729,18 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
+    </row>
+    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -11214,6 +12753,16 @@
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
+      <c r="Z149" s="4"/>
+      <c r="AA149" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68551DB1-585A-476B-B281-4163E839A091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C577B04-BFBF-4669-BBE8-0C2439B64F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="202">
   <si>
     <t>губ</t>
   </si>
@@ -617,24 +617,6 @@
   </si>
   <si>
     <t>чс-уез-ж YY</t>
-  </si>
-  <si>
-    <t>11065?</t>
-  </si>
-  <si>
-    <t>116478,</t>
-  </si>
-  <si>
-    <t>576573(16</t>
-  </si>
-  <si>
-    <t>1310194,</t>
-  </si>
-  <si>
-    <t>249460Г</t>
-  </si>
-  <si>
-    <t>»918</t>
   </si>
   <si>
     <t>чж-гор-о NYY</t>
@@ -4732,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
   <dimension ref="A1:AC149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:AC1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="Z75" sqref="Z75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,10 +4763,10 @@
         <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>185</v>
@@ -4793,10 +4775,10 @@
         <v>186</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>187</v>
@@ -4805,10 +4787,10 @@
         <v>188</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>189</v>
@@ -4817,10 +4799,10 @@
         <v>190</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>191</v>
@@ -4829,10 +4811,10 @@
         <v>192</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>193</v>
@@ -4841,10 +4823,10 @@
         <v>194</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -5460,8 +5442,8 @@
       <c r="D12" s="3">
         <v>33840</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>195</v>
+      <c r="F12" s="4">
+        <v>110657</v>
       </c>
       <c r="G12" s="4">
         <v>104335</v>
@@ -7120,8 +7102,8 @@
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="4" t="s">
-        <v>196</v>
+      <c r="Z39" s="4">
+        <v>116478</v>
       </c>
       <c r="AA39" s="4">
         <v>109453</v>
@@ -8367,8 +8349,8 @@
       <c r="R60" s="4">
         <v>1312598</v>
       </c>
-      <c r="S60" s="4" t="s">
-        <v>198</v>
+      <c r="S60" s="4">
+        <v>1310194</v>
       </c>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
@@ -9220,8 +9202,8 @@
       </c>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-      <c r="Z74" s="4" t="s">
-        <v>200</v>
+      <c r="Z74" s="4">
+        <v>8918</v>
       </c>
       <c r="AA74" s="4">
         <v>8379</v>
@@ -9744,8 +9726,8 @@
       </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
-      <c r="R83" s="4" t="s">
-        <v>197</v>
+      <c r="R83" s="4">
+        <v>57657806</v>
       </c>
       <c r="S83" s="4">
         <v>58593812</v>
@@ -9755,8 +9737,8 @@
       <c r="V83" s="4">
         <v>2614357</v>
       </c>
-      <c r="W83" s="4" t="s">
-        <v>199</v>
+      <c r="W83" s="4">
+        <v>2494600</v>
       </c>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7C4F2-508B-4DE2-A388-8E79F8516990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8FE90-EE99-4B76-8AD1-D324AE961924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57540" yWindow="45" windowWidth="29100" windowHeight="23220" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="58050" yWindow="285" windowWidth="28830" windowHeight="23010" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4739,10 +4739,10 @@
   <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB84" sqref="AB84"/>
+      <selection pane="bottomRight" activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="3">
-        <v>819569</v>
+        <v>819560</v>
       </c>
       <c r="S63" s="3">
         <v>834605</v>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="U63" s="5">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V63" s="3">
         <v>26735</v>
@@ -10775,11 +10775,11 @@
         <v>2434950</v>
       </c>
       <c r="T65" s="3">
-        <v>4835280</v>
+        <v>4835289</v>
       </c>
       <c r="U65" s="5">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V65" s="3">
         <v>77417</v>
@@ -14203,11 +14203,11 @@
         <v>37</v>
       </c>
       <c r="P102" s="3">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Q102" s="5">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>16653</v>
